--- a/new_data/double_hit/20260205_203027_phrase15/20260205_203027_phrase15_keypoints.xlsx
+++ b/new_data/double_hit/20260205_203027_phrase15/20260205_203027_phrase15_keypoints.xlsx
@@ -491,1645 +491,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.435190187084688</v>
+        <v>5.046186767779457</v>
       </c>
       <c r="B2" t="n">
-        <v>9.382817265245992</v>
+        <v>4.971689066876286</v>
       </c>
       <c r="C2" t="n">
-        <v>9.401941799530155</v>
+        <v>5.02348030468091</v>
       </c>
       <c r="D2" t="n">
-        <v>9.150849710015333</v>
+        <v>4.748946279961267</v>
       </c>
       <c r="E2" t="n">
-        <v>9.397731577041522</v>
+        <v>4.890937897879887</v>
       </c>
       <c r="F2" t="n">
-        <v>9.028550598667055</v>
+        <v>4.503066351191079</v>
       </c>
       <c r="G2" t="n">
-        <v>9.570934989172867</v>
+        <v>5.081552300492692</v>
       </c>
       <c r="H2" t="n">
-        <v>8.924947015810705</v>
+        <v>4.43563862005884</v>
       </c>
       <c r="I2" t="n">
-        <v>9.853398017580902</v>
+        <v>5.461492833574499</v>
       </c>
       <c r="J2" t="n">
-        <v>8.967639671981646</v>
+        <v>4.465985945380649</v>
       </c>
       <c r="K2" t="n">
-        <v>9.906218368773466</v>
+        <v>5.871335270394427</v>
       </c>
       <c r="L2" t="n">
-        <v>9.142717900836935</v>
+        <v>4.670250010116089</v>
       </c>
       <c r="M2" t="n">
-        <v>9.524775194165697</v>
+        <v>5.122462704568489</v>
       </c>
       <c r="N2" t="n">
-        <v>9.281592953777258</v>
+        <v>4.624455652478316</v>
       </c>
       <c r="O2" t="n">
-        <v>9.87400871916987</v>
+        <v>5.541252782708608</v>
       </c>
       <c r="P2" t="n">
-        <v>9.236932485761766</v>
+        <v>4.653472359238154</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.905198931696619</v>
+        <v>5.943405737343675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.446208354251752</v>
+        <v>5.054063201558599</v>
       </c>
       <c r="B3" t="n">
-        <v>9.397496457302628</v>
+        <v>4.993886118248138</v>
       </c>
       <c r="C3" t="n">
-        <v>9.413340720304234</v>
+        <v>5.046282439316799</v>
       </c>
       <c r="D3" t="n">
-        <v>9.149998716930529</v>
+        <v>4.78957374722827</v>
       </c>
       <c r="E3" t="n">
-        <v>9.381853976166491</v>
+        <v>4.960017766675</v>
       </c>
       <c r="F3" t="n">
-        <v>9.018154446033112</v>
+        <v>4.56095296379444</v>
       </c>
       <c r="G3" t="n">
-        <v>9.512369996001649</v>
+        <v>5.137971217610088</v>
       </c>
       <c r="H3" t="n">
-        <v>8.922494050176571</v>
+        <v>4.477592941761755</v>
       </c>
       <c r="I3" t="n">
-        <v>9.776050641984359</v>
+        <v>5.488243850123792</v>
       </c>
       <c r="J3" t="n">
-        <v>9.004244657002632</v>
+        <v>4.498377191152673</v>
       </c>
       <c r="K3" t="n">
-        <v>9.84767618572617</v>
+        <v>5.889241218058646</v>
       </c>
       <c r="L3" t="n">
-        <v>9.097724931399648</v>
+        <v>4.715209672800206</v>
       </c>
       <c r="M3" t="n">
-        <v>9.44069970932445</v>
+        <v>5.166773996538886</v>
       </c>
       <c r="N3" t="n">
-        <v>9.31793825431051</v>
+        <v>4.640998672831887</v>
       </c>
       <c r="O3" t="n">
-        <v>9.831038832262026</v>
+        <v>5.581827552210781</v>
       </c>
       <c r="P3" t="n">
-        <v>9.264086183666679</v>
+        <v>4.657104740885404</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.8276287187356</v>
+        <v>5.970072688410977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.427622489817145</v>
+        <v>5.283682419429666</v>
       </c>
       <c r="B4" t="n">
-        <v>9.378632484818656</v>
+        <v>5.22325313967323</v>
       </c>
       <c r="C4" t="n">
-        <v>9.397260460251275</v>
+        <v>5.282321060504876</v>
       </c>
       <c r="D4" t="n">
-        <v>9.140925551484095</v>
+        <v>5.032110191026261</v>
       </c>
       <c r="E4" t="n">
-        <v>9.390281439643426</v>
+        <v>5.175039076333653</v>
       </c>
       <c r="F4" t="n">
-        <v>9.00825660687563</v>
+        <v>4.787504105249983</v>
       </c>
       <c r="G4" t="n">
-        <v>9.532583275046887</v>
+        <v>5.364954292530939</v>
       </c>
       <c r="H4" t="n">
-        <v>8.910931949285199</v>
+        <v>4.66191843076094</v>
       </c>
       <c r="I4" t="n">
-        <v>9.808638413257595</v>
+        <v>5.680181656723623</v>
       </c>
       <c r="J4" t="n">
-        <v>8.963928640281933</v>
+        <v>4.677406554786384</v>
       </c>
       <c r="K4" t="n">
-        <v>9.801423395598391</v>
+        <v>6.083943147894709</v>
       </c>
       <c r="L4" t="n">
-        <v>9.098106562319122</v>
+        <v>4.855312326791386</v>
       </c>
       <c r="M4" t="n">
-        <v>9.467771817170716</v>
+        <v>5.316782889286701</v>
       </c>
       <c r="N4" t="n">
-        <v>9.195673358148117</v>
+        <v>4.701527701928895</v>
       </c>
       <c r="O4" t="n">
-        <v>9.759489614704108</v>
+        <v>5.736116569965223</v>
       </c>
       <c r="P4" t="n">
-        <v>9.143868057470106</v>
+        <v>4.621738267140654</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.778927349535978</v>
+        <v>6.076148270180186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.453776051519297</v>
+        <v>5.387365271733828</v>
       </c>
       <c r="B5" t="n">
-        <v>9.399610780327759</v>
+        <v>5.328036371495402</v>
       </c>
       <c r="C5" t="n">
-        <v>9.420264470227195</v>
+        <v>5.382439285430856</v>
       </c>
       <c r="D5" t="n">
-        <v>9.143210950438645</v>
+        <v>5.130114231815585</v>
       </c>
       <c r="E5" t="n">
-        <v>9.395871674629374</v>
+        <v>5.257781154338265</v>
       </c>
       <c r="F5" t="n">
-        <v>9.008388203744413</v>
+        <v>4.875420288200312</v>
       </c>
       <c r="G5" t="n">
-        <v>9.536037254196239</v>
+        <v>5.460107007830323</v>
       </c>
       <c r="H5" t="n">
-        <v>8.915995796796011</v>
+        <v>4.701447400572962</v>
       </c>
       <c r="I5" t="n">
-        <v>9.774045105704088</v>
+        <v>5.738371908829103</v>
       </c>
       <c r="J5" t="n">
-        <v>8.992430767435653</v>
+        <v>4.748709767373873</v>
       </c>
       <c r="K5" t="n">
-        <v>9.752683424650593</v>
+        <v>6.127388690871461</v>
       </c>
       <c r="L5" t="n">
-        <v>9.088316632594044</v>
+        <v>4.937977240211782</v>
       </c>
       <c r="M5" t="n">
-        <v>9.462607078727169</v>
+        <v>5.408380387523051</v>
       </c>
       <c r="N5" t="n">
-        <v>9.204560533353336</v>
+        <v>4.735617823262362</v>
       </c>
       <c r="O5" t="n">
-        <v>9.772780021138844</v>
+        <v>5.806905351991269</v>
       </c>
       <c r="P5" t="n">
-        <v>9.158136667296139</v>
+        <v>4.615407007108866</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.789809533271965</v>
+        <v>6.13108882678778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.445200322236866</v>
+        <v>5.485210591874318</v>
       </c>
       <c r="B6" t="n">
-        <v>9.393237982628774</v>
+        <v>5.422678420359405</v>
       </c>
       <c r="C6" t="n">
-        <v>9.413042434068323</v>
+        <v>5.473004158418264</v>
       </c>
       <c r="D6" t="n">
-        <v>9.142229237797515</v>
+        <v>5.216727713472215</v>
       </c>
       <c r="E6" t="n">
-        <v>9.391663206765658</v>
+        <v>5.312971084297289</v>
       </c>
       <c r="F6" t="n">
-        <v>9.009376934885211</v>
+        <v>4.996568685419752</v>
       </c>
       <c r="G6" t="n">
-        <v>9.51859891445743</v>
+        <v>5.503232600092033</v>
       </c>
       <c r="H6" t="n">
-        <v>8.91834348493512</v>
+        <v>4.767280710641906</v>
       </c>
       <c r="I6" t="n">
-        <v>9.770138433326117</v>
+        <v>5.83921598273019</v>
       </c>
       <c r="J6" t="n">
-        <v>8.973961585558033</v>
+        <v>4.747658948848978</v>
       </c>
       <c r="K6" t="n">
-        <v>9.786751222041422</v>
+        <v>6.243936071337717</v>
       </c>
       <c r="L6" t="n">
-        <v>9.101098197802814</v>
+        <v>5.042924525194707</v>
       </c>
       <c r="M6" t="n">
-        <v>9.452567992263859</v>
+        <v>5.455324058317605</v>
       </c>
       <c r="N6" t="n">
-        <v>9.272153949035603</v>
+        <v>4.804898131770134</v>
       </c>
       <c r="O6" t="n">
-        <v>9.778586952302057</v>
+        <v>5.86115581882132</v>
       </c>
       <c r="P6" t="n">
-        <v>9.225232646814401</v>
+        <v>4.653138293050388</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.764229733917711</v>
+        <v>6.165175497672359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.449252628482958</v>
+        <v>5.540636720743565</v>
       </c>
       <c r="B7" t="n">
-        <v>9.397490316115418</v>
+        <v>5.486427031945825</v>
       </c>
       <c r="C7" t="n">
-        <v>9.416962266133172</v>
+        <v>5.501976636696904</v>
       </c>
       <c r="D7" t="n">
-        <v>9.144109318396211</v>
+        <v>5.143219977722647</v>
       </c>
       <c r="E7" t="n">
-        <v>9.395082970729128</v>
+        <v>5.409278131588201</v>
       </c>
       <c r="F7" t="n">
-        <v>9.006931865063203</v>
+        <v>5.114850700645015</v>
       </c>
       <c r="G7" t="n">
-        <v>9.520788686353997</v>
+        <v>5.519179320142372</v>
       </c>
       <c r="H7" t="n">
-        <v>8.916574823018662</v>
+        <v>4.801809038984112</v>
       </c>
       <c r="I7" t="n">
-        <v>9.773638910035775</v>
+        <v>5.996370755124466</v>
       </c>
       <c r="J7" t="n">
-        <v>8.983833982654216</v>
+        <v>4.771857887930048</v>
       </c>
       <c r="K7" t="n">
-        <v>9.800866302187206</v>
+        <v>6.464681362023921</v>
       </c>
       <c r="L7" t="n">
-        <v>9.097096775679319</v>
+        <v>5.183233578764808</v>
       </c>
       <c r="M7" t="n">
-        <v>9.453759382582584</v>
+        <v>5.448480877141749</v>
       </c>
       <c r="N7" t="n">
-        <v>9.253418941483039</v>
+        <v>5.001382061618116</v>
       </c>
       <c r="O7" t="n">
-        <v>9.771171030089844</v>
+        <v>5.816287436194142</v>
       </c>
       <c r="P7" t="n">
-        <v>9.225462502678544</v>
+        <v>4.729103689439524</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.785701079028525</v>
+        <v>6.110249370214659</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.452261810215822</v>
+        <v>5.353346355118317</v>
       </c>
       <c r="B8" t="n">
-        <v>9.401897933907227</v>
+        <v>5.318004348192953</v>
       </c>
       <c r="C8" t="n">
-        <v>9.419288021460817</v>
+        <v>5.406455664398049</v>
       </c>
       <c r="D8" t="n">
-        <v>9.145952551871648</v>
+        <v>5.278861828656354</v>
       </c>
       <c r="E8" t="n">
-        <v>9.394687302810317</v>
+        <v>5.485558146180463</v>
       </c>
       <c r="F8" t="n">
-        <v>9.011024527682387</v>
+        <v>5.136924163211251</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526107831790251</v>
+        <v>5.70668800507906</v>
       </c>
       <c r="H8" t="n">
-        <v>8.923166948832286</v>
+        <v>4.913525477330394</v>
       </c>
       <c r="I8" t="n">
-        <v>9.773504681229614</v>
+        <v>6.06668964874744</v>
       </c>
       <c r="J8" t="n">
-        <v>9.008427682805049</v>
+        <v>4.862404881318674</v>
       </c>
       <c r="K8" t="n">
-        <v>9.80222964574781</v>
+        <v>6.460537686586944</v>
       </c>
       <c r="L8" t="n">
-        <v>9.096524767956337</v>
+        <v>5.164700904111712</v>
       </c>
       <c r="M8" t="n">
-        <v>9.453271596855624</v>
+        <v>5.598032114896184</v>
       </c>
       <c r="N8" t="n">
-        <v>9.266224194128192</v>
+        <v>4.951217867302637</v>
       </c>
       <c r="O8" t="n">
-        <v>9.761631134415454</v>
+        <v>6.023966817974078</v>
       </c>
       <c r="P8" t="n">
-        <v>9.271188028018727</v>
+        <v>4.691603897250651</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.796448156645894</v>
+        <v>6.20092591227516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.452893475185984</v>
+        <v>5.335141786786726</v>
       </c>
       <c r="B9" t="n">
-        <v>9.403964882059597</v>
+        <v>5.313611613081719</v>
       </c>
       <c r="C9" t="n">
-        <v>9.418665129615238</v>
+        <v>5.399310725783103</v>
       </c>
       <c r="D9" t="n">
-        <v>9.149874138561414</v>
+        <v>5.306224515690289</v>
       </c>
       <c r="E9" t="n">
-        <v>9.391159629414444</v>
+        <v>5.544504987623867</v>
       </c>
       <c r="F9" t="n">
-        <v>9.011618468216835</v>
+        <v>5.170860269053457</v>
       </c>
       <c r="G9" t="n">
-        <v>9.524105804759815</v>
+        <v>5.785171288124715</v>
       </c>
       <c r="H9" t="n">
-        <v>8.916223898035236</v>
+        <v>4.975134810606429</v>
       </c>
       <c r="I9" t="n">
-        <v>9.764900000636052</v>
+        <v>6.13523940312253</v>
       </c>
       <c r="J9" t="n">
-        <v>8.989179447464227</v>
+        <v>4.9161694622099</v>
       </c>
       <c r="K9" t="n">
-        <v>9.834328753981628</v>
+        <v>6.50072161433329</v>
       </c>
       <c r="L9" t="n">
-        <v>9.110410869550437</v>
+        <v>5.248754780047999</v>
       </c>
       <c r="M9" t="n">
-        <v>9.46374670761084</v>
+        <v>5.71609079197526</v>
       </c>
       <c r="N9" t="n">
-        <v>9.250001809456945</v>
+        <v>4.977214176577036</v>
       </c>
       <c r="O9" t="n">
-        <v>9.738184081647962</v>
+        <v>6.110202945993261</v>
       </c>
       <c r="P9" t="n">
-        <v>9.288676374567677</v>
+        <v>4.734396050678939</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.80526426954197</v>
+        <v>6.227846941851467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.47913761939948</v>
+        <v>5.705329782925987</v>
       </c>
       <c r="B10" t="n">
-        <v>10.45309635369203</v>
+        <v>5.646362866143599</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4777040908422</v>
+        <v>5.719381265505454</v>
       </c>
       <c r="D10" t="n">
-        <v>10.26863263615506</v>
+        <v>5.450968964466964</v>
       </c>
       <c r="E10" t="n">
-        <v>10.48424620984568</v>
+        <v>5.676640868810483</v>
       </c>
       <c r="F10" t="n">
-        <v>10.12053878390018</v>
+        <v>5.226929436124506</v>
       </c>
       <c r="G10" t="n">
-        <v>10.56669077082647</v>
+        <v>5.829359618643842</v>
       </c>
       <c r="H10" t="n">
-        <v>9.987775966858644</v>
+        <v>5.018626464127408</v>
       </c>
       <c r="I10" t="n">
-        <v>10.6937247375136</v>
+        <v>6.161895689165998</v>
       </c>
       <c r="J10" t="n">
-        <v>10.09379742285079</v>
+        <v>4.962952216615417</v>
       </c>
       <c r="K10" t="n">
-        <v>10.78527843375161</v>
+        <v>6.526649541984278</v>
       </c>
       <c r="L10" t="n">
-        <v>10.20159105000922</v>
+        <v>5.318444123587551</v>
       </c>
       <c r="M10" t="n">
-        <v>10.50180386407886</v>
+        <v>5.775252188604045</v>
       </c>
       <c r="N10" t="n">
-        <v>10.41515785373403</v>
+        <v>5.066271517077683</v>
       </c>
       <c r="O10" t="n">
-        <v>10.74213571628943</v>
+        <v>6.150016107322762</v>
       </c>
       <c r="P10" t="n">
-        <v>10.45367888916451</v>
+        <v>4.884605383139413</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.77838363513979</v>
+        <v>6.242970573003499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.47913761939948</v>
+        <v>5.750322381713123</v>
       </c>
       <c r="B11" t="n">
-        <v>10.45309635369203</v>
+        <v>5.694059989504362</v>
       </c>
       <c r="C11" t="n">
-        <v>10.4777040908422</v>
+        <v>5.765666841593969</v>
       </c>
       <c r="D11" t="n">
-        <v>10.26863263615506</v>
+        <v>5.507978535698501</v>
       </c>
       <c r="E11" t="n">
-        <v>10.48424620984568</v>
+        <v>5.725823567255993</v>
       </c>
       <c r="F11" t="n">
-        <v>10.12053878390018</v>
+        <v>5.273144121172237</v>
       </c>
       <c r="G11" t="n">
-        <v>10.56669077082647</v>
+        <v>5.882018487505141</v>
       </c>
       <c r="H11" t="n">
-        <v>9.987775966858644</v>
+        <v>5.071524982347817</v>
       </c>
       <c r="I11" t="n">
-        <v>10.6937247375136</v>
+        <v>6.198072704722191</v>
       </c>
       <c r="J11" t="n">
-        <v>10.09379742285079</v>
+        <v>5.026046811299028</v>
       </c>
       <c r="K11" t="n">
-        <v>10.78527843375161</v>
+        <v>6.564590677953608</v>
       </c>
       <c r="L11" t="n">
-        <v>10.20159105000922</v>
+        <v>5.380199630425556</v>
       </c>
       <c r="M11" t="n">
-        <v>10.50180386407886</v>
+        <v>5.839282482290571</v>
       </c>
       <c r="N11" t="n">
-        <v>10.41515785373403</v>
+        <v>5.124109509719444</v>
       </c>
       <c r="O11" t="n">
-        <v>10.74213571628943</v>
+        <v>6.211126693895936</v>
       </c>
       <c r="P11" t="n">
-        <v>10.45367888916451</v>
+        <v>5.025990976762482</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.77838363513979</v>
+        <v>6.260368991004053</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.49132699869873</v>
+        <v>5.844392910770451</v>
       </c>
       <c r="B12" t="n">
-        <v>10.47037326793846</v>
+        <v>5.790363272669214</v>
       </c>
       <c r="C12" t="n">
-        <v>10.48482523606833</v>
+        <v>5.858855310444729</v>
       </c>
       <c r="D12" t="n">
-        <v>10.26505320132413</v>
+        <v>5.608353348550859</v>
       </c>
       <c r="E12" t="n">
-        <v>10.47416325775944</v>
+        <v>5.788222739650143</v>
       </c>
       <c r="F12" t="n">
-        <v>10.09720665906475</v>
+        <v>5.345178201569578</v>
       </c>
       <c r="G12" t="n">
-        <v>10.56031709581502</v>
+        <v>5.943558184449078</v>
       </c>
       <c r="H12" t="n">
-        <v>10.01774320581816</v>
+        <v>5.124058694017643</v>
       </c>
       <c r="I12" t="n">
-        <v>10.68244337660896</v>
+        <v>6.29586156297179</v>
       </c>
       <c r="J12" t="n">
-        <v>10.17213089765075</v>
+        <v>5.100510321390494</v>
       </c>
       <c r="K12" t="n">
-        <v>10.8177486451554</v>
+        <v>6.671665007837224</v>
       </c>
       <c r="L12" t="n">
-        <v>10.17914939731924</v>
+        <v>5.398012729646978</v>
       </c>
       <c r="M12" t="n">
-        <v>10.50342513750228</v>
+        <v>5.859019049928309</v>
       </c>
       <c r="N12" t="n">
-        <v>10.36333412949439</v>
+        <v>5.128705507637882</v>
       </c>
       <c r="O12" t="n">
-        <v>10.77891967305197</v>
+        <v>6.290345236231846</v>
       </c>
       <c r="P12" t="n">
-        <v>10.39008601829328</v>
+        <v>5.182572974641396</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.80065508921281</v>
+        <v>6.350282670183197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.235078505208714</v>
+        <v>5.888820263294344</v>
       </c>
       <c r="B13" t="n">
-        <v>8.156881891152281</v>
+        <v>5.832898524493952</v>
       </c>
       <c r="C13" t="n">
-        <v>8.256843749993147</v>
+        <v>5.904359203021589</v>
       </c>
       <c r="D13" t="n">
-        <v>7.915844679725024</v>
+        <v>5.660519116898385</v>
       </c>
       <c r="E13" t="n">
-        <v>8.153277014260055</v>
+        <v>5.830315079308567</v>
       </c>
       <c r="F13" t="n">
-        <v>7.598135623294312</v>
+        <v>5.433340307422449</v>
       </c>
       <c r="G13" t="n">
-        <v>8.345877804850177</v>
+        <v>5.968056998906207</v>
       </c>
       <c r="H13" t="n">
-        <v>7.205847112073815</v>
+        <v>5.153217182859049</v>
       </c>
       <c r="I13" t="n">
-        <v>8.873134696633029</v>
+        <v>6.345016657826198</v>
       </c>
       <c r="J13" t="n">
-        <v>7.180510766926812</v>
+        <v>5.135067194355317</v>
       </c>
       <c r="K13" t="n">
-        <v>9.381290741568096</v>
+        <v>6.708353944537484</v>
       </c>
       <c r="L13" t="n">
-        <v>7.666136111957352</v>
+        <v>5.481965287856835</v>
       </c>
       <c r="M13" t="n">
-        <v>8.238285082244753</v>
+        <v>5.891161549703246</v>
       </c>
       <c r="N13" t="n">
-        <v>7.247662017129964</v>
+        <v>5.182764004038908</v>
       </c>
       <c r="O13" t="n">
-        <v>8.811763180906874</v>
+        <v>6.301293824229742</v>
       </c>
       <c r="P13" t="n">
-        <v>7.438227881472455</v>
+        <v>5.319073359993801</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.92770002230567</v>
+        <v>6.384225049568835</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.408887262936465</v>
+        <v>6.01282876896453</v>
       </c>
       <c r="B14" t="n">
-        <v>8.334238500462453</v>
+        <v>5.959473536782256</v>
       </c>
       <c r="C14" t="n">
-        <v>8.408367016648539</v>
+        <v>6.012441063980419</v>
       </c>
       <c r="D14" t="n">
-        <v>8.026645733991405</v>
+        <v>5.739613443074338</v>
       </c>
       <c r="E14" t="n">
-        <v>8.253131840980975</v>
+        <v>5.901522934035887</v>
       </c>
       <c r="F14" t="n">
-        <v>7.573986720559971</v>
+        <v>5.416046657597214</v>
       </c>
       <c r="G14" t="n">
-        <v>8.457138570844846</v>
+        <v>6.047598001374533</v>
       </c>
       <c r="H14" t="n">
-        <v>7.287846436981878</v>
+        <v>5.211539179376604</v>
       </c>
       <c r="I14" t="n">
-        <v>8.932748078192228</v>
+        <v>6.387779011923183</v>
       </c>
       <c r="J14" t="n">
-        <v>7.246553971494802</v>
+        <v>5.181877552351936</v>
       </c>
       <c r="K14" t="n">
-        <v>9.492557648749973</v>
+        <v>6.787504732604327</v>
       </c>
       <c r="L14" t="n">
-        <v>7.649668957110168</v>
+        <v>5.470191101543261</v>
       </c>
       <c r="M14" t="n">
-        <v>8.306839155069145</v>
+        <v>5.940133457089433</v>
       </c>
       <c r="N14" t="n">
-        <v>7.388056136592286</v>
+        <v>5.283221941341742</v>
       </c>
       <c r="O14" t="n">
-        <v>8.81473990207877</v>
+        <v>6.303426828996694</v>
       </c>
       <c r="P14" t="n">
-        <v>7.38407927921763</v>
+        <v>5.280487931113984</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.024474604984583</v>
+        <v>6.453452973988948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.454940903136151</v>
+        <v>6.046057219107582</v>
       </c>
       <c r="B15" t="n">
-        <v>8.374461522062544</v>
+        <v>5.988520042873396</v>
       </c>
       <c r="C15" t="n">
-        <v>8.464281648882446</v>
+        <v>6.052700901602295</v>
       </c>
       <c r="D15" t="n">
-        <v>8.094510239223368</v>
+        <v>5.788340682266669</v>
       </c>
       <c r="E15" t="n">
-        <v>8.339804170699562</v>
+        <v>5.963604665132367</v>
       </c>
       <c r="F15" t="n">
-        <v>7.715140153955176</v>
+        <v>5.517087720762072</v>
       </c>
       <c r="G15" t="n">
-        <v>8.569314373733791</v>
+        <v>6.127756947870932</v>
       </c>
       <c r="H15" t="n">
-        <v>7.362527221360629</v>
+        <v>5.265113358224663</v>
       </c>
       <c r="I15" t="n">
-        <v>9.009334823887201</v>
+        <v>6.44244353261976</v>
       </c>
       <c r="J15" t="n">
-        <v>7.321246160935513</v>
+        <v>5.235341003158416</v>
       </c>
       <c r="K15" t="n">
-        <v>9.573502882739074</v>
+        <v>6.845753328663726</v>
       </c>
       <c r="L15" t="n">
-        <v>7.768030690144426</v>
+        <v>5.554887702004177</v>
       </c>
       <c r="M15" t="n">
-        <v>8.412335100898609</v>
+        <v>6.015548977396737</v>
       </c>
       <c r="N15" t="n">
-        <v>7.457463834438856</v>
+        <v>5.332811792756002</v>
       </c>
       <c r="O15" t="n">
-        <v>8.949261730599716</v>
+        <v>6.399444038581038</v>
       </c>
       <c r="P15" t="n">
-        <v>7.401895740626081</v>
+        <v>5.293003022906903</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.087348956952251</v>
+        <v>6.498009561507545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.600606354505734</v>
+        <v>6.150026144992253</v>
       </c>
       <c r="B16" t="n">
-        <v>8.522329027703115</v>
+        <v>6.094072411120358</v>
       </c>
       <c r="C16" t="n">
-        <v>8.57929994413713</v>
+        <v>6.13478143445198</v>
       </c>
       <c r="D16" t="n">
-        <v>8.236898051247769</v>
+        <v>5.89000157152263</v>
       </c>
       <c r="E16" t="n">
-        <v>8.393751868401377</v>
+        <v>6.002070896686973</v>
       </c>
       <c r="F16" t="n">
-        <v>7.825095479011506</v>
+        <v>5.595586060311964</v>
       </c>
       <c r="G16" t="n">
-        <v>8.694109439026674</v>
+        <v>6.216947914846686</v>
       </c>
       <c r="H16" t="n">
-        <v>7.477417428996361</v>
+        <v>5.346978708534623</v>
       </c>
       <c r="I16" t="n">
-        <v>9.137155739849659</v>
+        <v>6.533896112002825</v>
       </c>
       <c r="J16" t="n">
-        <v>7.368522774702432</v>
+        <v>5.269029304035049</v>
       </c>
       <c r="K16" t="n">
-        <v>9.745040278511613</v>
+        <v>6.968274377186134</v>
       </c>
       <c r="L16" t="n">
-        <v>7.903316657816777</v>
+        <v>5.651606293744242</v>
       </c>
       <c r="M16" t="n">
-        <v>8.550592525868106</v>
+        <v>6.114405592738499</v>
       </c>
       <c r="N16" t="n">
-        <v>7.620923814405427</v>
+        <v>5.449827179562301</v>
       </c>
       <c r="O16" t="n">
-        <v>9.018239545341592</v>
+        <v>6.448661241515425</v>
       </c>
       <c r="P16" t="n">
-        <v>7.420184196137237</v>
+        <v>5.306211968603424</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.106577891418985</v>
+        <v>6.511935573218368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.665131808520414</v>
+        <v>6.196348107632676</v>
       </c>
       <c r="B17" t="n">
-        <v>8.580144796034723</v>
+        <v>6.135591976263421</v>
       </c>
       <c r="C17" t="n">
-        <v>8.680195263433902</v>
+        <v>6.20712103641447</v>
       </c>
       <c r="D17" t="n">
-        <v>8.310542290956729</v>
+        <v>5.942812260134988</v>
       </c>
       <c r="E17" t="n">
-        <v>8.587077319082269</v>
+        <v>6.140583834772432</v>
       </c>
       <c r="F17" t="n">
-        <v>7.955652732532215</v>
+        <v>5.689101380775542</v>
       </c>
       <c r="G17" t="n">
-        <v>8.818953633817237</v>
+        <v>6.306392332977101</v>
       </c>
       <c r="H17" t="n">
-        <v>7.596988975910974</v>
+        <v>5.432529765611007</v>
       </c>
       <c r="I17" t="n">
-        <v>9.240645272086397</v>
+        <v>6.607879382344555</v>
       </c>
       <c r="J17" t="n">
-        <v>7.476554153537138</v>
+        <v>5.346446084697228</v>
       </c>
       <c r="K17" t="n">
-        <v>9.750203262330242</v>
+        <v>6.972168365594507</v>
       </c>
       <c r="L17" t="n">
-        <v>8.029877753088742</v>
+        <v>5.742179949692455</v>
       </c>
       <c r="M17" t="n">
-        <v>8.673890896106684</v>
+        <v>6.202676230892747</v>
       </c>
       <c r="N17" t="n">
-        <v>7.718493242171796</v>
+        <v>5.519482332290147</v>
       </c>
       <c r="O17" t="n">
-        <v>9.180234413502365</v>
+        <v>6.564763827752337</v>
       </c>
       <c r="P17" t="n">
-        <v>7.549607961961486</v>
+        <v>5.398570447658102</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.128141354337949</v>
+        <v>6.527552304884173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.757945325448926</v>
+        <v>6.262689574719627</v>
       </c>
       <c r="B18" t="n">
-        <v>8.673797023673618</v>
+        <v>6.202528175267747</v>
       </c>
       <c r="C18" t="n">
-        <v>8.769253883039774</v>
+        <v>6.270774290140719</v>
       </c>
       <c r="D18" t="n">
-        <v>8.394635322047147</v>
+        <v>6.002875792309326</v>
       </c>
       <c r="E18" t="n">
-        <v>8.659844246332669</v>
+        <v>6.192491133130551</v>
       </c>
       <c r="F18" t="n">
-        <v>8.03802886314123</v>
+        <v>5.747924006058988</v>
       </c>
       <c r="G18" t="n">
-        <v>8.901104295124401</v>
+        <v>6.365010440744657</v>
       </c>
       <c r="H18" t="n">
-        <v>7.71105450983566</v>
+        <v>5.514263371508891</v>
       </c>
       <c r="I18" t="n">
-        <v>9.298609306223501</v>
+        <v>6.649326174383805</v>
       </c>
       <c r="J18" t="n">
-        <v>7.591118878250744</v>
+        <v>5.428421849371595</v>
       </c>
       <c r="K18" t="n">
-        <v>9.772783530388677</v>
+        <v>6.988293254278322</v>
       </c>
       <c r="L18" t="n">
-        <v>8.125085455716667</v>
+        <v>5.810126189189368</v>
       </c>
       <c r="M18" t="n">
-        <v>8.77035929673756</v>
+        <v>6.271518332391779</v>
       </c>
       <c r="N18" t="n">
-        <v>7.770855636260991</v>
+        <v>5.556790467727168</v>
       </c>
       <c r="O18" t="n">
-        <v>9.281479780470104</v>
+        <v>6.637063279036861</v>
       </c>
       <c r="P18" t="n">
-        <v>7.756293126761342</v>
+        <v>5.546257188304484</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.135530957176405</v>
+        <v>6.532897991242761</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.875184098536225</v>
+        <v>6.346465219004696</v>
       </c>
       <c r="B19" t="n">
-        <v>8.793158892910636</v>
+        <v>6.287809469976547</v>
       </c>
       <c r="C19" t="n">
-        <v>8.878765287992071</v>
+        <v>6.348998475842623</v>
       </c>
       <c r="D19" t="n">
-        <v>8.506755854251203</v>
+        <v>6.083009644631995</v>
       </c>
       <c r="E19" t="n">
-        <v>8.754049180820457</v>
+        <v>6.259826956851509</v>
       </c>
       <c r="F19" t="n">
-        <v>8.146632249698918</v>
+        <v>5.825552832489175</v>
       </c>
       <c r="G19" t="n">
-        <v>9.003906891706086</v>
+        <v>6.43858153928289</v>
       </c>
       <c r="H19" t="n">
-        <v>7.79989467863935</v>
+        <v>5.577596674520097</v>
       </c>
       <c r="I19" t="n">
-        <v>9.389002318078843</v>
+        <v>6.714092354714928</v>
       </c>
       <c r="J19" t="n">
-        <v>7.675533883013454</v>
+        <v>5.488806586969663</v>
       </c>
       <c r="K19" t="n">
-        <v>9.847164712562829</v>
+        <v>7.041900055552227</v>
       </c>
       <c r="L19" t="n">
-        <v>8.26061443894004</v>
+        <v>5.907084430288542</v>
       </c>
       <c r="M19" t="n">
-        <v>8.893924369963541</v>
+        <v>6.359930125273252</v>
       </c>
       <c r="N19" t="n">
-        <v>7.876688470074543</v>
+        <v>5.632665838768052</v>
       </c>
       <c r="O19" t="n">
-        <v>9.394068797527032</v>
+        <v>6.717517082074573</v>
       </c>
       <c r="P19" t="n">
-        <v>8.013050022821091</v>
+        <v>5.729880040439261</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.149585502762548</v>
+        <v>6.542875434717351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.975480213423802</v>
+        <v>6.418250239727779</v>
       </c>
       <c r="B20" t="n">
-        <v>8.899991862926948</v>
+        <v>6.364275808808745</v>
       </c>
       <c r="C20" t="n">
-        <v>8.978649943336581</v>
+        <v>6.420506205946002</v>
       </c>
       <c r="D20" t="n">
-        <v>8.598242874742372</v>
+        <v>6.148501046583883</v>
       </c>
       <c r="E20" t="n">
-        <v>8.857959823037303</v>
+        <v>6.334187894507858</v>
       </c>
       <c r="F20" t="n">
-        <v>8.245776453328403</v>
+        <v>5.896487788077193</v>
       </c>
       <c r="G20" t="n">
-        <v>9.078876750539932</v>
+        <v>6.492157600193978</v>
       </c>
       <c r="H20" t="n">
-        <v>7.942305300787673</v>
+        <v>5.67962205664947</v>
       </c>
       <c r="I20" t="n">
-        <v>9.425207248618726</v>
+        <v>6.739769340628628</v>
       </c>
       <c r="J20" t="n">
-        <v>7.794819426066576</v>
+        <v>5.573882736808228</v>
       </c>
       <c r="K20" t="n">
-        <v>9.894239544464279</v>
+        <v>7.074785342869538</v>
       </c>
       <c r="L20" t="n">
-        <v>8.384780471200134</v>
+        <v>5.99584377747616</v>
       </c>
       <c r="M20" t="n">
-        <v>8.990158528167981</v>
+        <v>6.428713255464021</v>
       </c>
       <c r="N20" t="n">
-        <v>8.056731410132826</v>
+        <v>5.761311120388985</v>
       </c>
       <c r="O20" t="n">
-        <v>9.492997182291711</v>
+        <v>6.788295826431129</v>
       </c>
       <c r="P20" t="n">
-        <v>8.400629120764034</v>
+        <v>6.0072879754052</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.220908373706155</v>
+        <v>6.593810333843477</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.962727599526163</v>
+        <v>6.409111569010076</v>
       </c>
       <c r="B21" t="n">
-        <v>8.875756106259209</v>
+        <v>6.346926324446963</v>
       </c>
       <c r="C21" t="n">
-        <v>9.006127369538703</v>
+        <v>6.440146788369227</v>
       </c>
       <c r="D21" t="n">
-        <v>8.639959082146932</v>
+        <v>6.178405146062206</v>
       </c>
       <c r="E21" t="n">
-        <v>8.993541445008191</v>
+        <v>6.431187540993685</v>
       </c>
       <c r="F21" t="n">
-        <v>8.349576554175471</v>
+        <v>5.97084245219011</v>
       </c>
       <c r="G21" t="n">
-        <v>9.16981457343204</v>
+        <v>6.557264433933471</v>
       </c>
       <c r="H21" t="n">
-        <v>8.022364449193629</v>
+        <v>5.736937776800499</v>
       </c>
       <c r="I21" t="n">
-        <v>9.492538347875884</v>
+        <v>6.787982149259518</v>
       </c>
       <c r="J21" t="n">
-        <v>7.919677657856476</v>
+        <v>5.663357267947117</v>
       </c>
       <c r="K21" t="n">
-        <v>10.01171870116522</v>
+        <v>7.159048441479289</v>
       </c>
       <c r="L21" t="n">
-        <v>8.48283417544363</v>
+        <v>6.06607609619977</v>
       </c>
       <c r="M21" t="n">
-        <v>9.08200963332945</v>
+        <v>6.49447567449218</v>
       </c>
       <c r="N21" t="n">
-        <v>8.136228201252846</v>
+        <v>5.818335120770416</v>
       </c>
       <c r="O21" t="n">
-        <v>9.669409803396471</v>
+        <v>6.914360799638393</v>
       </c>
       <c r="P21" t="n">
-        <v>8.509035989331004</v>
+        <v>6.084483927338566</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.353282541328545</v>
+        <v>6.688601065686822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.05318465519098</v>
+        <v>6.473825051576369</v>
       </c>
       <c r="B22" t="n">
-        <v>8.972245562389089</v>
+        <v>6.415955377540276</v>
       </c>
       <c r="C22" t="n">
-        <v>9.097387166103102</v>
+        <v>6.505410460694526</v>
       </c>
       <c r="D22" t="n">
-        <v>8.78045979507297</v>
+        <v>6.278786232457996</v>
       </c>
       <c r="E22" t="n">
-        <v>9.108820302063066</v>
+        <v>6.51353281737621</v>
       </c>
       <c r="F22" t="n">
-        <v>8.461812891624056</v>
+        <v>6.050959365945513</v>
       </c>
       <c r="G22" t="n">
-        <v>9.293543704087771</v>
+        <v>6.645669953271511</v>
       </c>
       <c r="H22" t="n">
-        <v>8.126084714606968</v>
+        <v>5.81085705699922</v>
       </c>
       <c r="I22" t="n">
-        <v>9.616601734578328</v>
+        <v>6.876689426036648</v>
       </c>
       <c r="J22" t="n">
-        <v>7.987757981953244</v>
+        <v>5.71187246137144</v>
       </c>
       <c r="K22" t="n">
-        <v>10.12283207866685</v>
+        <v>7.238399355581619</v>
       </c>
       <c r="L22" t="n">
-        <v>8.610046236559848</v>
+        <v>6.156968448154339</v>
       </c>
       <c r="M22" t="n">
-        <v>9.214775959620816</v>
+        <v>6.589395013975887</v>
       </c>
       <c r="N22" t="n">
-        <v>8.291916070149027</v>
+        <v>5.929618998297046</v>
       </c>
       <c r="O22" t="n">
-        <v>9.872789254852471</v>
+        <v>7.059967233282654</v>
       </c>
       <c r="P22" t="n">
-        <v>8.471865137774245</v>
+        <v>6.058166412640437</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.604697481828117</v>
+        <v>6.86864423393918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.288601803008699</v>
+        <v>6.642231424116317</v>
       </c>
       <c r="B23" t="n">
-        <v>9.224489563162001</v>
+        <v>6.596402561989667</v>
       </c>
       <c r="C23" t="n">
-        <v>9.303122201510337</v>
+        <v>6.65257963400775</v>
       </c>
       <c r="D23" t="n">
-        <v>9.011198235549184</v>
+        <v>6.443821202757474</v>
       </c>
       <c r="E23" t="n">
-        <v>9.206506412386423</v>
+        <v>6.583421973274078</v>
       </c>
       <c r="F23" t="n">
-        <v>8.680891849525999</v>
+        <v>6.207583396565423</v>
       </c>
       <c r="G23" t="n">
-        <v>9.442177103504665</v>
+        <v>6.751947543139237</v>
       </c>
       <c r="H23" t="n">
-        <v>8.232780823879743</v>
+        <v>5.887310221390211</v>
       </c>
       <c r="I23" t="n">
-        <v>9.768766316640928</v>
+        <v>6.985584965578636</v>
       </c>
       <c r="J23" t="n">
-        <v>8.085196690163288</v>
+        <v>5.781826862121004</v>
       </c>
       <c r="K23" t="n">
-        <v>10.18490193511002</v>
+        <v>7.283092078992695</v>
       </c>
       <c r="L23" t="n">
-        <v>8.822821704447032</v>
+        <v>6.309083055755176</v>
       </c>
       <c r="M23" t="n">
-        <v>9.414621596493733</v>
+        <v>6.732281866542283</v>
       </c>
       <c r="N23" t="n">
-        <v>8.412114895471511</v>
+        <v>6.015414096212944</v>
       </c>
       <c r="O23" t="n">
-        <v>10.0961512521771</v>
+        <v>7.219741837414221</v>
       </c>
       <c r="P23" t="n">
-        <v>8.464092149391398</v>
+        <v>6.052506421755896</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.947907379491813</v>
+        <v>7.113857598719695</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.430766777668625</v>
+        <v>6.743847771213908</v>
       </c>
       <c r="B24" t="n">
-        <v>9.34495333684697</v>
+        <v>6.682493143801222</v>
       </c>
       <c r="C24" t="n">
-        <v>9.451859123797341</v>
+        <v>6.758901138679501</v>
       </c>
       <c r="D24" t="n">
-        <v>9.081269181614426</v>
+        <v>6.493892862307328</v>
       </c>
       <c r="E24" t="n">
-        <v>9.39146054758773</v>
+        <v>6.715660113218639</v>
       </c>
       <c r="F24" t="n">
-        <v>8.790433083101888</v>
+        <v>6.286017745972306</v>
       </c>
       <c r="G24" t="n">
-        <v>9.594311856943676</v>
+        <v>6.860678088488958</v>
       </c>
       <c r="H24" t="n">
-        <v>8.374495737248427</v>
+        <v>5.988729579224032</v>
       </c>
       <c r="I24" t="n">
-        <v>9.978874754654088</v>
+        <v>7.135687647800762</v>
       </c>
       <c r="J24" t="n">
-        <v>8.143559024156579</v>
+        <v>5.823473152841397</v>
       </c>
       <c r="K24" t="n">
-        <v>10.44393370237482</v>
+        <v>7.468044922335101</v>
       </c>
       <c r="L24" t="n">
-        <v>8.958591948596508</v>
+        <v>6.406238286118123</v>
       </c>
       <c r="M24" t="n">
-        <v>9.591333381146862</v>
+        <v>6.858601545612895</v>
       </c>
       <c r="N24" t="n">
-        <v>8.459584517979312</v>
+        <v>6.049414819552502</v>
       </c>
       <c r="O24" t="n">
-        <v>10.29427647931878</v>
+        <v>7.361298698772989</v>
       </c>
       <c r="P24" t="n">
-        <v>8.472391525249382</v>
+        <v>6.058615598350183</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.3542811422345</v>
+        <v>7.404153273958427</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.598636130051922</v>
+        <v>6.863563291113431</v>
       </c>
       <c r="B25" t="n">
-        <v>9.501217600028426</v>
+        <v>6.793930095787598</v>
       </c>
       <c r="C25" t="n">
-        <v>9.633012741428164</v>
+        <v>6.888161227556791</v>
       </c>
       <c r="D25" t="n">
-        <v>9.250115860076559</v>
+        <v>6.614478522680899</v>
       </c>
       <c r="E25" t="n">
-        <v>9.612752964822622</v>
+        <v>6.873777247175416</v>
       </c>
       <c r="F25" t="n">
-        <v>8.982031982864333</v>
+        <v>6.422951633175878</v>
       </c>
       <c r="G25" t="n">
-        <v>9.753323862745344</v>
+        <v>6.974404256473748</v>
       </c>
       <c r="H25" t="n">
-        <v>8.583429453879575</v>
+        <v>6.137985960437153</v>
       </c>
       <c r="I25" t="n">
-        <v>10.1410170113079</v>
+        <v>7.251738163627187</v>
       </c>
       <c r="J25" t="n">
-        <v>8.229078565304617</v>
+        <v>5.884367929520503</v>
       </c>
       <c r="K25" t="n">
-        <v>10.63075651311286</v>
+        <v>7.601863367870235</v>
       </c>
       <c r="L25" t="n">
-        <v>9.157787496937631</v>
+        <v>6.548661523824879</v>
       </c>
       <c r="M25" t="n">
-        <v>9.776955151129133</v>
+        <v>6.991355370827584</v>
       </c>
       <c r="N25" t="n">
-        <v>8.651697522842476</v>
+        <v>6.186886349428214</v>
       </c>
       <c r="O25" t="n">
-        <v>10.44731047802782</v>
+        <v>7.470854215084045</v>
       </c>
       <c r="P25" t="n">
-        <v>8.431804418978988</v>
+        <v>6.029651903032349</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.77240211879732</v>
+        <v>7.703568171930222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.956201491475046</v>
+        <v>7.119603537149258</v>
       </c>
       <c r="B26" t="n">
-        <v>9.889541536248686</v>
+        <v>7.071945309757775</v>
       </c>
       <c r="C26" t="n">
-        <v>9.890363578022358</v>
+        <v>7.072553216116357</v>
       </c>
       <c r="D26" t="n">
-        <v>9.437640520781448</v>
+        <v>6.748718550334678</v>
       </c>
       <c r="E26" t="n">
-        <v>9.772505422339314</v>
+        <v>6.988256867726415</v>
       </c>
       <c r="F26" t="n">
-        <v>9.235034858913901</v>
+        <v>6.603900701099846</v>
       </c>
       <c r="G26" t="n">
-        <v>9.980174054405216</v>
+        <v>7.136608603976611</v>
       </c>
       <c r="H26" t="n">
-        <v>8.749857381893456</v>
+        <v>6.257150035868984</v>
       </c>
       <c r="I26" t="n">
-        <v>10.55928274442638</v>
+        <v>7.550719559747816</v>
       </c>
       <c r="J26" t="n">
-        <v>8.420754668563417</v>
+        <v>6.021802445489965</v>
       </c>
       <c r="K26" t="n">
-        <v>11.22676575033574</v>
+        <v>8.027895938225672</v>
       </c>
       <c r="L26" t="n">
-        <v>9.369565460559432</v>
+        <v>6.700074121915652</v>
       </c>
       <c r="M26" t="n">
-        <v>9.977152590297933</v>
+        <v>7.134450505035931</v>
       </c>
       <c r="N26" t="n">
-        <v>8.784276981580167</v>
+        <v>6.281628774987132</v>
       </c>
       <c r="O26" t="n">
-        <v>10.76926748138288</v>
+        <v>7.700859883230536</v>
       </c>
       <c r="P26" t="n">
-        <v>8.398996442278653</v>
+        <v>6.006235902171619</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.13733339562252</v>
+        <v>7.963945945895079</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.10501035338365</v>
+        <v>7.226066196548234</v>
       </c>
       <c r="B27" t="n">
-        <v>10.02389492077759</v>
+        <v>7.168086108147733</v>
       </c>
       <c r="C27" t="n">
-        <v>10.10340399427203</v>
+        <v>7.224917510745795</v>
       </c>
       <c r="D27" t="n">
-        <v>9.781702288842405</v>
+        <v>6.994908705827589</v>
       </c>
       <c r="E27" t="n">
-        <v>9.973413484599547</v>
+        <v>7.131991903364846</v>
       </c>
       <c r="F27" t="n">
-        <v>9.466881345025277</v>
+        <v>6.769723001100066</v>
       </c>
       <c r="G27" t="n">
-        <v>10.22820432343966</v>
+        <v>7.314240849487969</v>
       </c>
       <c r="H27" t="n">
-        <v>8.952950829487962</v>
+        <v>6.402446556467694</v>
       </c>
       <c r="I27" t="n">
-        <v>10.85674167468859</v>
+        <v>7.763757802327548</v>
       </c>
       <c r="J27" t="n">
-        <v>8.567155307773273</v>
+        <v>6.126364848583324</v>
       </c>
       <c r="K27" t="n">
-        <v>11.53128704588936</v>
+        <v>8.246022024528928</v>
       </c>
       <c r="L27" t="n">
-        <v>9.535273115044834</v>
+        <v>6.818689262297164</v>
       </c>
       <c r="M27" t="n">
-        <v>10.18408778914848</v>
+        <v>7.282738251143118</v>
       </c>
       <c r="N27" t="n">
-        <v>8.915322020827837</v>
+        <v>6.375351749738315</v>
       </c>
       <c r="O27" t="n">
-        <v>11.07774633343707</v>
+        <v>7.921910068127545</v>
       </c>
       <c r="P27" t="n">
-        <v>8.419217617136018</v>
+        <v>6.020750999610726</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.49991435237123</v>
+        <v>8.223517569528898</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.27897088616673</v>
+        <v>7.350144965904859</v>
       </c>
       <c r="B28" t="n">
-        <v>10.21266887442347</v>
+        <v>7.302733288770263</v>
       </c>
       <c r="C28" t="n">
-        <v>10.32418318371866</v>
+        <v>7.382471280502361</v>
       </c>
       <c r="D28" t="n">
-        <v>10.0729542334603</v>
+        <v>7.202845930242589</v>
       </c>
       <c r="E28" t="n">
-        <v>10.34817680214784</v>
+        <v>7.399692157223781</v>
       </c>
       <c r="F28" t="n">
-        <v>9.763584909260668</v>
+        <v>6.981764377628418</v>
       </c>
       <c r="G28" t="n">
-        <v>10.53623837807737</v>
+        <v>7.534264682679468</v>
       </c>
       <c r="H28" t="n">
-        <v>9.173022027780538</v>
+        <v>6.559610739177118</v>
       </c>
       <c r="I28" t="n">
-        <v>11.23616264407938</v>
+        <v>8.034952419878223</v>
       </c>
       <c r="J28" t="n">
-        <v>8.695834235320206</v>
+        <v>6.218195095281009</v>
       </c>
       <c r="K28" t="n">
-        <v>11.85150082938927</v>
+        <v>8.47495491674851</v>
       </c>
       <c r="L28" t="n">
-        <v>9.675498351858883</v>
+        <v>6.918795567490624</v>
       </c>
       <c r="M28" t="n">
-        <v>10.33501448333205</v>
+        <v>7.390394765857244</v>
       </c>
       <c r="N28" t="n">
-        <v>9.198863266247443</v>
+        <v>6.578011669418138</v>
       </c>
       <c r="O28" t="n">
-        <v>11.27990281132584</v>
+        <v>8.065995167489493</v>
       </c>
       <c r="P28" t="n">
-        <v>8.42344012199907</v>
+        <v>6.023434821491027</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.5625070870397</v>
+        <v>8.268216566483407</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.67385887420195</v>
+        <v>7.632706616800361</v>
       </c>
       <c r="B29" t="n">
-        <v>10.5882252824343</v>
+        <v>7.571487497925809</v>
       </c>
       <c r="C29" t="n">
-        <v>10.64562081809826</v>
+        <v>7.612475693940165</v>
       </c>
       <c r="D29" t="n">
-        <v>10.21451473983628</v>
+        <v>7.304203807350774</v>
       </c>
       <c r="E29" t="n">
-        <v>10.44037883229273</v>
+        <v>7.46586737540978</v>
       </c>
       <c r="F29" t="n">
-        <v>10.18166552945039</v>
+        <v>7.280479775507522</v>
       </c>
       <c r="G29" t="n">
-        <v>10.53888698438976</v>
+        <v>7.536694426050763</v>
       </c>
       <c r="H29" t="n">
-        <v>9.233931199841031</v>
+        <v>6.603067574532049</v>
       </c>
       <c r="I29" t="n">
-        <v>11.28143635350341</v>
+        <v>8.068135700508565</v>
       </c>
       <c r="J29" t="n">
-        <v>8.83667710010508</v>
+        <v>6.319095631072986</v>
       </c>
       <c r="K29" t="n">
-        <v>11.8308138016164</v>
+        <v>8.46099251848578</v>
       </c>
       <c r="L29" t="n">
-        <v>10.2078708525876</v>
+        <v>7.298856238929156</v>
       </c>
       <c r="M29" t="n">
-        <v>10.31524424707838</v>
+        <v>7.377055957811675</v>
       </c>
       <c r="N29" t="n">
-        <v>10.11749626429389</v>
+        <v>7.231662824644109</v>
       </c>
       <c r="O29" t="n">
-        <v>10.76786904532394</v>
+        <v>7.703158509544099</v>
       </c>
       <c r="P29" t="n">
-        <v>9.894255336088532</v>
+        <v>7.06882422190025</v>
       </c>
       <c r="Q29" t="n">
-        <v>10.65815147194388</v>
+        <v>7.627445623278108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11.60520149783556</v>
+        <v>8.298682148098912</v>
       </c>
       <c r="B30" t="n">
-        <v>11.52646972317941</v>
+        <v>8.24233569040816</v>
       </c>
       <c r="C30" t="n">
-        <v>11.54903595423851</v>
+        <v>8.258453050839854</v>
       </c>
       <c r="D30" t="n">
-        <v>11.17610972897844</v>
+        <v>7.99177914868643</v>
       </c>
       <c r="E30" t="n">
-        <v>11.5153085540816</v>
+        <v>8.234436044518318</v>
       </c>
       <c r="F30" t="n">
-        <v>10.9367341473477</v>
+        <v>7.820537134515122</v>
       </c>
       <c r="G30" t="n">
-        <v>11.59242870575138</v>
+        <v>8.289787518220722</v>
       </c>
       <c r="H30" t="n">
-        <v>10.1594230266885</v>
+        <v>7.264944599906336</v>
       </c>
       <c r="I30" t="n">
-        <v>11.75880136308037</v>
+        <v>8.409883842206581</v>
       </c>
       <c r="J30" t="n">
-        <v>9.601125942809317</v>
+        <v>6.865726408888858</v>
       </c>
       <c r="K30" t="n">
-        <v>11.85312999862481</v>
+        <v>8.478057811330082</v>
       </c>
       <c r="L30" t="n">
-        <v>10.85421764674531</v>
+        <v>7.761700707436125</v>
       </c>
       <c r="M30" t="n">
-        <v>11.35436031968389</v>
+        <v>8.11946959699698</v>
       </c>
       <c r="N30" t="n">
-        <v>10.45122153696808</v>
+        <v>7.47345710825407</v>
       </c>
       <c r="O30" t="n">
-        <v>12.16158779518</v>
+        <v>8.696730950620626</v>
       </c>
       <c r="P30" t="n">
-        <v>9.635394644753156</v>
+        <v>6.89010288924906</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.20435502290992</v>
+        <v>8.727330786065581</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12.15991476032153</v>
+        <v>8.695087282241387</v>
       </c>
       <c r="B31" t="n">
-        <v>12.09714831778626</v>
+        <v>8.650177494227556</v>
       </c>
       <c r="C31" t="n">
-        <v>12.10039261925802</v>
+        <v>8.652542620101499</v>
       </c>
       <c r="D31" t="n">
-        <v>11.7246730311299</v>
+        <v>8.383885023514809</v>
       </c>
       <c r="E31" t="n">
-        <v>11.93861620189942</v>
+        <v>8.536808290864059</v>
       </c>
       <c r="F31" t="n">
-        <v>11.47219127868071</v>
+        <v>8.203456032341371</v>
       </c>
       <c r="G31" t="n">
-        <v>12.04331203876668</v>
+        <v>8.611637234860449</v>
       </c>
       <c r="H31" t="n">
-        <v>10.96465637096631</v>
+        <v>7.840774958273094</v>
       </c>
       <c r="I31" t="n">
-        <v>12.44620550298626</v>
+        <v>8.899976191902676</v>
       </c>
       <c r="J31" t="n">
-        <v>10.40187446579896</v>
+        <v>7.438298288796926</v>
       </c>
       <c r="K31" t="n">
-        <v>12.40483144744054</v>
+        <v>8.870928431102849</v>
       </c>
       <c r="L31" t="n">
-        <v>11.26255571208272</v>
+        <v>8.053658871684393</v>
       </c>
       <c r="M31" t="n">
-        <v>11.73584121872737</v>
+        <v>8.391970366290243</v>
       </c>
       <c r="N31" t="n">
-        <v>10.83619764884648</v>
+        <v>7.748751486437697</v>
       </c>
       <c r="O31" t="n">
-        <v>12.42434199920647</v>
+        <v>8.884531982681256</v>
       </c>
       <c r="P31" t="n">
-        <v>9.900842198027407</v>
+        <v>7.079905809018909</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.63244753287674</v>
+        <v>9.033488488518318</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.02652466487212</v>
+        <v>8.60010959880376</v>
       </c>
       <c r="B32" t="n">
-        <v>11.96109031515037</v>
+        <v>8.553346606060055</v>
       </c>
       <c r="C32" t="n">
-        <v>12.10411944258198</v>
+        <v>8.655555175657648</v>
       </c>
       <c r="D32" t="n">
-        <v>11.85462844830403</v>
+        <v>8.477210882966734</v>
       </c>
       <c r="E32" t="n">
-        <v>12.20948905541742</v>
+        <v>8.730730419251497</v>
       </c>
       <c r="F32" t="n">
-        <v>11.72157611815118</v>
+        <v>8.382157917007921</v>
       </c>
       <c r="G32" t="n">
-        <v>12.35130661434375</v>
+        <v>8.832098961383517</v>
       </c>
       <c r="H32" t="n">
-        <v>11.12550459174374</v>
+        <v>7.955854329576213</v>
       </c>
       <c r="I32" t="n">
-        <v>12.66395884176332</v>
+        <v>9.055883783862628</v>
       </c>
       <c r="J32" t="n">
-        <v>10.42227548971033</v>
+        <v>7.452968342758809</v>
       </c>
       <c r="K32" t="n">
-        <v>12.63649720718545</v>
+        <v>9.036087617562282</v>
       </c>
       <c r="L32" t="n">
-        <v>11.49215452367526</v>
+        <v>8.218014417230162</v>
       </c>
       <c r="M32" t="n">
-        <v>12.01270523902488</v>
+        <v>8.590027387153853</v>
       </c>
       <c r="N32" t="n">
-        <v>10.95988554581666</v>
+        <v>7.837303179337709</v>
       </c>
       <c r="O32" t="n">
-        <v>12.58277936534778</v>
+        <v>8.997932553761915</v>
       </c>
       <c r="P32" t="n">
-        <v>10.13838858318205</v>
+        <v>7.249831633778138</v>
       </c>
       <c r="Q32" t="n">
-        <v>12.39124012283252</v>
+        <v>8.86111284504881</v>
       </c>
     </row>
   </sheetData>
@@ -2206,1645 +2206,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.345423356996644</v>
+        <v>4.595791832536541</v>
       </c>
       <c r="B2" t="n">
-        <v>6.310607212078662</v>
+        <v>4.549613534040717</v>
       </c>
       <c r="C2" t="n">
-        <v>6.296502221026153</v>
+        <v>4.537706662283551</v>
       </c>
       <c r="D2" t="n">
-        <v>6.350814880710728</v>
+        <v>4.644899562138036</v>
       </c>
       <c r="E2" t="n">
-        <v>6.310115917101869</v>
+        <v>4.608132833499217</v>
       </c>
       <c r="F2" t="n">
-        <v>6.648309780783743</v>
+        <v>5.077127256632783</v>
       </c>
       <c r="G2" t="n">
-        <v>6.544241222324356</v>
+        <v>4.972099356616753</v>
       </c>
       <c r="H2" t="n">
-        <v>7.019162478047997</v>
+        <v>5.578213991193827</v>
       </c>
       <c r="I2" t="n">
-        <v>6.77545560480934</v>
+        <v>5.263026777679109</v>
       </c>
       <c r="J2" t="n">
-        <v>7.237464575767884</v>
+        <v>5.963747074568278</v>
       </c>
       <c r="K2" t="n">
-        <v>6.89908735378217</v>
+        <v>5.384173292835519</v>
       </c>
       <c r="L2" t="n">
-        <v>7.327696600787081</v>
+        <v>5.831091743985476</v>
       </c>
       <c r="M2" t="n">
-        <v>7.297322727503022</v>
+        <v>5.759968582094491</v>
       </c>
       <c r="N2" t="n">
-        <v>7.159272786929974</v>
+        <v>6.341687915681067</v>
       </c>
       <c r="O2" t="n">
-        <v>7.124393036858748</v>
+        <v>6.250813757002451</v>
       </c>
       <c r="P2" t="n">
-        <v>7.669604128106043</v>
+        <v>6.799675406862818</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.630652332258406</v>
+        <v>6.734671459235613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.344931184707391</v>
+        <v>4.655717033078199</v>
       </c>
       <c r="B3" t="n">
-        <v>6.30815249181961</v>
+        <v>4.608785282016166</v>
       </c>
       <c r="C3" t="n">
-        <v>6.296762782826345</v>
+        <v>4.599381240411281</v>
       </c>
       <c r="D3" t="n">
-        <v>6.346578777504568</v>
+        <v>4.689740968528456</v>
       </c>
       <c r="E3" t="n">
-        <v>6.318948698934657</v>
+        <v>4.664149302805434</v>
       </c>
       <c r="F3" t="n">
-        <v>6.639682290066257</v>
+        <v>5.112101633913019</v>
       </c>
       <c r="G3" t="n">
-        <v>6.5642373665361</v>
+        <v>5.007791427265635</v>
       </c>
       <c r="H3" t="n">
-        <v>6.986304494537523</v>
+        <v>5.610258623691221</v>
       </c>
       <c r="I3" t="n">
-        <v>6.807313013460824</v>
+        <v>5.277759567075315</v>
       </c>
       <c r="J3" t="n">
-        <v>7.170394038310919</v>
+        <v>6.028762941928004</v>
       </c>
       <c r="K3" t="n">
-        <v>6.931504926438447</v>
+        <v>5.424729241707395</v>
       </c>
       <c r="L3" t="n">
-        <v>7.306960004860311</v>
+        <v>5.847192793204247</v>
       </c>
       <c r="M3" t="n">
-        <v>7.288720240190605</v>
+        <v>5.774159337338155</v>
       </c>
       <c r="N3" t="n">
-        <v>7.138937122796767</v>
+        <v>6.356971522190621</v>
       </c>
       <c r="O3" t="n">
-        <v>7.115737910798817</v>
+        <v>6.226403399507715</v>
       </c>
       <c r="P3" t="n">
-        <v>7.644856020962504</v>
+        <v>6.800141531139831</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.619108654928665</v>
+        <v>6.722194008703287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.34141491637348</v>
+        <v>4.709737574541458</v>
       </c>
       <c r="B4" t="n">
-        <v>6.303719431966503</v>
+        <v>4.662698232209564</v>
       </c>
       <c r="C4" t="n">
-        <v>6.292748201015971</v>
+        <v>4.654996202937838</v>
       </c>
       <c r="D4" t="n">
-        <v>6.346526577413283</v>
+        <v>4.740251776118565</v>
       </c>
       <c r="E4" t="n">
-        <v>6.319107053833428</v>
+        <v>4.718178313552328</v>
       </c>
       <c r="F4" t="n">
-        <v>6.650855741538486</v>
+        <v>5.155713425790725</v>
       </c>
       <c r="G4" t="n">
-        <v>6.573220607455533</v>
+        <v>5.05527493647253</v>
       </c>
       <c r="H4" t="n">
-        <v>7.001471033664892</v>
+        <v>5.683046156654771</v>
       </c>
       <c r="I4" t="n">
-        <v>6.801356939179656</v>
+        <v>5.346690125536741</v>
       </c>
       <c r="J4" t="n">
-        <v>7.184606500139602</v>
+        <v>6.066538456350724</v>
       </c>
       <c r="K4" t="n">
-        <v>6.894127029141469</v>
+        <v>5.494700581024225</v>
       </c>
       <c r="L4" t="n">
-        <v>7.354150642006291</v>
+        <v>5.917806543368536</v>
       </c>
       <c r="M4" t="n">
-        <v>7.331131717718575</v>
+        <v>5.859631347767293</v>
       </c>
       <c r="N4" t="n">
-        <v>7.161088385062966</v>
+        <v>6.323909948302865</v>
       </c>
       <c r="O4" t="n">
-        <v>7.135732739041874</v>
+        <v>6.242685126777334</v>
       </c>
       <c r="P4" t="n">
-        <v>7.673791540470753</v>
+        <v>6.816524262458708</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.648949560894148</v>
+        <v>6.790562457673187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.346152842305937</v>
+        <v>4.694598259530846</v>
       </c>
       <c r="B5" t="n">
-        <v>6.306126338696564</v>
+        <v>4.645626979499001</v>
       </c>
       <c r="C5" t="n">
-        <v>6.298586715427693</v>
+        <v>4.638652367588239</v>
       </c>
       <c r="D5" t="n">
-        <v>6.347911853785351</v>
+        <v>4.7286918313132</v>
       </c>
       <c r="E5" t="n">
-        <v>6.33013838068737</v>
+        <v>4.709177660790134</v>
       </c>
       <c r="F5" t="n">
-        <v>6.649784543026583</v>
+        <v>5.139408800087579</v>
       </c>
       <c r="G5" t="n">
-        <v>6.599271084943805</v>
+        <v>5.053206862880102</v>
       </c>
       <c r="H5" t="n">
-        <v>7.005711084777116</v>
+        <v>5.609579198937513</v>
       </c>
       <c r="I5" t="n">
-        <v>6.869146434196411</v>
+        <v>5.352435436611961</v>
       </c>
       <c r="J5" t="n">
-        <v>7.156328526319045</v>
+        <v>5.951735748312966</v>
       </c>
       <c r="K5" t="n">
-        <v>6.939371348598131</v>
+        <v>5.506744529705385</v>
       </c>
       <c r="L5" t="n">
-        <v>7.361835021830824</v>
+        <v>5.905092580248815</v>
       </c>
       <c r="M5" t="n">
-        <v>7.35079886975836</v>
+        <v>5.852439357576605</v>
       </c>
       <c r="N5" t="n">
-        <v>7.139034504479667</v>
+        <v>6.322999029796509</v>
       </c>
       <c r="O5" t="n">
-        <v>7.125390541124131</v>
+        <v>6.218089072397005</v>
       </c>
       <c r="P5" t="n">
-        <v>7.657934117782268</v>
+        <v>6.785940738226676</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.648766202590309</v>
+        <v>6.807187975122891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.34274974727918</v>
+        <v>4.686136504149478</v>
       </c>
       <c r="B6" t="n">
-        <v>6.30287984394366</v>
+        <v>4.635570175699995</v>
       </c>
       <c r="C6" t="n">
-        <v>6.294491859527361</v>
+        <v>4.627624105588755</v>
       </c>
       <c r="D6" t="n">
-        <v>6.345817270290538</v>
+        <v>4.720900090370393</v>
       </c>
       <c r="E6" t="n">
-        <v>6.323993245571382</v>
+        <v>4.695964950967553</v>
       </c>
       <c r="F6" t="n">
-        <v>6.650037209014648</v>
+        <v>5.125065911415684</v>
       </c>
       <c r="G6" t="n">
-        <v>6.586769382409315</v>
+        <v>5.044055645075535</v>
       </c>
       <c r="H6" t="n">
-        <v>7.006464696179019</v>
+        <v>5.591215282602743</v>
       </c>
       <c r="I6" t="n">
-        <v>6.829912143737118</v>
+        <v>5.354808090738023</v>
       </c>
       <c r="J6" t="n">
-        <v>7.188309197370958</v>
+        <v>5.999412168980402</v>
       </c>
       <c r="K6" t="n">
-        <v>6.902334725847533</v>
+        <v>5.553789831903541</v>
       </c>
       <c r="L6" t="n">
-        <v>7.354448050929743</v>
+        <v>5.886151497918282</v>
       </c>
       <c r="M6" t="n">
-        <v>7.341457685355834</v>
+        <v>5.842648238341953</v>
       </c>
       <c r="N6" t="n">
-        <v>7.117446038155634</v>
+        <v>6.32750406133518</v>
       </c>
       <c r="O6" t="n">
-        <v>7.103142335831262</v>
+        <v>6.217059583919779</v>
       </c>
       <c r="P6" t="n">
-        <v>7.600328027128256</v>
+        <v>6.780559920024868</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.587193782311144</v>
+        <v>6.823116501897276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.344088087434714</v>
+        <v>4.675519472921975</v>
       </c>
       <c r="B7" t="n">
-        <v>6.304620870517674</v>
+        <v>4.62927467486577</v>
       </c>
       <c r="C7" t="n">
-        <v>6.296221919695642</v>
+        <v>4.633758690033943</v>
       </c>
       <c r="D7" t="n">
-        <v>6.344267936488719</v>
+        <v>4.710464364548081</v>
       </c>
       <c r="E7" t="n">
-        <v>6.322723335787615</v>
+        <v>4.716360554342844</v>
       </c>
       <c r="F7" t="n">
-        <v>6.643156008745928</v>
+        <v>5.099476755110036</v>
       </c>
       <c r="G7" t="n">
-        <v>6.57817786150263</v>
+        <v>5.060147597656329</v>
       </c>
       <c r="H7" t="n">
-        <v>7.007984640013476</v>
+        <v>5.567236544896143</v>
       </c>
       <c r="I7" t="n">
-        <v>6.827248623112928</v>
+        <v>5.387463139011371</v>
       </c>
       <c r="J7" t="n">
-        <v>7.198408379737679</v>
+        <v>6.006720219724585</v>
       </c>
       <c r="K7" t="n">
-        <v>6.9030743002501</v>
+        <v>5.563606045311922</v>
       </c>
       <c r="L7" t="n">
-        <v>7.339630243504653</v>
+        <v>5.877236165346766</v>
       </c>
       <c r="M7" t="n">
-        <v>7.326476697813452</v>
+        <v>5.851658928773638</v>
       </c>
       <c r="N7" t="n">
-        <v>7.080129991386985</v>
+        <v>6.280887869507787</v>
       </c>
       <c r="O7" t="n">
-        <v>7.065250772089795</v>
+        <v>6.278943071043802</v>
       </c>
       <c r="P7" t="n">
-        <v>7.563276490065862</v>
+        <v>6.796660969243639</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.549736049580436</v>
+        <v>6.815034923247901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.340808254808385</v>
+        <v>4.714094236777958</v>
       </c>
       <c r="B8" t="n">
-        <v>6.301140133338334</v>
+        <v>4.660071813251669</v>
       </c>
       <c r="C8" t="n">
-        <v>6.293285993553069</v>
+        <v>4.661313033819732</v>
       </c>
       <c r="D8" t="n">
-        <v>6.340987665206161</v>
+        <v>4.711668257532722</v>
       </c>
       <c r="E8" t="n">
-        <v>6.321461321815975</v>
+        <v>4.708458712712803</v>
       </c>
       <c r="F8" t="n">
-        <v>6.639117739499173</v>
+        <v>5.099333090965438</v>
       </c>
       <c r="G8" t="n">
-        <v>6.579303014730734</v>
+        <v>5.044480991320239</v>
       </c>
       <c r="H8" t="n">
-        <v>7.000152433039675</v>
+        <v>5.548078397962855</v>
       </c>
       <c r="I8" t="n">
-        <v>6.832518639051503</v>
+        <v>5.359601705274576</v>
       </c>
       <c r="J8" t="n">
-        <v>7.190657324166295</v>
+        <v>5.953181172719748</v>
       </c>
       <c r="K8" t="n">
-        <v>6.914263104690353</v>
+        <v>5.579411610635036</v>
       </c>
       <c r="L8" t="n">
-        <v>7.327402262457234</v>
+        <v>5.841791272309113</v>
       </c>
       <c r="M8" t="n">
-        <v>7.316209948767145</v>
+        <v>5.815557195738633</v>
       </c>
       <c r="N8" t="n">
-        <v>7.08491792412958</v>
+        <v>6.297822672648699</v>
       </c>
       <c r="O8" t="n">
-        <v>7.071330547427621</v>
+        <v>6.241988763456359</v>
       </c>
       <c r="P8" t="n">
-        <v>7.569259761033246</v>
+        <v>6.794133358594801</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.559003101080213</v>
+        <v>6.824285890393041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.346616940596515</v>
+        <v>4.72404689975599</v>
       </c>
       <c r="B9" t="n">
-        <v>6.30931054426491</v>
+        <v>4.663451684775772</v>
       </c>
       <c r="C9" t="n">
-        <v>6.299646070221405</v>
+        <v>4.667024154083245</v>
       </c>
       <c r="D9" t="n">
-        <v>6.347268783753226</v>
+        <v>4.689861106885183</v>
       </c>
       <c r="E9" t="n">
-        <v>6.323653725649918</v>
+        <v>4.687886822767066</v>
       </c>
       <c r="F9" t="n">
-        <v>6.646158171979122</v>
+        <v>5.074176809156613</v>
       </c>
       <c r="G9" t="n">
-        <v>6.578174790909025</v>
+        <v>5.008860439066484</v>
       </c>
       <c r="H9" t="n">
-        <v>7.023568779871119</v>
+        <v>5.53798301187174</v>
       </c>
       <c r="I9" t="n">
-        <v>6.844687840164198</v>
+        <v>5.322959820150057</v>
       </c>
       <c r="J9" t="n">
-        <v>7.256340830626276</v>
+        <v>5.956827983516892</v>
       </c>
       <c r="K9" t="n">
-        <v>6.968892912828699</v>
+        <v>5.565074681829403</v>
       </c>
       <c r="L9" t="n">
-        <v>7.322623980151683</v>
+        <v>5.817783048948382</v>
       </c>
       <c r="M9" t="n">
-        <v>7.307670189295516</v>
+        <v>5.785603535267195</v>
       </c>
       <c r="N9" t="n">
-        <v>7.147052263038454</v>
+        <v>6.29667963303535</v>
       </c>
       <c r="O9" t="n">
-        <v>7.12843306073042</v>
+        <v>6.225628616893837</v>
       </c>
       <c r="P9" t="n">
-        <v>7.579038285696363</v>
+        <v>6.784122037985678</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.563278244690779</v>
+        <v>6.806924486298738</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.210848451071955</v>
+        <v>4.678317473292742</v>
       </c>
       <c r="B10" t="n">
-        <v>6.167322786721613</v>
+        <v>4.624247684513539</v>
       </c>
       <c r="C10" t="n">
-        <v>6.170158699243911</v>
+        <v>4.616630034400975</v>
       </c>
       <c r="D10" t="n">
-        <v>6.194499294750448</v>
+        <v>4.663902752548549</v>
       </c>
       <c r="E10" t="n">
-        <v>6.19744794192367</v>
+        <v>4.649540729569186</v>
       </c>
       <c r="F10" t="n">
-        <v>6.456747728144556</v>
+        <v>5.04063279977892</v>
       </c>
       <c r="G10" t="n">
-        <v>6.459855168872778</v>
+        <v>4.974709150684554</v>
       </c>
       <c r="H10" t="n">
-        <v>6.80930889930405</v>
+        <v>5.488417627276865</v>
       </c>
       <c r="I10" t="n">
-        <v>6.791655179356662</v>
+        <v>5.277479139683895</v>
       </c>
       <c r="J10" t="n">
-        <v>6.987808208091496</v>
+        <v>5.907329725836742</v>
       </c>
       <c r="K10" t="n">
-        <v>6.948468640137176</v>
+        <v>5.527344964273738</v>
       </c>
       <c r="L10" t="n">
-        <v>7.096810333161599</v>
+        <v>5.788926631223237</v>
       </c>
       <c r="M10" t="n">
-        <v>7.105756288301543</v>
+        <v>5.750272193365665</v>
       </c>
       <c r="N10" t="n">
-        <v>7.183232628829496</v>
+        <v>6.277437420620071</v>
       </c>
       <c r="O10" t="n">
-        <v>7.159444740171852</v>
+        <v>6.196614105874201</v>
       </c>
       <c r="P10" t="n">
-        <v>7.593856093121453</v>
+        <v>6.746082407384463</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.561421851528465</v>
+        <v>6.798859218862287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.210848451071955</v>
+        <v>4.633176818880606</v>
       </c>
       <c r="B11" t="n">
-        <v>6.167322786721613</v>
+        <v>4.580543044193035</v>
       </c>
       <c r="C11" t="n">
-        <v>6.170158699243911</v>
+        <v>4.573839763035718</v>
       </c>
       <c r="D11" t="n">
-        <v>6.194499294750448</v>
+        <v>4.629947826076046</v>
       </c>
       <c r="E11" t="n">
-        <v>6.19744794192367</v>
+        <v>4.61945877513456</v>
       </c>
       <c r="F11" t="n">
-        <v>6.456747728144556</v>
+        <v>5.015779843795042</v>
       </c>
       <c r="G11" t="n">
-        <v>6.459855168872778</v>
+        <v>4.95188850909554</v>
       </c>
       <c r="H11" t="n">
-        <v>6.80930889930405</v>
+        <v>5.459866731116869</v>
       </c>
       <c r="I11" t="n">
-        <v>6.791655179356662</v>
+        <v>5.29009084404567</v>
       </c>
       <c r="J11" t="n">
-        <v>6.987808208091496</v>
+        <v>5.864537886085626</v>
       </c>
       <c r="K11" t="n">
-        <v>6.948468640137176</v>
+        <v>5.517563255354234</v>
       </c>
       <c r="L11" t="n">
-        <v>7.096810333161599</v>
+        <v>5.783823103641133</v>
       </c>
       <c r="M11" t="n">
-        <v>7.105756288301543</v>
+        <v>5.739255223744358</v>
       </c>
       <c r="N11" t="n">
-        <v>7.183232628829496</v>
+        <v>6.293128807452718</v>
       </c>
       <c r="O11" t="n">
-        <v>7.159444740171852</v>
+        <v>6.154717500770862</v>
       </c>
       <c r="P11" t="n">
-        <v>7.593856093121453</v>
+        <v>6.714653836852111</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.561421851528465</v>
+        <v>6.791136486897234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.212985584221009</v>
+        <v>4.58215252176057</v>
       </c>
       <c r="B12" t="n">
-        <v>6.171974736033131</v>
+        <v>4.53292528115669</v>
       </c>
       <c r="C12" t="n">
-        <v>6.171427293058989</v>
+        <v>4.529765297329885</v>
       </c>
       <c r="D12" t="n">
-        <v>6.196312699602292</v>
+        <v>4.592022060288125</v>
       </c>
       <c r="E12" t="n">
-        <v>6.197554535387385</v>
+        <v>4.590216220811163</v>
       </c>
       <c r="F12" t="n">
-        <v>6.447656139136492</v>
+        <v>4.985845631308244</v>
       </c>
       <c r="G12" t="n">
-        <v>6.45036966657082</v>
+        <v>4.916704595464667</v>
       </c>
       <c r="H12" t="n">
-        <v>6.795565360984467</v>
+        <v>5.405223540467962</v>
       </c>
       <c r="I12" t="n">
-        <v>6.787519528427008</v>
+        <v>5.284839260838566</v>
       </c>
       <c r="J12" t="n">
-        <v>6.962269203766565</v>
+        <v>5.807532078980148</v>
       </c>
       <c r="K12" t="n">
-        <v>6.939546372433615</v>
+        <v>5.524031905987187</v>
       </c>
       <c r="L12" t="n">
-        <v>7.106140112502163</v>
+        <v>5.791843828919216</v>
       </c>
       <c r="M12" t="n">
-        <v>7.110082754690935</v>
+        <v>5.730334244983753</v>
       </c>
       <c r="N12" t="n">
-        <v>7.20577078588992</v>
+        <v>6.34032906617365</v>
       </c>
       <c r="O12" t="n">
-        <v>7.171048074748776</v>
+        <v>6.083867238019179</v>
       </c>
       <c r="P12" t="n">
-        <v>7.611988387014986</v>
+        <v>6.726533418695348</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.565214473286822</v>
+        <v>6.71380628113442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.431625008581213</v>
+        <v>4.599137199571768</v>
       </c>
       <c r="B13" t="n">
-        <v>6.359826634285064</v>
+        <v>4.547796402185577</v>
       </c>
       <c r="C13" t="n">
-        <v>6.355005363669044</v>
+        <v>4.544344071234831</v>
       </c>
       <c r="D13" t="n">
-        <v>6.439476077772873</v>
+        <v>4.604780879243386</v>
       </c>
       <c r="E13" t="n">
-        <v>6.430024352000569</v>
+        <v>4.598007020722455</v>
       </c>
       <c r="F13" t="n">
-        <v>6.978296825072011</v>
+        <v>4.990134539275675</v>
       </c>
       <c r="G13" t="n">
-        <v>6.890484427813525</v>
+        <v>4.927281162337033</v>
       </c>
       <c r="H13" t="n">
-        <v>7.576995024980375</v>
+        <v>5.418310152067556</v>
       </c>
       <c r="I13" t="n">
-        <v>7.415280019493883</v>
+        <v>5.302666161855538</v>
       </c>
       <c r="J13" t="n">
-        <v>8.144005576197987</v>
+        <v>5.823713429554851</v>
       </c>
       <c r="K13" t="n">
-        <v>7.734262933614424</v>
+        <v>5.530723894766328</v>
       </c>
       <c r="L13" t="n">
-        <v>8.107048788881118</v>
+        <v>5.797298674933524</v>
       </c>
       <c r="M13" t="n">
-        <v>8.030951583538021</v>
+        <v>5.742854355611418</v>
       </c>
       <c r="N13" t="n">
-        <v>8.851437882220363</v>
+        <v>6.329496538729249</v>
       </c>
       <c r="O13" t="n">
-        <v>8.50427130536856</v>
+        <v>6.08119157174534</v>
       </c>
       <c r="P13" t="n">
-        <v>9.47139599493703</v>
+        <v>6.772789509129731</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.42038992590877</v>
+        <v>6.7363985657425</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.436837560553751</v>
+        <v>4.602907599174527</v>
       </c>
       <c r="B14" t="n">
-        <v>6.358576464031615</v>
+        <v>4.546935358349506</v>
       </c>
       <c r="C14" t="n">
-        <v>6.354544335972069</v>
+        <v>4.544053919851091</v>
       </c>
       <c r="D14" t="n">
-        <v>6.440248112736406</v>
+        <v>4.60533671519148</v>
       </c>
       <c r="E14" t="n">
-        <v>6.43576504607316</v>
+        <v>4.60211556431621</v>
       </c>
       <c r="F14" t="n">
-        <v>7.004250359533612</v>
+        <v>5.008746574253189</v>
       </c>
       <c r="G14" t="n">
-        <v>6.916603774329793</v>
+        <v>4.94598730046603</v>
       </c>
       <c r="H14" t="n">
-        <v>7.619798222521093</v>
+        <v>5.448854152975965</v>
       </c>
       <c r="I14" t="n">
-        <v>7.387022662516102</v>
+        <v>5.282415163656359</v>
       </c>
       <c r="J14" t="n">
-        <v>8.190491731439742</v>
+        <v>5.856938742926188</v>
       </c>
       <c r="K14" t="n">
-        <v>7.767745563595393</v>
+        <v>5.554757212300787</v>
       </c>
       <c r="L14" t="n">
-        <v>8.091351914372549</v>
+        <v>5.786036409764018</v>
       </c>
       <c r="M14" t="n">
-        <v>8.028381935346896</v>
+        <v>5.740988603794678</v>
       </c>
       <c r="N14" t="n">
-        <v>8.847346974226095</v>
+        <v>6.326583732513674</v>
       </c>
       <c r="O14" t="n">
-        <v>8.622878685891214</v>
+        <v>6.166018034555305</v>
       </c>
       <c r="P14" t="n">
-        <v>9.426597788865545</v>
+        <v>6.740896696383397</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.469076380796595</v>
+        <v>6.771128274828881</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.441444766929882</v>
+        <v>4.606077620670824</v>
       </c>
       <c r="B15" t="n">
-        <v>6.366232769857474</v>
+        <v>4.552301120047077</v>
       </c>
       <c r="C15" t="n">
-        <v>6.363148139253175</v>
+        <v>4.550096283207826</v>
       </c>
       <c r="D15" t="n">
-        <v>6.457743916441252</v>
+        <v>4.617773387691496</v>
       </c>
       <c r="E15" t="n">
-        <v>6.454442151003459</v>
+        <v>4.61540387033715</v>
       </c>
       <c r="F15" t="n">
-        <v>7.005314978202075</v>
+        <v>5.009393690258222</v>
       </c>
       <c r="G15" t="n">
-        <v>6.969531157642302</v>
+        <v>4.983782576550561</v>
       </c>
       <c r="H15" t="n">
-        <v>7.619363952854106</v>
+        <v>5.448504716606791</v>
       </c>
       <c r="I15" t="n">
-        <v>7.469019794143018</v>
+        <v>5.340976809533026</v>
       </c>
       <c r="J15" t="n">
-        <v>8.206188605948309</v>
+        <v>5.868194734552262</v>
       </c>
       <c r="K15" t="n">
-        <v>7.770559104649998</v>
+        <v>5.556698246638714</v>
       </c>
       <c r="L15" t="n">
-        <v>8.104694082242341</v>
+        <v>5.795625520900153</v>
       </c>
       <c r="M15" t="n">
-        <v>8.06978055564146</v>
+        <v>5.770665601000756</v>
       </c>
       <c r="N15" t="n">
-        <v>8.813024756222283</v>
+        <v>6.301981404589912</v>
       </c>
       <c r="O15" t="n">
-        <v>8.692438158793117</v>
+        <v>6.215749668051133</v>
       </c>
       <c r="P15" t="n">
-        <v>9.449613203903427</v>
+        <v>6.757244923213396</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.570225243393892</v>
+        <v>6.843487952130354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.442278652421744</v>
+        <v>4.606867773466111</v>
       </c>
       <c r="B16" t="n">
-        <v>6.367256593496615</v>
+        <v>4.553229918152216</v>
       </c>
       <c r="C16" t="n">
-        <v>6.355505431770423</v>
+        <v>4.54484250426052</v>
       </c>
       <c r="D16" t="n">
-        <v>6.459177444998541</v>
+        <v>4.618948736053521</v>
       </c>
       <c r="E16" t="n">
-        <v>6.43460699362786</v>
+        <v>4.601406967585542</v>
       </c>
       <c r="F16" t="n">
-        <v>7.008196949628447</v>
+        <v>5.011518853095884</v>
       </c>
       <c r="G16" t="n">
-        <v>6.949522731056137</v>
+        <v>4.969555434754992</v>
       </c>
       <c r="H16" t="n">
-        <v>7.642125824591463</v>
+        <v>5.464814047467511</v>
       </c>
       <c r="I16" t="n">
-        <v>7.429425805575716</v>
+        <v>5.312705713410107</v>
       </c>
       <c r="J16" t="n">
-        <v>8.211947284926303</v>
+        <v>5.872274419846229</v>
       </c>
       <c r="K16" t="n">
-        <v>7.769769523437293</v>
+        <v>5.556104142075683</v>
       </c>
       <c r="L16" t="n">
-        <v>8.076392859641631</v>
+        <v>5.775340018212097</v>
       </c>
       <c r="M16" t="n">
-        <v>8.046469486305043</v>
+        <v>5.753947862462597</v>
       </c>
       <c r="N16" t="n">
-        <v>8.742917840346241</v>
+        <v>6.251949895718024</v>
       </c>
       <c r="O16" t="n">
-        <v>8.68483536902723</v>
+        <v>6.210343128321253</v>
       </c>
       <c r="P16" t="n">
-        <v>9.44542315960134</v>
+        <v>6.754296357800257</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.537105820770767</v>
+        <v>6.81979654271295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.430349834922694</v>
+        <v>4.598311914933261</v>
       </c>
       <c r="B17" t="n">
-        <v>6.354933862703671</v>
+        <v>4.544380457786738</v>
       </c>
       <c r="C17" t="n">
-        <v>6.349317308343966</v>
+        <v>4.540366017344465</v>
       </c>
       <c r="D17" t="n">
-        <v>6.455527825170928</v>
+        <v>4.616317611938051</v>
       </c>
       <c r="E17" t="n">
-        <v>6.442107576492325</v>
+        <v>4.606729441833431</v>
       </c>
       <c r="F17" t="n">
-        <v>7.01721001917147</v>
+        <v>5.017985307988636</v>
       </c>
       <c r="G17" t="n">
-        <v>6.939673144083876</v>
+        <v>4.962507108708902</v>
       </c>
       <c r="H17" t="n">
-        <v>7.628752950785622</v>
+        <v>5.455192941259872</v>
       </c>
       <c r="I17" t="n">
-        <v>7.390858272584929</v>
+        <v>5.285080164906363</v>
       </c>
       <c r="J17" t="n">
-        <v>8.224685861824604</v>
+        <v>5.881038560021029</v>
       </c>
       <c r="K17" t="n">
-        <v>7.750690609400973</v>
+        <v>5.542358808415708</v>
       </c>
       <c r="L17" t="n">
-        <v>8.071210574948912</v>
+        <v>5.771683169745461</v>
       </c>
       <c r="M17" t="n">
-        <v>8.028059961674606</v>
+        <v>5.740817336058979</v>
       </c>
       <c r="N17" t="n">
-        <v>8.800611662246109</v>
+        <v>6.293302584605791</v>
       </c>
       <c r="O17" t="n">
-        <v>8.688926277021498</v>
+        <v>6.213426574918185</v>
       </c>
       <c r="P17" t="n">
-        <v>9.44416772547314</v>
+        <v>6.753606268022714</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.563190074788693</v>
+        <v>6.838717549704501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.380913716539029</v>
+        <v>4.563162505791265</v>
       </c>
       <c r="B18" t="n">
-        <v>6.303399651575357</v>
+        <v>4.507747982977367</v>
       </c>
       <c r="C18" t="n">
-        <v>6.297312857737863</v>
+        <v>4.5033975942843</v>
       </c>
       <c r="D18" t="n">
-        <v>6.407069910178557</v>
+        <v>4.58183915826613</v>
       </c>
       <c r="E18" t="n">
-        <v>6.393064055433865</v>
+        <v>4.57182658294832</v>
       </c>
       <c r="F18" t="n">
-        <v>6.981724484847607</v>
+        <v>4.992707633114397</v>
       </c>
       <c r="G18" t="n">
-        <v>6.893659860257285</v>
+        <v>4.929708396290955</v>
       </c>
       <c r="H18" t="n">
-        <v>7.608283496502485</v>
+        <v>5.440741833963772</v>
       </c>
       <c r="I18" t="n">
-        <v>7.384392479765337</v>
+        <v>5.280720052220976</v>
       </c>
       <c r="J18" t="n">
-        <v>8.225138555053221</v>
+        <v>5.8815548726455</v>
       </c>
       <c r="K18" t="n">
-        <v>7.744931930422981</v>
+        <v>5.538445999377037</v>
       </c>
       <c r="L18" t="n">
-        <v>8.093307443842681</v>
+        <v>5.787580956157028</v>
       </c>
       <c r="M18" t="n">
-        <v>8.045135094055572</v>
+        <v>5.753124146209949</v>
       </c>
       <c r="N18" t="n">
-        <v>8.824089420949651</v>
+        <v>6.310052945569796</v>
       </c>
       <c r="O18" t="n">
-        <v>8.670485169142552</v>
+        <v>6.200157403204714</v>
       </c>
       <c r="P18" t="n">
-        <v>9.403712216071531</v>
+        <v>6.724428017519497</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.562268896707206</v>
+        <v>6.83782168770238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.390017587921513</v>
+        <v>4.569376764238042</v>
       </c>
       <c r="B19" t="n">
-        <v>6.310650200389132</v>
+        <v>4.512637582728433</v>
       </c>
       <c r="C19" t="n">
-        <v>6.302924148222817</v>
+        <v>4.507105258452738</v>
       </c>
       <c r="D19" t="n">
-        <v>6.410880955498545</v>
+        <v>4.584305915543676</v>
       </c>
       <c r="E19" t="n">
-        <v>6.393672471623876</v>
+        <v>4.571984676242812</v>
       </c>
       <c r="F19" t="n">
-        <v>6.985542110011035</v>
+        <v>4.995171567297398</v>
       </c>
       <c r="G19" t="n">
-        <v>6.895836911123204</v>
+        <v>4.931042778978987</v>
       </c>
       <c r="H19" t="n">
-        <v>7.626686002633253</v>
+        <v>5.453593815039001</v>
       </c>
       <c r="I19" t="n">
-        <v>7.407693898664708</v>
+        <v>5.296989859758074</v>
       </c>
       <c r="J19" t="n">
-        <v>8.214726610795022</v>
+        <v>5.874246194546973</v>
       </c>
       <c r="K19" t="n">
-        <v>7.763069488191265</v>
+        <v>5.55139208360375</v>
       </c>
       <c r="L19" t="n">
-        <v>8.118046777861634</v>
+        <v>5.804992548598788</v>
       </c>
       <c r="M19" t="n">
-        <v>8.070787710343886</v>
+        <v>5.771204498381582</v>
       </c>
       <c r="N19" t="n">
-        <v>8.83251425248921</v>
+        <v>6.315833388488236</v>
       </c>
       <c r="O19" t="n">
-        <v>8.682708763627678</v>
+        <v>6.208797327219556</v>
       </c>
       <c r="P19" t="n">
-        <v>9.368098594128718</v>
+        <v>6.699059689942663</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.533432513506774</v>
+        <v>6.817049985398327</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.431015715078742</v>
+        <v>4.598868064558526</v>
       </c>
       <c r="B20" t="n">
-        <v>6.350699075466198</v>
+        <v>4.541439734302888</v>
       </c>
       <c r="C20" t="n">
-        <v>6.345258860910664</v>
+        <v>4.537551392083603</v>
       </c>
       <c r="D20" t="n">
-        <v>6.427690262204568</v>
+        <v>4.596518308865991</v>
       </c>
       <c r="E20" t="n">
-        <v>6.422070637251257</v>
+        <v>4.592506064163921</v>
       </c>
       <c r="F20" t="n">
-        <v>6.9669843195751</v>
+        <v>4.982096561753155</v>
       </c>
       <c r="G20" t="n">
-        <v>6.882597827467293</v>
+        <v>4.921793380219706</v>
       </c>
       <c r="H20" t="n">
-        <v>7.561347279969487</v>
+        <v>5.40706357075663</v>
       </c>
       <c r="I20" t="n">
-        <v>7.460913427025917</v>
+        <v>5.335437270682383</v>
       </c>
       <c r="J20" t="n">
-        <v>8.168809831338873</v>
+        <v>5.841474458365786</v>
       </c>
       <c r="K20" t="n">
-        <v>7.814126441342121</v>
+        <v>5.588107996540768</v>
       </c>
       <c r="L20" t="n">
-        <v>8.129754512621126</v>
+        <v>5.813558444801131</v>
       </c>
       <c r="M20" t="n">
-        <v>8.067519721435747</v>
+        <v>5.769072748323318</v>
       </c>
       <c r="N20" t="n">
-        <v>8.909155391556613</v>
+        <v>6.370801548686932</v>
       </c>
       <c r="O20" t="n">
-        <v>8.633008135537755</v>
+        <v>6.173275269597687</v>
       </c>
       <c r="P20" t="n">
-        <v>9.267001492966477</v>
+        <v>6.626675545821804</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.494814096393391</v>
+        <v>6.789586921669478</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.527753450634395</v>
+        <v>4.668052074174613</v>
       </c>
       <c r="B21" t="n">
-        <v>6.447228010656715</v>
+        <v>4.610470042104887</v>
       </c>
       <c r="C21" t="n">
-        <v>6.439991498842277</v>
+        <v>4.605297191867857</v>
       </c>
       <c r="D21" t="n">
-        <v>6.50275399347148</v>
+        <v>4.65017435745584</v>
       </c>
       <c r="E21" t="n">
-        <v>6.492188519533033</v>
+        <v>4.642611600848308</v>
       </c>
       <c r="F21" t="n">
-        <v>7.059411819021845</v>
+        <v>5.04829844249874</v>
       </c>
       <c r="G21" t="n">
-        <v>6.977338799867263</v>
+        <v>4.989547962964764</v>
       </c>
       <c r="H21" t="n">
-        <v>7.67882205010814</v>
+        <v>5.491156028985025</v>
       </c>
       <c r="I21" t="n">
-        <v>7.563664262172546</v>
+        <v>5.408771856633221</v>
       </c>
       <c r="J21" t="n">
-        <v>8.246117727874783</v>
+        <v>5.896606358048063</v>
       </c>
       <c r="K21" t="n">
-        <v>7.864928973879995</v>
+        <v>5.624140720598019</v>
       </c>
       <c r="L21" t="n">
-        <v>8.207303670083141</v>
+        <v>5.868958852142305</v>
       </c>
       <c r="M21" t="n">
-        <v>8.131786368275153</v>
+        <v>5.814940506419246</v>
       </c>
       <c r="N21" t="n">
-        <v>8.930121404691297</v>
+        <v>6.385819784309303</v>
       </c>
       <c r="O21" t="n">
-        <v>8.63381614031209</v>
+        <v>6.173881921247582</v>
       </c>
       <c r="P21" t="n">
-        <v>9.383046243797676</v>
+        <v>6.70963249268897</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.38267777256508</v>
+        <v>6.709338263501999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.544338604007256</v>
+        <v>4.679817477527383</v>
       </c>
       <c r="B22" t="n">
-        <v>6.46823525747695</v>
+        <v>4.625400448119207</v>
       </c>
       <c r="C22" t="n">
-        <v>6.469610006099515</v>
+        <v>4.626384767083722</v>
       </c>
       <c r="D22" t="n">
-        <v>6.549245851244216</v>
+        <v>4.683328779786392</v>
       </c>
       <c r="E22" t="n">
-        <v>6.551405794517192</v>
+        <v>4.684873326179402</v>
       </c>
       <c r="F22" t="n">
-        <v>7.110524920170049</v>
+        <v>5.084696914138089</v>
       </c>
       <c r="G22" t="n">
-        <v>7.068052469426209</v>
+        <v>5.05431477065023</v>
       </c>
       <c r="H22" t="n">
-        <v>7.694760185542812</v>
+        <v>5.502413275319786</v>
       </c>
       <c r="I22" t="n">
-        <v>7.632616634853123</v>
+        <v>5.457951418307015</v>
       </c>
       <c r="J22" t="n">
-        <v>8.202253859571666</v>
+        <v>5.865276282147597</v>
       </c>
       <c r="K22" t="n">
-        <v>7.894902354026722</v>
+        <v>5.645602512679615</v>
       </c>
       <c r="L22" t="n">
-        <v>8.203646154443401</v>
+        <v>5.866327100672493</v>
       </c>
       <c r="M22" t="n">
-        <v>8.148443899925844</v>
+        <v>5.826851455979644</v>
       </c>
       <c r="N22" t="n">
-        <v>8.875881561940782</v>
+        <v>6.347004743739866</v>
       </c>
       <c r="O22" t="n">
-        <v>8.630892057887708</v>
+        <v>6.17180726043455</v>
       </c>
       <c r="P22" t="n">
-        <v>9.392933555205655</v>
+        <v>6.716808799021076</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.375164468669967</v>
+        <v>6.704094208547013</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.600246217741495</v>
+        <v>4.719660751865359</v>
       </c>
       <c r="B23" t="n">
-        <v>6.527050723355089</v>
+        <v>4.667317442238701</v>
       </c>
       <c r="C23" t="n">
-        <v>6.522902790051013</v>
+        <v>4.66434127323446</v>
       </c>
       <c r="D23" t="n">
-        <v>6.614413936634792</v>
+        <v>4.729791897154039</v>
       </c>
       <c r="E23" t="n">
-        <v>6.608013064937133</v>
+        <v>4.725205309550748</v>
       </c>
       <c r="F23" t="n">
-        <v>7.159190758215099</v>
+        <v>5.119392746089936</v>
       </c>
       <c r="G23" t="n">
-        <v>7.091932914548231</v>
+        <v>5.071302271555973</v>
       </c>
       <c r="H23" t="n">
-        <v>7.694076759137593</v>
+        <v>5.501874377938959</v>
       </c>
       <c r="I23" t="n">
-        <v>7.661194210878279</v>
+        <v>5.478389368100474</v>
       </c>
       <c r="J23" t="n">
-        <v>8.207673018628194</v>
+        <v>5.868857848093047</v>
       </c>
       <c r="K23" t="n">
-        <v>7.894511949982662</v>
+        <v>5.645018445786077</v>
       </c>
       <c r="L23" t="n">
-        <v>8.248181166777318</v>
+        <v>5.89809381519584</v>
       </c>
       <c r="M23" t="n">
-        <v>8.176759159525892</v>
+        <v>5.847021525468548</v>
       </c>
       <c r="N23" t="n">
-        <v>8.901003404191668</v>
+        <v>6.364770791385546</v>
       </c>
       <c r="O23" t="n">
-        <v>8.567569399253713</v>
+        <v>6.126401235135231</v>
       </c>
       <c r="P23" t="n">
-        <v>9.416429737470827</v>
+        <v>6.733266812861141</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.415121664595112</v>
+        <v>6.732368441441648</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.622130777020292</v>
+        <v>4.735581123033283</v>
       </c>
       <c r="B24" t="n">
-        <v>6.550239846259765</v>
+        <v>4.684181981693173</v>
       </c>
       <c r="C24" t="n">
-        <v>6.543552970700615</v>
+        <v>4.679410010881461</v>
       </c>
       <c r="D24" t="n">
-        <v>6.663165312644551</v>
+        <v>4.764926249791797</v>
       </c>
       <c r="E24" t="n">
-        <v>6.653432408229278</v>
+        <v>4.757991788559002</v>
       </c>
       <c r="F24" t="n">
-        <v>7.238104136550175</v>
+        <v>5.175992027581007</v>
       </c>
       <c r="G24" t="n">
-        <v>7.153196959498213</v>
+        <v>5.115282947787493</v>
       </c>
       <c r="H24" t="n">
-        <v>7.70656793392258</v>
+        <v>5.510905143709627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.701091749556245</v>
+        <v>5.507017428844686</v>
       </c>
       <c r="J24" t="n">
-        <v>8.158774254125397</v>
+        <v>5.834063521509314</v>
       </c>
       <c r="K24" t="n">
-        <v>7.841823195658883</v>
+        <v>5.607562254724057</v>
       </c>
       <c r="L24" t="n">
-        <v>8.317129152895603</v>
+        <v>5.947501733850566</v>
       </c>
       <c r="M24" t="n">
-        <v>8.224556896893196</v>
+        <v>5.881316477995076</v>
       </c>
       <c r="N24" t="n">
-        <v>8.920215669721689</v>
+        <v>6.378736953774336</v>
       </c>
       <c r="O24" t="n">
-        <v>8.472967042222198</v>
+        <v>6.0589380584826</v>
       </c>
       <c r="P24" t="n">
-        <v>9.399630081201847</v>
+        <v>6.721634408629133</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.424235186414641</v>
+        <v>6.739253028004157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.719336558772588</v>
+        <v>4.804777052381892</v>
       </c>
       <c r="B25" t="n">
-        <v>6.645697582938379</v>
+        <v>4.752107518496759</v>
       </c>
       <c r="C25" t="n">
-        <v>6.634961910382971</v>
+        <v>4.744433720170477</v>
       </c>
       <c r="D25" t="n">
-        <v>6.731890461398361</v>
+        <v>4.813744141686723</v>
       </c>
       <c r="E25" t="n">
-        <v>6.717549473294499</v>
+        <v>4.803503836742324</v>
       </c>
       <c r="F25" t="n">
-        <v>7.248318685505197</v>
+        <v>5.183123478077573</v>
       </c>
       <c r="G25" t="n">
-        <v>7.2259472178119</v>
+        <v>5.167073244560602</v>
       </c>
       <c r="H25" t="n">
-        <v>7.641500300808509</v>
+        <v>5.464297107488697</v>
       </c>
       <c r="I25" t="n">
-        <v>7.643793595575187</v>
+        <v>5.466029232830331</v>
       </c>
       <c r="J25" t="n">
-        <v>7.994821224557116</v>
+        <v>5.716910116747506</v>
       </c>
       <c r="K25" t="n">
-        <v>7.781393913513222</v>
+        <v>5.564554605078873</v>
       </c>
       <c r="L25" t="n">
-        <v>8.316167618441019</v>
+        <v>5.946900101035417</v>
       </c>
       <c r="M25" t="n">
-        <v>8.27808962580211</v>
+        <v>5.919647828365889</v>
       </c>
       <c r="N25" t="n">
-        <v>8.762050270442531</v>
+        <v>6.26556473967461</v>
       </c>
       <c r="O25" t="n">
-        <v>8.654797067758571</v>
+        <v>6.188759002142729</v>
       </c>
       <c r="P25" t="n">
-        <v>9.365030632461131</v>
+        <v>6.696724677077194</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.385672917298606</v>
+        <v>6.711532121640243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.765512145404013</v>
+        <v>4.838016167548779</v>
       </c>
       <c r="B26" t="n">
-        <v>6.706773005709769</v>
+        <v>4.796019813104867</v>
       </c>
       <c r="C26" t="n">
-        <v>6.702908882986038</v>
+        <v>4.793261649734895</v>
       </c>
       <c r="D26" t="n">
-        <v>6.808088996330421</v>
+        <v>4.868473593557824</v>
       </c>
       <c r="E26" t="n">
-        <v>6.818236430882363</v>
+        <v>4.875750276584846</v>
       </c>
       <c r="F26" t="n">
-        <v>7.29536719803289</v>
+        <v>5.216860398915807</v>
       </c>
       <c r="G26" t="n">
-        <v>7.288547848292498</v>
+        <v>5.212041376528353</v>
       </c>
       <c r="H26" t="n">
-        <v>7.68291208078995</v>
+        <v>5.49403934954647</v>
       </c>
       <c r="I26" t="n">
-        <v>7.706075761633327</v>
+        <v>5.510626598381237</v>
       </c>
       <c r="J26" t="n">
-        <v>7.871559701441798</v>
+        <v>5.628763694753216</v>
       </c>
       <c r="K26" t="n">
-        <v>7.686346759065215</v>
+        <v>5.496454663767872</v>
       </c>
       <c r="L26" t="n">
-        <v>8.375244962088038</v>
+        <v>5.989097208869159</v>
       </c>
       <c r="M26" t="n">
-        <v>8.362212485516119</v>
+        <v>5.979802326919994</v>
       </c>
       <c r="N26" t="n">
-        <v>8.866062680904571</v>
+        <v>6.339892427550768</v>
       </c>
       <c r="O26" t="n">
-        <v>8.720763068830207</v>
+        <v>6.236048345180397</v>
       </c>
       <c r="P26" t="n">
-        <v>9.43554900788024</v>
+        <v>6.747048533073023</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.376351472426398</v>
+        <v>6.704672001897119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.770904985086785</v>
+        <v>4.841871887342217</v>
       </c>
       <c r="B27" t="n">
-        <v>6.706035624588348</v>
+        <v>4.795490953393532</v>
       </c>
       <c r="C27" t="n">
-        <v>6.693715525732781</v>
+        <v>4.786689485635311</v>
       </c>
       <c r="D27" t="n">
-        <v>6.805957127056119</v>
+        <v>4.866935007031074</v>
       </c>
       <c r="E27" t="n">
-        <v>6.778193258336278</v>
+        <v>4.847107473013569</v>
       </c>
       <c r="F27" t="n">
-        <v>7.310478466475368</v>
+        <v>5.227682261336372</v>
       </c>
       <c r="G27" t="n">
-        <v>7.234271158418723</v>
+        <v>5.173241706140325</v>
       </c>
       <c r="H27" t="n">
-        <v>7.670094545770378</v>
+        <v>5.484777090023153</v>
       </c>
       <c r="I27" t="n">
-        <v>7.472202683742676</v>
+        <v>5.343460505377839</v>
       </c>
       <c r="J27" t="n">
-        <v>7.688363700407446</v>
+        <v>5.497782145558127</v>
       </c>
       <c r="K27" t="n">
-        <v>7.392680450561359</v>
+        <v>5.286553192904246</v>
       </c>
       <c r="L27" t="n">
-        <v>8.381233496930173</v>
+        <v>5.993338124229334</v>
       </c>
       <c r="M27" t="n">
-        <v>8.333342764442262</v>
+        <v>5.959122218350052</v>
       </c>
       <c r="N27" t="n">
-        <v>8.934144759626257</v>
+        <v>6.38876584030507</v>
       </c>
       <c r="O27" t="n">
-        <v>8.796172461205792</v>
+        <v>6.290178987330893</v>
       </c>
       <c r="P27" t="n">
-        <v>9.388649638470502</v>
+        <v>6.71378306902372</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.427873401180292</v>
+        <v>6.741908618939012</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.835174702519795</v>
+        <v>4.887698240051494</v>
       </c>
       <c r="B28" t="n">
-        <v>6.769248619165023</v>
+        <v>4.840568245017002</v>
       </c>
       <c r="C28" t="n">
-        <v>6.77033517064495</v>
+        <v>4.841346791756941</v>
       </c>
       <c r="D28" t="n">
-        <v>6.83881028534807</v>
+        <v>4.89032309062353</v>
       </c>
       <c r="E28" t="n">
-        <v>6.839318687917807</v>
+        <v>4.890689465559972</v>
       </c>
       <c r="F28" t="n">
-        <v>7.323325391462302</v>
+        <v>5.236846026227803</v>
       </c>
       <c r="G28" t="n">
-        <v>7.22315517091253</v>
+        <v>5.16514256156934</v>
       </c>
       <c r="H28" t="n">
-        <v>7.614220269909564</v>
+        <v>5.44481963719471</v>
       </c>
       <c r="I28" t="n">
-        <v>7.343888718178507</v>
+        <v>5.251387472549326</v>
       </c>
       <c r="J28" t="n">
-        <v>7.653643182547448</v>
+        <v>5.472958988905552</v>
       </c>
       <c r="K28" t="n">
-        <v>7.318417705569114</v>
+        <v>5.233173493902586</v>
       </c>
       <c r="L28" t="n">
-        <v>8.381296663427191</v>
+        <v>5.993239002243105</v>
       </c>
       <c r="M28" t="n">
-        <v>8.319757581021451</v>
+        <v>5.949231349774827</v>
       </c>
       <c r="N28" t="n">
-        <v>8.952527087570479</v>
+        <v>6.401742037540257</v>
       </c>
       <c r="O28" t="n">
-        <v>8.755637993682912</v>
+        <v>6.261083547600982</v>
       </c>
       <c r="P28" t="n">
-        <v>9.3846526029093</v>
+        <v>6.710736008978695</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.405811624784867</v>
+        <v>6.725830154476597</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.869658346015981</v>
+        <v>4.912188271547818</v>
       </c>
       <c r="B29" t="n">
-        <v>6.820012988610949</v>
+        <v>4.876682525138873</v>
       </c>
       <c r="C29" t="n">
-        <v>6.818392153843758</v>
+        <v>4.875528820501689</v>
       </c>
       <c r="D29" t="n">
-        <v>6.896415937345854</v>
+        <v>4.931392842702505</v>
       </c>
       <c r="E29" t="n">
-        <v>6.943741680610452</v>
+        <v>4.965190930589202</v>
       </c>
       <c r="F29" t="n">
-        <v>7.320260061732091</v>
+        <v>5.234609194317048</v>
       </c>
       <c r="G29" t="n">
-        <v>7.330526372122169</v>
+        <v>5.241801498184907</v>
       </c>
       <c r="H29" t="n">
-        <v>7.630331235898573</v>
+        <v>5.456512894798009</v>
       </c>
       <c r="I29" t="n">
-        <v>7.412585792933643</v>
+        <v>5.300489869638905</v>
       </c>
       <c r="J29" t="n">
-        <v>7.647518664274235</v>
+        <v>5.46851794750989</v>
       </c>
       <c r="K29" t="n">
-        <v>7.175941723642628</v>
+        <v>5.132030171979783</v>
       </c>
       <c r="L29" t="n">
-        <v>8.482023538731919</v>
+        <v>6.065576094788223</v>
       </c>
       <c r="M29" t="n">
-        <v>8.466039783049402</v>
+        <v>6.054066652007487</v>
       </c>
       <c r="N29" t="n">
-        <v>8.861529607431187</v>
+        <v>6.336939470657226</v>
       </c>
       <c r="O29" t="n">
-        <v>8.845663411618117</v>
+        <v>6.325436301419923</v>
       </c>
       <c r="P29" t="n">
-        <v>9.428615607520234</v>
+        <v>6.742586788984034</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.371671010459977</v>
+        <v>6.701528956637581</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7.381265738163026</v>
+        <v>5.278182403902646</v>
       </c>
       <c r="B30" t="n">
-        <v>7.319356429899774</v>
+        <v>5.233918477185162</v>
       </c>
       <c r="C30" t="n">
-        <v>7.348138858384003</v>
+        <v>5.254485661973324</v>
       </c>
       <c r="D30" t="n">
-        <v>7.35846658064618</v>
+        <v>5.261932044350188</v>
       </c>
       <c r="E30" t="n">
-        <v>7.424237379695787</v>
+        <v>5.308919002594424</v>
       </c>
       <c r="F30" t="n">
-        <v>7.798902438248717</v>
+        <v>5.577224026040224</v>
       </c>
       <c r="G30" t="n">
-        <v>7.649193453757628</v>
+        <v>5.469724977266247</v>
       </c>
       <c r="H30" t="n">
-        <v>8.00098785382834</v>
+        <v>5.721617156384695</v>
       </c>
       <c r="I30" t="n">
-        <v>7.830697996371875</v>
+        <v>5.599399120010062</v>
       </c>
       <c r="J30" t="n">
-        <v>7.879891537860749</v>
+        <v>5.63487412605619</v>
       </c>
       <c r="K30" t="n">
-        <v>7.669194423187895</v>
+        <v>5.483803436082473</v>
       </c>
       <c r="L30" t="n">
-        <v>8.736064275419963</v>
+        <v>6.247416633233908</v>
       </c>
       <c r="M30" t="n">
-        <v>8.610721767152938</v>
+        <v>6.157512364369912</v>
       </c>
       <c r="N30" t="n">
-        <v>9.243929929931248</v>
+        <v>6.61066734504583</v>
       </c>
       <c r="O30" t="n">
-        <v>8.66014253256858</v>
+        <v>6.192046338901208</v>
       </c>
       <c r="P30" t="n">
-        <v>9.556035591689131</v>
+        <v>6.833262703690193</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.313889457314252</v>
+        <v>6.660286054759879</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.169946608957053</v>
+        <v>5.127075641054193</v>
       </c>
       <c r="B31" t="n">
-        <v>7.116631014881632</v>
+        <v>5.088960100577449</v>
       </c>
       <c r="C31" t="n">
-        <v>7.095601835249932</v>
+        <v>5.073922103293265</v>
       </c>
       <c r="D31" t="n">
-        <v>7.104278016808868</v>
+        <v>5.080218858836176</v>
       </c>
       <c r="E31" t="n">
-        <v>7.175693005560626</v>
+        <v>5.131271700578829</v>
       </c>
       <c r="F31" t="n">
-        <v>7.520103066667632</v>
+        <v>5.377647552957333</v>
       </c>
       <c r="G31" t="n">
-        <v>7.650799812869253</v>
+        <v>5.471024228111058</v>
       </c>
       <c r="H31" t="n">
-        <v>7.925674965823196</v>
+        <v>5.667778234003797</v>
       </c>
       <c r="I31" t="n">
-        <v>8.450212188984509</v>
+        <v>6.042673269780247</v>
       </c>
       <c r="J31" t="n">
-        <v>8.283909716652202</v>
+        <v>5.923987865712293</v>
       </c>
       <c r="K31" t="n">
-        <v>8.600084353592891</v>
+        <v>6.149496030572232</v>
       </c>
       <c r="L31" t="n">
-        <v>8.60668612984356</v>
+        <v>6.154688642471074</v>
       </c>
       <c r="M31" t="n">
-        <v>8.598810495903061</v>
+        <v>6.14898348207382</v>
       </c>
       <c r="N31" t="n">
-        <v>9.174194117225175</v>
+        <v>6.560641482363031</v>
       </c>
       <c r="O31" t="n">
-        <v>8.912862036694031</v>
+        <v>6.373314730185876</v>
       </c>
       <c r="P31" t="n">
-        <v>9.484633762624252</v>
+        <v>6.782603840475083</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.374878464808475</v>
+        <v>6.703707758271588</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.107109981425102</v>
+        <v>5.082462905321878</v>
       </c>
       <c r="B32" t="n">
-        <v>7.026123075094218</v>
+        <v>5.02458068419892</v>
       </c>
       <c r="C32" t="n">
-        <v>7.022603736166702</v>
+        <v>5.022048054715336</v>
       </c>
       <c r="D32" t="n">
-        <v>7.056435975162407</v>
+        <v>5.046252326308324</v>
       </c>
       <c r="E32" t="n">
-        <v>7.051416870586981</v>
+        <v>5.042619003629558</v>
       </c>
       <c r="F32" t="n">
-        <v>7.477129670509953</v>
+        <v>5.346966161447758</v>
       </c>
       <c r="G32" t="n">
-        <v>7.480697700278919</v>
+        <v>5.349374574771384</v>
       </c>
       <c r="H32" t="n">
-        <v>7.743031671637739</v>
+        <v>5.537053272735086</v>
       </c>
       <c r="I32" t="n">
-        <v>8.139434778288885</v>
+        <v>5.820321324621054</v>
       </c>
       <c r="J32" t="n">
-        <v>7.811303249850473</v>
+        <v>5.58511865309532</v>
       </c>
       <c r="K32" t="n">
-        <v>8.214612560175409</v>
+        <v>5.873675302094642</v>
       </c>
       <c r="L32" t="n">
-        <v>8.567308837453522</v>
+        <v>6.126268236014468</v>
       </c>
       <c r="M32" t="n">
-        <v>8.543743347504122</v>
+        <v>6.109359154401628</v>
       </c>
       <c r="N32" t="n">
-        <v>9.105873409514761</v>
+        <v>6.511256775819003</v>
       </c>
       <c r="O32" t="n">
-        <v>8.680792713218182</v>
+        <v>6.20715428619466</v>
       </c>
       <c r="P32" t="n">
-        <v>9.409126111253309</v>
+        <v>6.7278797211159</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.431616893440971</v>
+        <v>6.743956303515286</v>
       </c>
     </row>
   </sheetData>
@@ -3921,1645 +3921,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.88489090290586</v>
+        <v>9.928882484298105</v>
       </c>
       <c r="B2" t="n">
-        <v>13.93934568720872</v>
+        <v>9.96781609483841</v>
       </c>
       <c r="C2" t="n">
-        <v>13.85258650355673</v>
+        <v>9.90579082563282</v>
       </c>
       <c r="D2" t="n">
-        <v>14.04574000099575</v>
+        <v>10.04389284662347</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8125740369467</v>
+        <v>9.877181585518905</v>
       </c>
       <c r="F2" t="n">
-        <v>14.186882029329</v>
+        <v>10.14479526447847</v>
       </c>
       <c r="G2" t="n">
-        <v>13.76603348833251</v>
+        <v>9.843921767658692</v>
       </c>
       <c r="H2" t="n">
-        <v>14.34675116940267</v>
+        <v>10.25907915047439</v>
       </c>
       <c r="I2" t="n">
-        <v>13.6483885195769</v>
+        <v>9.759784139917585</v>
       </c>
       <c r="J2" t="n">
-        <v>14.34752320436621</v>
+        <v>10.25966008059621</v>
       </c>
       <c r="K2" t="n">
-        <v>13.56496926445466</v>
+        <v>9.700161637846531</v>
       </c>
       <c r="L2" t="n">
-        <v>14.17824225623709</v>
+        <v>10.1386848331755</v>
       </c>
       <c r="M2" t="n">
-        <v>13.8824405692091</v>
+        <v>9.927196155823527</v>
       </c>
       <c r="N2" t="n">
-        <v>14.43899618785804</v>
+        <v>10.32508811975944</v>
       </c>
       <c r="O2" t="n">
-        <v>13.64748576505704</v>
+        <v>9.759141729070127</v>
       </c>
       <c r="P2" t="n">
-        <v>14.47315522574456</v>
+        <v>10.34947463778913</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.90519893169662</v>
+        <v>9.943405737343674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13.94227591082031</v>
+        <v>9.970051985717651</v>
       </c>
       <c r="B3" t="n">
-        <v>13.99458303422462</v>
+        <v>10.00745359695181</v>
       </c>
       <c r="C3" t="n">
-        <v>13.90445672535668</v>
+        <v>9.942982273162</v>
       </c>
       <c r="D3" t="n">
-        <v>14.08435227692192</v>
+        <v>10.07159555971143</v>
       </c>
       <c r="E3" t="n">
-        <v>13.84457488618516</v>
+        <v>9.900099467031117</v>
       </c>
       <c r="F3" t="n">
-        <v>14.20625572035139</v>
+        <v>10.15868614434608</v>
       </c>
       <c r="G3" t="n">
-        <v>13.77245541552918</v>
+        <v>9.848489534631685</v>
       </c>
       <c r="H3" t="n">
-        <v>14.35794041249916</v>
+        <v>10.26710803135893</v>
       </c>
       <c r="I3" t="n">
-        <v>13.63918726651151</v>
+        <v>9.753240206763444</v>
       </c>
       <c r="J3" t="n">
-        <v>14.34086177086836</v>
+        <v>10.25499130957396</v>
       </c>
       <c r="K3" t="n">
-        <v>13.55778846198134</v>
+        <v>9.695031761382012</v>
       </c>
       <c r="L3" t="n">
-        <v>14.19058779715395</v>
+        <v>10.14743517155475</v>
       </c>
       <c r="M3" t="n">
-        <v>13.88463034110566</v>
+        <v>9.928657891443232</v>
       </c>
       <c r="N3" t="n">
-        <v>14.46968720959587</v>
+        <v>10.34711013926953</v>
       </c>
       <c r="O3" t="n">
-        <v>13.66405030158712</v>
+        <v>9.770946028392176</v>
       </c>
       <c r="P3" t="n">
-        <v>14.49267981450983</v>
+        <v>10.36330780105716</v>
       </c>
       <c r="Q3" t="n">
-        <v>13.90401719181494</v>
+        <v>9.942543752476089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.92977420828582</v>
+        <v>9.961121596641897</v>
       </c>
       <c r="B4" t="n">
-        <v>13.98214625281206</v>
+        <v>9.998571514160485</v>
       </c>
       <c r="C4" t="n">
-        <v>13.89476680925187</v>
+        <v>9.936059417984556</v>
       </c>
       <c r="D4" t="n">
-        <v>14.07686441508811</v>
+        <v>10.06625426483324</v>
       </c>
       <c r="E4" t="n">
-        <v>13.84254039859376</v>
+        <v>9.89863145786798</v>
       </c>
       <c r="F4" t="n">
-        <v>14.20470901848695</v>
+        <v>10.15760584016705</v>
       </c>
       <c r="G4" t="n">
-        <v>13.77613486398038</v>
+        <v>9.851098073990798</v>
       </c>
       <c r="H4" t="n">
-        <v>14.36211729711437</v>
+        <v>10.27015069992356</v>
       </c>
       <c r="I4" t="n">
-        <v>13.64218767511979</v>
+        <v>9.755363801215248</v>
       </c>
       <c r="J4" t="n">
-        <v>14.35428903804663</v>
+        <v>10.26463750995533</v>
       </c>
       <c r="K4" t="n">
-        <v>13.56651070244435</v>
+        <v>9.701318479255431</v>
       </c>
       <c r="L4" t="n">
-        <v>14.18091630461078</v>
+        <v>10.14060265540273</v>
       </c>
       <c r="M4" t="n">
-        <v>13.88074647885162</v>
+        <v>9.92593078211325</v>
       </c>
       <c r="N4" t="n">
-        <v>14.46924767605413</v>
+        <v>10.34676321231773</v>
       </c>
       <c r="O4" t="n">
-        <v>13.66968527950846</v>
+        <v>9.774999992158071</v>
       </c>
       <c r="P4" t="n">
-        <v>14.47221913335127</v>
+        <v>10.34877388298775</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.90081938790348</v>
+        <v>9.940302842762103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13.90959426711401</v>
+        <v>9.946503613090501</v>
       </c>
       <c r="B5" t="n">
-        <v>13.96164960184271</v>
+        <v>9.983735838651992</v>
       </c>
       <c r="C5" t="n">
-        <v>13.88046924811471</v>
+        <v>9.925684231856364</v>
       </c>
       <c r="D5" t="n">
-        <v>14.06320202817094</v>
+        <v>10.05637657069923</v>
       </c>
       <c r="E5" t="n">
-        <v>13.829959737938</v>
+        <v>9.889582498821358</v>
       </c>
       <c r="F5" t="n">
-        <v>14.21333124532968</v>
+        <v>10.16374826654153</v>
       </c>
       <c r="G5" t="n">
-        <v>13.73280264702715</v>
+        <v>9.820113042979106</v>
       </c>
       <c r="H5" t="n">
-        <v>14.38075316835911</v>
+        <v>10.28341736221966</v>
       </c>
       <c r="I5" t="n">
-        <v>13.6127301546987</v>
+        <v>9.734333001567444</v>
       </c>
       <c r="J5" t="n">
-        <v>14.35208698377564</v>
+        <v>10.26301893574982</v>
       </c>
       <c r="K5" t="n">
-        <v>13.55104105186255</v>
+        <v>9.690211797963043</v>
       </c>
       <c r="L5" t="n">
-        <v>14.19158091485705</v>
+        <v>10.1482444586575</v>
       </c>
       <c r="M5" t="n">
-        <v>13.85873032270404</v>
+        <v>9.910200499311323</v>
       </c>
       <c r="N5" t="n">
-        <v>14.49379487864466</v>
+        <v>10.36434293572347</v>
       </c>
       <c r="O5" t="n">
-        <v>13.6649907805427</v>
+        <v>9.771656193508703</v>
       </c>
       <c r="P5" t="n">
-        <v>14.4686914599554</v>
+        <v>10.34644388895703</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.91746726911713</v>
+        <v>9.95207953849305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.9209379172032</v>
+        <v>9.954699370230342</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9728449861264</v>
+        <v>9.991818044655709</v>
       </c>
       <c r="C6" t="n">
-        <v>13.88839927542764</v>
+        <v>9.931430797640269</v>
       </c>
       <c r="D6" t="n">
-        <v>14.0704582795157</v>
+        <v>10.06162564448896</v>
       </c>
       <c r="E6" t="n">
-        <v>13.83220302589453</v>
+        <v>9.891239968996148</v>
       </c>
       <c r="F6" t="n">
-        <v>14.21650536180475</v>
+        <v>10.16606257671367</v>
       </c>
       <c r="G6" t="n">
-        <v>13.73229117386381</v>
+        <v>9.819794346972749</v>
       </c>
       <c r="H6" t="n">
-        <v>14.378564273775</v>
+        <v>10.2819418248044</v>
       </c>
       <c r="I6" t="n">
-        <v>13.61245467858671</v>
+        <v>9.734078923058441</v>
       </c>
       <c r="J6" t="n">
-        <v>14.34138026253137</v>
+        <v>10.25546119797703</v>
       </c>
       <c r="K6" t="n">
-        <v>13.55321152288503</v>
+        <v>9.69166224120457</v>
       </c>
       <c r="L6" t="n">
-        <v>14.19538932823966</v>
+        <v>10.15097721417658</v>
       </c>
       <c r="M6" t="n">
-        <v>13.85843291378058</v>
+        <v>9.910017939197445</v>
       </c>
       <c r="N6" t="n">
-        <v>14.49372644827289</v>
+        <v>10.36417982359423</v>
       </c>
       <c r="O6" t="n">
-        <v>13.66736654268048</v>
+        <v>9.773309899557432</v>
       </c>
       <c r="P6" t="n">
-        <v>14.48438833446397</v>
+        <v>10.35763839985747</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.89297709183641</v>
+        <v>9.934625285955951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.9215116795511</v>
+        <v>9.95516235773564</v>
       </c>
       <c r="B7" t="n">
-        <v>13.97301167549353</v>
+        <v>9.991994958580499</v>
       </c>
       <c r="C7" t="n">
-        <v>13.88939502506811</v>
+        <v>9.932175467245672</v>
       </c>
       <c r="D7" t="n">
-        <v>14.06968010336495</v>
+        <v>10.06110117625803</v>
       </c>
       <c r="E7" t="n">
-        <v>13.83348741133387</v>
+        <v>9.892155278982909</v>
       </c>
       <c r="F7" t="n">
-        <v>14.21792573067516</v>
+        <v>10.1670688530802</v>
       </c>
       <c r="G7" t="n">
-        <v>13.73023914002323</v>
+        <v>9.818288696549018</v>
       </c>
       <c r="H7" t="n">
-        <v>14.37855111408813</v>
+        <v>10.28190104677209</v>
       </c>
       <c r="I7" t="n">
-        <v>13.61390663070563</v>
+        <v>9.735112175661726</v>
       </c>
       <c r="J7" t="n">
-        <v>14.3493673151541</v>
+        <v>10.26103649602524</v>
       </c>
       <c r="K7" t="n">
-        <v>13.54931713288147</v>
+        <v>9.688945796898423</v>
       </c>
       <c r="L7" t="n">
-        <v>14.19474889014491</v>
+        <v>10.15049289662361</v>
       </c>
       <c r="M7" t="n">
-        <v>13.85482189570115</v>
+        <v>9.907389324499349</v>
       </c>
       <c r="N7" t="n">
-        <v>14.4944291755522</v>
+        <v>10.36471872097506</v>
       </c>
       <c r="O7" t="n">
-        <v>13.66727179293496</v>
+        <v>9.773250300894826</v>
       </c>
       <c r="P7" t="n">
-        <v>14.50093620205734</v>
+        <v>10.36933730364985</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.89669601934825</v>
+        <v>9.937264565677882</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13.93738752580121</v>
+        <v>9.966570169112774</v>
       </c>
       <c r="B8" t="n">
-        <v>13.98978501238875</v>
+        <v>10.00402824223782</v>
       </c>
       <c r="C8" t="n">
-        <v>13.90041670148501</v>
+        <v>9.940117773230853</v>
       </c>
       <c r="D8" t="n">
-        <v>14.08226251864563</v>
+        <v>10.07010496579194</v>
       </c>
       <c r="E8" t="n">
-        <v>13.8440362163356</v>
+        <v>9.89975128537063</v>
       </c>
       <c r="F8" t="n">
-        <v>14.2128206494788</v>
+        <v>10.16338251895943</v>
       </c>
       <c r="G8" t="n">
-        <v>13.76749684551339</v>
+        <v>9.845000189774689</v>
       </c>
       <c r="H8" t="n">
-        <v>14.37374958300242</v>
+        <v>10.27843428667145</v>
       </c>
       <c r="I8" t="n">
-        <v>13.6316274650561</v>
+        <v>9.747864407396381</v>
       </c>
       <c r="J8" t="n">
-        <v>14.3784923341534</v>
+        <v>10.28188975439391</v>
       </c>
       <c r="K8" t="n">
-        <v>13.54674836200281</v>
+        <v>9.687139016389946</v>
       </c>
       <c r="L8" t="n">
-        <v>14.18737771086808</v>
+        <v>10.14521747395146</v>
       </c>
       <c r="M8" t="n">
-        <v>13.87312438821164</v>
+        <v>9.920540553596293</v>
       </c>
       <c r="N8" t="n">
-        <v>14.47346053048014</v>
+        <v>10.34979584321286</v>
       </c>
       <c r="O8" t="n">
-        <v>13.65458585478417</v>
+        <v>9.76426470463687</v>
       </c>
       <c r="P8" t="n">
-        <v>14.49750678765683</v>
+        <v>10.36691885265674</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.86419861125824</v>
+        <v>9.914152204319272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13.92748091351914</v>
+        <v>9.959348065913611</v>
       </c>
       <c r="B9" t="n">
-        <v>13.98113120229751</v>
+        <v>9.997720194316734</v>
       </c>
       <c r="C9" t="n">
-        <v>13.89115842310981</v>
+        <v>9.933363049017391</v>
       </c>
       <c r="D9" t="n">
-        <v>14.07778647048205</v>
+        <v>10.06683644966375</v>
       </c>
       <c r="E9" t="n">
-        <v>13.83919345156435</v>
+        <v>9.896182266512044</v>
       </c>
       <c r="F9" t="n">
-        <v>14.21201790857922</v>
+        <v>10.16281476327882</v>
       </c>
       <c r="G9" t="n">
-        <v>13.76925410236789</v>
+        <v>9.846163304727021</v>
       </c>
       <c r="H9" t="n">
-        <v>14.37095797475928</v>
+        <v>10.27645561107293</v>
       </c>
       <c r="I9" t="n">
-        <v>13.63993649135113</v>
+        <v>9.753756519387915</v>
       </c>
       <c r="J9" t="n">
-        <v>14.37514450981153</v>
+        <v>10.2795032984723</v>
       </c>
       <c r="K9" t="n">
-        <v>13.55035148427012</v>
+        <v>9.689668509101814</v>
       </c>
       <c r="L9" t="n">
-        <v>14.18361667235823</v>
+        <v>10.14251483144087</v>
       </c>
       <c r="M9" t="n">
-        <v>13.87119517811526</v>
+        <v>9.919086973583049</v>
       </c>
       <c r="N9" t="n">
-        <v>14.47936396601379</v>
+        <v>10.3539840608082</v>
       </c>
       <c r="O9" t="n">
-        <v>13.65659753225165</v>
+        <v>9.765589677009753</v>
       </c>
       <c r="P9" t="n">
-        <v>14.49365363133883</v>
+        <v>10.36411206932516</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.87026259497182</v>
+        <v>9.918544939430507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.9080975720597</v>
+        <v>9.945529959149821</v>
       </c>
       <c r="B10" t="n">
-        <v>13.96222862806536</v>
+        <v>9.984231448583136</v>
       </c>
       <c r="C10" t="n">
-        <v>13.87748814038052</v>
+        <v>9.92362713696494</v>
       </c>
       <c r="D10" t="n">
-        <v>14.06470486441246</v>
+        <v>10.05749012465844</v>
       </c>
       <c r="E10" t="n">
-        <v>13.82642065948016</v>
+        <v>9.887088765307054</v>
       </c>
       <c r="F10" t="n">
-        <v>14.21984967689679</v>
+        <v>10.1684477779266</v>
       </c>
       <c r="G10" t="n">
-        <v>13.72456994691602</v>
+        <v>9.814249161933017</v>
       </c>
       <c r="H10" t="n">
-        <v>14.37448213890532</v>
+        <v>10.27905474011689</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61664647751371</v>
+        <v>9.737080813590753</v>
       </c>
       <c r="J10" t="n">
-        <v>14.36813916982993</v>
+        <v>10.27448571843522</v>
       </c>
       <c r="K10" t="n">
-        <v>13.53746551887878</v>
+        <v>9.68044200877606</v>
       </c>
       <c r="L10" t="n">
-        <v>14.19080449333122</v>
+        <v>10.14771999042657</v>
       </c>
       <c r="M10" t="n">
-        <v>13.84583382956319</v>
+        <v>9.901016031726563</v>
       </c>
       <c r="N10" t="n">
-        <v>14.50381817348371</v>
+        <v>10.37150857703174</v>
       </c>
       <c r="O10" t="n">
-        <v>13.65925842093847</v>
+        <v>9.767479895645879</v>
       </c>
       <c r="P10" t="n">
-        <v>14.48938901547777</v>
+        <v>10.36115973978596</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.8837784707084</v>
+        <v>9.928092017825646</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13.89644247604772</v>
+        <v>9.937184891676294</v>
       </c>
       <c r="B11" t="n">
-        <v>13.95253958927301</v>
+        <v>9.977305456633975</v>
       </c>
       <c r="C11" t="n">
-        <v>13.86708847849674</v>
+        <v>9.916174794721817</v>
       </c>
       <c r="D11" t="n">
-        <v>14.06872997397233</v>
+        <v>10.06038912907847</v>
       </c>
       <c r="E11" t="n">
-        <v>13.83178717978918</v>
+        <v>9.890952640706953</v>
       </c>
       <c r="F11" t="n">
-        <v>14.21592107170735</v>
+        <v>10.16564224930372</v>
       </c>
       <c r="G11" t="n">
-        <v>13.75571804844476</v>
+        <v>9.836566665338767</v>
       </c>
       <c r="H11" t="n">
-        <v>14.33166753630264</v>
+        <v>10.24848313561738</v>
       </c>
       <c r="I11" t="n">
-        <v>13.64506087342158</v>
+        <v>9.75740144812203</v>
       </c>
       <c r="J11" t="n">
-        <v>14.38721983849116</v>
+        <v>10.28814824132189</v>
       </c>
       <c r="K11" t="n">
-        <v>13.53488095637586</v>
+        <v>9.678516658296713</v>
       </c>
       <c r="L11" t="n">
-        <v>14.16384555879211</v>
+        <v>10.12839873136405</v>
       </c>
       <c r="M11" t="n">
-        <v>13.82791472259709</v>
+        <v>9.888194791014152</v>
       </c>
       <c r="N11" t="n">
-        <v>14.48305481952696</v>
+        <v>10.35668921273617</v>
       </c>
       <c r="O11" t="n">
-        <v>13.67652656206032</v>
+        <v>9.779941034965281</v>
       </c>
       <c r="P11" t="n">
-        <v>14.45125838409134</v>
+        <v>10.33394699044006</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.87560104128216</v>
+        <v>9.922304046655087</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13.92121690256502</v>
+        <v>9.954803511051317</v>
       </c>
       <c r="B12" t="n">
-        <v>13.97761756590097</v>
+        <v>9.995145532092154</v>
       </c>
       <c r="C12" t="n">
-        <v>13.88472596816365</v>
+        <v>9.928710589208062</v>
       </c>
       <c r="D12" t="n">
-        <v>14.07987096488359</v>
+        <v>10.06836593955253</v>
       </c>
       <c r="E12" t="n">
-        <v>13.83586054153428</v>
+        <v>9.893807102968609</v>
       </c>
       <c r="F12" t="n">
-        <v>14.21129938967566</v>
+        <v>10.16240447353835</v>
       </c>
       <c r="G12" t="n">
-        <v>13.7530834791317</v>
+        <v>9.834652607237599</v>
       </c>
       <c r="H12" t="n">
-        <v>14.32946811396903</v>
+        <v>10.24687459908137</v>
       </c>
       <c r="I12" t="n">
-        <v>13.64383965447926</v>
+        <v>9.756486765489614</v>
       </c>
       <c r="J12" t="n">
-        <v>14.37842741303147</v>
+        <v>10.28185587725938</v>
       </c>
       <c r="K12" t="n">
-        <v>13.53685929596991</v>
+        <v>9.680064968815785</v>
       </c>
       <c r="L12" t="n">
-        <v>14.16159963889819</v>
+        <v>10.12686798676659</v>
       </c>
       <c r="M12" t="n">
-        <v>13.82834460570179</v>
+        <v>9.888514741729196</v>
       </c>
       <c r="N12" t="n">
-        <v>14.49021895306356</v>
+        <v>10.36179587708999</v>
       </c>
       <c r="O12" t="n">
-        <v>13.66959403901277</v>
+        <v>9.775006265701503</v>
       </c>
       <c r="P12" t="n">
-        <v>14.44101927038748</v>
+        <v>10.32668912804334</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.86848691455569</v>
+        <v>9.917147193953809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13.90949951736848</v>
+        <v>9.946476009499399</v>
       </c>
       <c r="B13" t="n">
-        <v>13.96315419270914</v>
+        <v>9.984850647319895</v>
       </c>
       <c r="C13" t="n">
-        <v>13.88053767848648</v>
+        <v>9.925767042629669</v>
       </c>
       <c r="D13" t="n">
-        <v>14.06647879020367</v>
+        <v>10.05874734276226</v>
       </c>
       <c r="E13" t="n">
-        <v>13.83197580196777</v>
+        <v>9.891039215606318</v>
       </c>
       <c r="F13" t="n">
-        <v>14.21640183893464</v>
+        <v>10.16596910091653</v>
       </c>
       <c r="G13" t="n">
-        <v>13.73325534025577</v>
+        <v>9.820445540781012</v>
       </c>
       <c r="H13" t="n">
-        <v>14.37350744476386</v>
+        <v>10.27827744808564</v>
       </c>
       <c r="I13" t="n">
-        <v>13.61279946238293</v>
+        <v>9.734355586323801</v>
       </c>
       <c r="J13" t="n">
-        <v>14.33862901066132</v>
+        <v>10.25334513177735</v>
       </c>
       <c r="K13" t="n">
-        <v>13.54673958887822</v>
+        <v>9.68714779935075</v>
       </c>
       <c r="L13" t="n">
-        <v>14.18579328456792</v>
+        <v>10.14409513703144</v>
       </c>
       <c r="M13" t="n">
-        <v>13.84842541056578</v>
+        <v>9.902822184880698</v>
       </c>
       <c r="N13" t="n">
-        <v>14.5003782313337</v>
+        <v>10.36904809329763</v>
       </c>
       <c r="O13" t="n">
-        <v>13.65706601710452</v>
+        <v>9.765917783331258</v>
       </c>
       <c r="P13" t="n">
-        <v>14.48535425548084</v>
+        <v>10.35819109903384</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.88014025594275</v>
+        <v>9.925519865018439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.92283817598844</v>
+        <v>9.956067002698564</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9787071879745</v>
+        <v>9.996025710235694</v>
       </c>
       <c r="C14" t="n">
-        <v>13.88658937982563</v>
+        <v>9.93012401854334</v>
       </c>
       <c r="D14" t="n">
-        <v>14.07616958362093</v>
+        <v>10.06571097597202</v>
       </c>
       <c r="E14" t="n">
-        <v>13.83324790503268</v>
+        <v>9.891940723797527</v>
       </c>
       <c r="F14" t="n">
-        <v>14.20570564543987</v>
+        <v>10.15831286851186</v>
       </c>
       <c r="G14" t="n">
-        <v>13.76331206508606</v>
+        <v>9.841938073225426</v>
       </c>
       <c r="H14" t="n">
-        <v>14.35374510432232</v>
+        <v>10.26413311706338</v>
       </c>
       <c r="I14" t="n">
-        <v>13.6369053768068</v>
+        <v>9.751598420447234</v>
       </c>
       <c r="J14" t="n">
-        <v>14.34844876900999</v>
+        <v>10.26042796231232</v>
       </c>
       <c r="K14" t="n">
-        <v>13.54971718736258</v>
+        <v>9.689253827880945</v>
       </c>
       <c r="L14" t="n">
-        <v>14.19137737836666</v>
+        <v>10.14805938912625</v>
       </c>
       <c r="M14" t="n">
-        <v>13.87859092214093</v>
+        <v>9.924378080113778</v>
       </c>
       <c r="N14" t="n">
-        <v>14.46133519499037</v>
+        <v>10.34101413711645</v>
       </c>
       <c r="O14" t="n">
-        <v>13.64235524179938</v>
+        <v>9.755450376114613</v>
       </c>
       <c r="P14" t="n">
-        <v>14.49663824832285</v>
+        <v>10.36619237632729</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.90197480841141</v>
+        <v>9.941078252730325</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.94702655778342</v>
+        <v>9.973332421578354</v>
       </c>
       <c r="B15" t="n">
-        <v>14.00087775111479</v>
+        <v>10.01184382264567</v>
       </c>
       <c r="C15" t="n">
-        <v>13.90647629863628</v>
+        <v>9.944322929393465</v>
       </c>
       <c r="D15" t="n">
-        <v>14.08863005246987</v>
+        <v>10.07459305876334</v>
       </c>
       <c r="E15" t="n">
-        <v>13.84090070160871</v>
+        <v>9.897405607481327</v>
       </c>
       <c r="F15" t="n">
-        <v>14.20630572716153</v>
+        <v>10.15874762507172</v>
       </c>
       <c r="G15" t="n">
-        <v>13.76296201741509</v>
+        <v>9.841651372290574</v>
       </c>
       <c r="H15" t="n">
-        <v>14.35542428036801</v>
+        <v>10.26535771274135</v>
       </c>
       <c r="I15" t="n">
-        <v>13.63310134998648</v>
+        <v>9.748816731289391</v>
       </c>
       <c r="J15" t="n">
-        <v>14.34695646051798</v>
+        <v>10.25928868682503</v>
       </c>
       <c r="K15" t="n">
-        <v>13.55376510704638</v>
+        <v>9.692154087009657</v>
       </c>
       <c r="L15" t="n">
-        <v>14.18689606632833</v>
+        <v>10.14488434879521</v>
       </c>
       <c r="M15" t="n">
-        <v>13.87347180394523</v>
+        <v>9.920708057205934</v>
       </c>
       <c r="N15" t="n">
-        <v>14.47315083918227</v>
+        <v>10.34957125035798</v>
       </c>
       <c r="O15" t="n">
-        <v>13.64015845140314</v>
+        <v>9.753818000113551</v>
       </c>
       <c r="P15" t="n">
-        <v>14.48917670586279</v>
+        <v>10.36090377921393</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.89885333068385</v>
+        <v>9.938848635394516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13.9278757041255</v>
+        <v>9.95967679958946</v>
       </c>
       <c r="B16" t="n">
-        <v>13.98393947947736</v>
+        <v>9.999767878893008</v>
       </c>
       <c r="C16" t="n">
-        <v>13.89077416025297</v>
+        <v>9.93314096557989</v>
       </c>
       <c r="D16" t="n">
-        <v>14.08097111470663</v>
+        <v>10.06914511364681</v>
       </c>
       <c r="E16" t="n">
-        <v>13.83677206917872</v>
+        <v>9.894510994541703</v>
       </c>
       <c r="F16" t="n">
-        <v>14.20689001725893</v>
+        <v>10.15917297131642</v>
       </c>
       <c r="G16" t="n">
-        <v>13.76667217180234</v>
+        <v>9.844365934533693</v>
       </c>
       <c r="H16" t="n">
-        <v>14.3610346935405</v>
+        <v>10.26935270519898</v>
       </c>
       <c r="I16" t="n">
-        <v>13.63453575585623</v>
+        <v>9.749878214838121</v>
       </c>
       <c r="J16" t="n">
-        <v>14.35052098103711</v>
+        <v>10.26193612215342</v>
       </c>
       <c r="K16" t="n">
-        <v>13.55119282691788</v>
+        <v>9.690236264782429</v>
       </c>
       <c r="L16" t="n">
-        <v>14.18037149357401</v>
+        <v>10.14020365804044</v>
       </c>
       <c r="M16" t="n">
-        <v>13.8693949329503</v>
+        <v>9.917827246061862</v>
       </c>
       <c r="N16" t="n">
-        <v>14.46562613022519</v>
+        <v>10.34415906443902</v>
       </c>
       <c r="O16" t="n">
-        <v>13.63824766486839</v>
+        <v>9.752539451962067</v>
       </c>
       <c r="P16" t="n">
-        <v>14.48223628700312</v>
+        <v>10.3558447937902</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.88559187556025</v>
+        <v>9.92946968796336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13.93547410732909</v>
+        <v>9.965084594028026</v>
       </c>
       <c r="B17" t="n">
-        <v>13.99042369585858</v>
+        <v>10.00436701358316</v>
       </c>
       <c r="C17" t="n">
-        <v>13.89786372223059</v>
+        <v>9.938179875664643</v>
       </c>
       <c r="D17" t="n">
-        <v>14.08280294312011</v>
+        <v>10.07040107704194</v>
       </c>
       <c r="E17" t="n">
-        <v>13.83961192960708</v>
+        <v>9.896516019022638</v>
       </c>
       <c r="F17" t="n">
-        <v>14.20164807531903</v>
+        <v>10.15538626050074</v>
       </c>
       <c r="G17" t="n">
-        <v>13.76802235567607</v>
+        <v>9.845348371435177</v>
       </c>
       <c r="H17" t="n">
-        <v>14.35236509182501</v>
+        <v>10.26317389227259</v>
       </c>
       <c r="I17" t="n">
-        <v>13.63351807340429</v>
+        <v>9.749189379769266</v>
       </c>
       <c r="J17" t="n">
-        <v>14.34060296369308</v>
+        <v>10.2549599418568</v>
       </c>
       <c r="K17" t="n">
-        <v>13.55366772536348</v>
+        <v>9.692085078031901</v>
       </c>
       <c r="L17" t="n">
-        <v>14.17818610823974</v>
+        <v>10.13860766859129</v>
       </c>
       <c r="M17" t="n">
-        <v>13.87132414304667</v>
+        <v>9.919211189743008</v>
       </c>
       <c r="N17" t="n">
-        <v>14.46265379561559</v>
+        <v>10.3420179040656</v>
       </c>
       <c r="O17" t="n">
-        <v>13.6414656469664</v>
+        <v>9.754876974244908</v>
       </c>
       <c r="P17" t="n">
-        <v>14.48737295144799</v>
+        <v>10.35968796649677</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.90126418531997</v>
+        <v>9.940555039208078</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13.93659794458851</v>
+        <v>9.965883216106945</v>
       </c>
       <c r="B18" t="n">
-        <v>13.99184845129128</v>
+        <v>10.00538583703655</v>
       </c>
       <c r="C18" t="n">
-        <v>13.89841906101686</v>
+        <v>9.938577618318245</v>
       </c>
       <c r="D18" t="n">
-        <v>14.08479970627579</v>
+        <v>10.07184022790529</v>
       </c>
       <c r="E18" t="n">
-        <v>13.83925398612399</v>
+        <v>9.896271350828782</v>
       </c>
       <c r="F18" t="n">
-        <v>14.20369309065993</v>
+        <v>10.15687810912891</v>
       </c>
       <c r="G18" t="n">
-        <v>13.76698098578776</v>
+        <v>9.844561669088778</v>
       </c>
       <c r="H18" t="n">
-        <v>14.35342927183724</v>
+        <v>10.26390726949982</v>
       </c>
       <c r="I18" t="n">
-        <v>13.63065364822709</v>
+        <v>9.747119110436635</v>
       </c>
       <c r="J18" t="n">
-        <v>14.33112623451571</v>
+        <v>10.24789342253476</v>
       </c>
       <c r="K18" t="n">
-        <v>13.54703787511413</v>
+        <v>9.687322203858166</v>
       </c>
       <c r="L18" t="n">
-        <v>14.18308414369588</v>
+        <v>10.14216790448907</v>
       </c>
       <c r="M18" t="n">
-        <v>13.87313491596114</v>
+        <v>9.92049914820964</v>
       </c>
       <c r="N18" t="n">
-        <v>14.4602464502293</v>
+        <v>10.34048841417683</v>
       </c>
       <c r="O18" t="n">
-        <v>13.63581838667064</v>
+        <v>9.750759020336005</v>
       </c>
       <c r="P18" t="n">
-        <v>14.48972590346185</v>
+        <v>10.3613837052865</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.89574588995563</v>
+        <v>9.936640348106378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13.93736208373991</v>
+        <v>9.966356868636078</v>
       </c>
       <c r="B19" t="n">
-        <v>13.99178967135656</v>
+        <v>10.0052892244677</v>
       </c>
       <c r="C19" t="n">
-        <v>13.89937971815899</v>
+        <v>9.939199326472377</v>
       </c>
       <c r="D19" t="n">
-        <v>14.08421541617839</v>
+        <v>10.07141049018018</v>
       </c>
       <c r="E19" t="n">
-        <v>13.8407568223655</v>
+        <v>9.897314013747216</v>
       </c>
       <c r="F19" t="n">
-        <v>14.20102079691116</v>
+        <v>10.15494836716917</v>
       </c>
       <c r="G19" t="n">
-        <v>13.76967345772308</v>
+        <v>9.846518387285284</v>
       </c>
       <c r="H19" t="n">
-        <v>14.35379949769475</v>
+        <v>10.26418581482821</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62846387633053</v>
+        <v>9.745562016956761</v>
       </c>
       <c r="J19" t="n">
-        <v>14.33329670553819</v>
+        <v>10.24954210974874</v>
       </c>
       <c r="K19" t="n">
-        <v>13.55259828147649</v>
+        <v>9.691327861339634</v>
       </c>
       <c r="L19" t="n">
-        <v>14.17561996929845</v>
+        <v>10.13677516655474</v>
       </c>
       <c r="M19" t="n">
-        <v>13.870502101273</v>
+        <v>9.918609556927859</v>
       </c>
       <c r="N19" t="n">
-        <v>14.4582584601982</v>
+        <v>10.33884850992365</v>
       </c>
       <c r="O19" t="n">
-        <v>13.64278161565424</v>
+        <v>9.755721393190884</v>
       </c>
       <c r="P19" t="n">
-        <v>14.48574115027507</v>
+        <v>10.35842698426689</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.87904536999447</v>
+        <v>9.924703049663565</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.94052567246548</v>
+        <v>9.968695645627607</v>
       </c>
       <c r="B20" t="n">
-        <v>13.99405401481211</v>
+        <v>10.00697178881622</v>
       </c>
       <c r="C20" t="n">
-        <v>13.90118610451116</v>
+        <v>9.940565704231913</v>
       </c>
       <c r="D20" t="n">
-        <v>14.08298981067378</v>
+        <v>10.07057109006895</v>
       </c>
       <c r="E20" t="n">
-        <v>13.83945138142716</v>
+        <v>9.896406859366918</v>
       </c>
       <c r="F20" t="n">
-        <v>14.20258153577494</v>
+        <v>10.15607635027828</v>
       </c>
       <c r="G20" t="n">
-        <v>13.76350331920202</v>
+        <v>9.842103694772037</v>
       </c>
       <c r="H20" t="n">
-        <v>14.35361526207845</v>
+        <v>10.26405407041613</v>
       </c>
       <c r="I20" t="n">
-        <v>13.62997548569663</v>
+        <v>9.746636047592355</v>
       </c>
       <c r="J20" t="n">
-        <v>14.32774156305058</v>
+        <v>10.24553582491293</v>
       </c>
       <c r="K20" t="n">
-        <v>13.5525324830421</v>
+        <v>9.691338526363468</v>
       </c>
       <c r="L20" t="n">
-        <v>14.1817479968215</v>
+        <v>10.14120428821788</v>
       </c>
       <c r="M20" t="n">
-        <v>13.87036524052947</v>
+        <v>9.918544939430507</v>
       </c>
       <c r="N20" t="n">
-        <v>14.46504710400254</v>
+        <v>10.34375442088764</v>
       </c>
       <c r="O20" t="n">
-        <v>13.64258246572614</v>
+        <v>9.755615997661224</v>
       </c>
       <c r="P20" t="n">
-        <v>14.48849240214512</v>
+        <v>10.36044079170863</v>
       </c>
       <c r="Q20" t="n">
-        <v>13.88128865795101</v>
+        <v>9.926427019398737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13.93237368510054</v>
+        <v>9.96281859014031</v>
       </c>
       <c r="B21" t="n">
-        <v>13.9863055911781</v>
+        <v>10.0013789248464</v>
       </c>
       <c r="C21" t="n">
-        <v>13.89464749475751</v>
+        <v>9.935849881633919</v>
       </c>
       <c r="D21" t="n">
-        <v>14.07816196021432</v>
+        <v>10.06706292458166</v>
       </c>
       <c r="E21" t="n">
-        <v>13.83668433793286</v>
+        <v>9.894423164933652</v>
       </c>
       <c r="F21" t="n">
-        <v>14.20087340841812</v>
+        <v>10.15480470302457</v>
       </c>
       <c r="G21" t="n">
-        <v>13.76319275059169</v>
+        <v>9.84189980461049</v>
       </c>
       <c r="H21" t="n">
-        <v>14.35669550612046</v>
+        <v>10.26618707518309</v>
       </c>
       <c r="I21" t="n">
-        <v>13.62737162231962</v>
+        <v>9.744830521792565</v>
       </c>
       <c r="J21" t="n">
-        <v>14.33521801982244</v>
+        <v>10.25090974221696</v>
       </c>
       <c r="K21" t="n">
-        <v>13.54828716805512</v>
+        <v>9.688263862727341</v>
       </c>
       <c r="L21" t="n">
-        <v>14.17798695831165</v>
+        <v>10.13846086767497</v>
       </c>
       <c r="M21" t="n">
-        <v>13.86776049984</v>
+        <v>9.916664131109529</v>
       </c>
       <c r="N21" t="n">
-        <v>14.47047942274595</v>
+        <v>10.34749596219061</v>
       </c>
       <c r="O21" t="n">
-        <v>13.63921621782265</v>
+        <v>9.75327031977192</v>
       </c>
       <c r="P21" t="n">
-        <v>14.50017995871806</v>
+        <v>10.36878397711913</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.87848038077115</v>
+        <v>9.924280212836235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13.93080855967446</v>
+        <v>9.961734521835226</v>
       </c>
       <c r="B22" t="n">
-        <v>13.98312884276565</v>
+        <v>9.999147425447562</v>
       </c>
       <c r="C22" t="n">
-        <v>13.89303499445868</v>
+        <v>9.934720016461778</v>
       </c>
       <c r="D22" t="n">
-        <v>14.07369556248779</v>
+        <v>10.0639079595896</v>
       </c>
       <c r="E22" t="n">
-        <v>13.82671806840361</v>
+        <v>9.887284499862139</v>
       </c>
       <c r="F22" t="n">
-        <v>14.21050893115049</v>
+        <v>10.16174386941494</v>
       </c>
       <c r="G22" t="n">
-        <v>13.72667988337886</v>
+        <v>9.815742892624227</v>
       </c>
       <c r="H22" t="n">
-        <v>14.38126464152245</v>
+        <v>10.28382827931446</v>
       </c>
       <c r="I22" t="n">
-        <v>13.61183617330343</v>
+        <v>9.733689336011301</v>
       </c>
       <c r="J22" t="n">
-        <v>14.33891150527298</v>
+        <v>10.25360234705807</v>
       </c>
       <c r="K22" t="n">
-        <v>13.54548503206248</v>
+        <v>9.686243154387826</v>
       </c>
       <c r="L22" t="n">
-        <v>14.20324302936869</v>
+        <v>10.15658513465063</v>
       </c>
       <c r="M22" t="n">
-        <v>13.86449952943153</v>
+        <v>9.914341037976582</v>
       </c>
       <c r="N22" t="n">
-        <v>14.43123372722469</v>
+        <v>10.31956426476737</v>
       </c>
       <c r="O22" t="n">
-        <v>13.64826481852024</v>
+        <v>9.75969568295519</v>
       </c>
       <c r="P22" t="n">
-        <v>14.49880959665779</v>
+        <v>10.36785110121076</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.92684749392406</v>
+        <v>9.958945304425264</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13.94360767113241</v>
+        <v>9.970916480002609</v>
       </c>
       <c r="B23" t="n">
-        <v>13.99341357671736</v>
+        <v>10.00653640490202</v>
       </c>
       <c r="C23" t="n">
-        <v>13.90552265999383</v>
+        <v>9.943667344104798</v>
       </c>
       <c r="D23" t="n">
-        <v>14.08747638658686</v>
+        <v>10.07379380933008</v>
       </c>
       <c r="E23" t="n">
-        <v>13.8432931326832</v>
+        <v>9.899137105468617</v>
       </c>
       <c r="F23" t="n">
-        <v>14.19236172294517</v>
+        <v>10.14878398339268</v>
       </c>
       <c r="G23" t="n">
-        <v>13.75160257570165</v>
+        <v>9.833564774806453</v>
       </c>
       <c r="H23" t="n">
-        <v>14.31366508465298</v>
+        <v>10.2354692971216</v>
       </c>
       <c r="I23" t="n">
-        <v>13.63500248608418</v>
+        <v>9.750198165553165</v>
       </c>
       <c r="J23" t="n">
-        <v>14.32962778483649</v>
+        <v>10.24690345738115</v>
       </c>
       <c r="K23" t="n">
-        <v>13.54849860035764</v>
+        <v>9.688328480224694</v>
       </c>
       <c r="L23" t="n">
-        <v>14.16678192359091</v>
+        <v>10.13047903836617</v>
       </c>
       <c r="M23" t="n">
-        <v>13.88457507042077</v>
+        <v>9.928652245254144</v>
       </c>
       <c r="N23" t="n">
-        <v>14.22582768398942</v>
+        <v>10.17266171705002</v>
       </c>
       <c r="O23" t="n">
-        <v>13.88054118773631</v>
+        <v>9.925716226927868</v>
       </c>
       <c r="P23" t="n">
-        <v>14.23399897222846</v>
+        <v>10.17854190930903</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.96156976640898</v>
+        <v>9.983717645376037</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13.93803322777071</v>
+        <v>9.966920232836291</v>
       </c>
       <c r="B24" t="n">
-        <v>13.99004996075123</v>
+        <v>10.0041135624285</v>
       </c>
       <c r="C24" t="n">
-        <v>13.89789355085418</v>
+        <v>9.938202460421</v>
       </c>
       <c r="D24" t="n">
-        <v>14.08571562048253</v>
+        <v>10.07251902530465</v>
       </c>
       <c r="E24" t="n">
-        <v>13.83786870975192</v>
+        <v>9.89527197536003</v>
       </c>
       <c r="F24" t="n">
-        <v>14.20132434702182</v>
+        <v>10.15519052594565</v>
       </c>
       <c r="G24" t="n">
-        <v>13.74508853069683</v>
+        <v>9.828926116792676</v>
       </c>
       <c r="H24" t="n">
-        <v>14.30884074344335</v>
+        <v>10.23207029129003</v>
       </c>
       <c r="I24" t="n">
-        <v>13.63764231927199</v>
+        <v>9.752082738000201</v>
       </c>
       <c r="J24" t="n">
-        <v>14.30944170247746</v>
+        <v>10.23255837296906</v>
       </c>
       <c r="K24" t="n">
-        <v>13.56009754837227</v>
+        <v>9.696605793429153</v>
       </c>
       <c r="L24" t="n">
-        <v>14.16233394942601</v>
+        <v>10.12726259264847</v>
       </c>
       <c r="M24" t="n">
-        <v>13.85574044184526</v>
+        <v>9.90801667884257</v>
       </c>
       <c r="N24" t="n">
-        <v>14.27172779450886</v>
+        <v>10.20554324024127</v>
       </c>
       <c r="O24" t="n">
-        <v>13.77992660842628</v>
+        <v>9.853836475698959</v>
       </c>
       <c r="P24" t="n">
-        <v>14.2659936802797</v>
+        <v>10.20146292759296</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.74845653322525</v>
+        <v>9.831333902761958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13.94656245949284</v>
+        <v>9.973045720643503</v>
       </c>
       <c r="B25" t="n">
-        <v>13.99907311938753</v>
+        <v>10.01059726956569</v>
       </c>
       <c r="C25" t="n">
-        <v>13.90461200966184</v>
+        <v>9.943031206800772</v>
       </c>
       <c r="D25" t="n">
-        <v>14.09055663062886</v>
+        <v>10.07599519572044</v>
       </c>
       <c r="E25" t="n">
-        <v>13.83826876423302</v>
+        <v>9.895567459255687</v>
       </c>
       <c r="F25" t="n">
-        <v>14.19016931911122</v>
+        <v>10.14720305044776</v>
       </c>
       <c r="G25" t="n">
-        <v>13.74799945343434</v>
+        <v>9.831003287023082</v>
       </c>
       <c r="H25" t="n">
-        <v>14.2924490374676</v>
+        <v>10.22032684533927</v>
       </c>
       <c r="I25" t="n">
-        <v>13.63474455622136</v>
+        <v>9.750062657015029</v>
       </c>
       <c r="J25" t="n">
-        <v>14.29583721818256</v>
+        <v>10.22281430531015</v>
       </c>
       <c r="K25" t="n">
-        <v>13.57130433771792</v>
+        <v>9.704671060865605</v>
       </c>
       <c r="L25" t="n">
-        <v>14.12461565489511</v>
+        <v>10.10029827562249</v>
       </c>
       <c r="M25" t="n">
-        <v>13.83460335278116</v>
+        <v>9.892934453077189</v>
       </c>
       <c r="N25" t="n">
-        <v>14.13903428515155</v>
+        <v>10.11050093930629</v>
       </c>
       <c r="O25" t="n">
-        <v>13.70015346388181</v>
+        <v>9.796847607160748</v>
       </c>
       <c r="P25" t="n">
-        <v>14.12007556292206</v>
+        <v>10.09680391193074</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.74934963730806</v>
+        <v>9.832034657563337</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13.94556758716483</v>
+        <v>9.972323635794455</v>
       </c>
       <c r="B26" t="n">
-        <v>13.9952375093187</v>
+        <v>10.00784757547935</v>
       </c>
       <c r="C26" t="n">
-        <v>13.90203885222088</v>
+        <v>9.941183020905642</v>
       </c>
       <c r="D26" t="n">
-        <v>14.07703285908015</v>
+        <v>10.06633268412615</v>
       </c>
       <c r="E26" t="n">
-        <v>13.83951981179893</v>
+        <v>9.896477123053359</v>
       </c>
       <c r="F26" t="n">
-        <v>14.17645253882162</v>
+        <v>10.13745961014319</v>
       </c>
       <c r="G26" t="n">
-        <v>13.7878145247412</v>
+        <v>9.859471999764114</v>
       </c>
       <c r="H26" t="n">
-        <v>14.2869403925403</v>
+        <v>10.21638768741819</v>
       </c>
       <c r="I26" t="n">
-        <v>13.65450251010061</v>
+        <v>9.764167464713671</v>
       </c>
       <c r="J26" t="n">
-        <v>14.23114156555092</v>
+        <v>10.17652308303254</v>
       </c>
       <c r="K26" t="n">
-        <v>13.56986115872359</v>
+        <v>9.70363216207323</v>
       </c>
       <c r="L26" t="n">
-        <v>14.10497087432302</v>
+        <v>10.08634277825753</v>
       </c>
       <c r="M26" t="n">
-        <v>13.87591424182986</v>
+        <v>9.92249350766674</v>
       </c>
       <c r="N26" t="n">
-        <v>13.97388284676488</v>
+        <v>9.992776014737808</v>
       </c>
       <c r="O26" t="n">
-        <v>13.79902219139931</v>
+        <v>9.867626351517304</v>
       </c>
       <c r="P26" t="n">
-        <v>13.95821931012973</v>
+        <v>9.981491164811946</v>
       </c>
       <c r="Q26" t="n">
-        <v>13.95495833972126</v>
+        <v>9.979038209329952</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14.33166227242789</v>
+        <v>10.2483614288748</v>
       </c>
       <c r="B27" t="n">
-        <v>14.37241255881558</v>
+        <v>10.27752085874772</v>
       </c>
       <c r="C27" t="n">
-        <v>14.3581957104246</v>
+        <v>10.26736399193097</v>
       </c>
       <c r="D27" t="n">
-        <v>14.80969403947336</v>
+        <v>10.59036113966445</v>
       </c>
       <c r="E27" t="n">
-        <v>14.50738093937793</v>
+        <v>10.37410958813874</v>
       </c>
       <c r="F27" t="n">
-        <v>15.20321605201059</v>
+        <v>10.87172705318177</v>
       </c>
       <c r="G27" t="n">
-        <v>14.50008871822237</v>
+        <v>10.3689533627918</v>
       </c>
       <c r="H27" t="n">
-        <v>15.78602173673213</v>
+        <v>11.28848356221834</v>
       </c>
       <c r="I27" t="n">
-        <v>13.98630822311547</v>
+        <v>10.00149373069121</v>
       </c>
       <c r="J27" t="n">
-        <v>16.19665309683622</v>
+        <v>11.58180434010008</v>
       </c>
       <c r="K27" t="n">
-        <v>13.56692216198741</v>
+        <v>9.701763900839119</v>
       </c>
       <c r="L27" t="n">
-        <v>15.4013851447752</v>
+        <v>11.01341628630696</v>
       </c>
       <c r="M27" t="n">
-        <v>14.80929924886701</v>
+        <v>10.59000856652356</v>
       </c>
       <c r="N27" t="n">
-        <v>15.84956372348076</v>
+        <v>11.33401443103196</v>
       </c>
       <c r="O27" t="n">
-        <v>13.88207823916371</v>
+        <v>9.927010458937932</v>
       </c>
       <c r="P27" t="n">
-        <v>16.42332431675454</v>
+        <v>11.74447732129733</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.31690916679662</v>
+        <v>9.522848715695872</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14.12664312398684</v>
+        <v>10.1018428220155</v>
       </c>
       <c r="B28" t="n">
-        <v>14.15856501510403</v>
+        <v>10.12467977481743</v>
       </c>
       <c r="C28" t="n">
-        <v>14.12452441439942</v>
+        <v>10.10033591688308</v>
       </c>
       <c r="D28" t="n">
-        <v>14.58737604397441</v>
+        <v>10.43122392754559</v>
       </c>
       <c r="E28" t="n">
-        <v>14.2432476001666</v>
+        <v>10.18511909224336</v>
       </c>
       <c r="F28" t="n">
-        <v>14.96929647655964</v>
+        <v>10.70419333053324</v>
       </c>
       <c r="G28" t="n">
-        <v>14.13254392758312</v>
+        <v>10.10598587009813</v>
       </c>
       <c r="H28" t="n">
-        <v>15.5483226992097</v>
+        <v>11.11827229123294</v>
       </c>
       <c r="I28" t="n">
-        <v>13.46383356154424</v>
+        <v>9.627898573113914</v>
       </c>
       <c r="J28" t="n">
-        <v>15.9439011321498</v>
+        <v>11.40139605161997</v>
       </c>
       <c r="K28" t="n">
-        <v>13.11818912180803</v>
+        <v>9.381027738158608</v>
       </c>
       <c r="L28" t="n">
-        <v>15.10326384360677</v>
+        <v>10.80006060242956</v>
       </c>
       <c r="M28" t="n">
-        <v>14.42842106348255</v>
+        <v>10.31759625419269</v>
       </c>
       <c r="N28" t="n">
-        <v>15.59398505805286</v>
+        <v>11.15097752785375</v>
       </c>
       <c r="O28" t="n">
-        <v>13.58629760763472</v>
+        <v>9.715379999504391</v>
       </c>
       <c r="P28" t="n">
-        <v>16.29489454594584</v>
+        <v>11.65204920591056</v>
       </c>
       <c r="Q28" t="n">
-        <v>12.97902367844393</v>
+        <v>9.281001106966739</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14.07920157547771</v>
+        <v>10.0679242820949</v>
       </c>
       <c r="B29" t="n">
-        <v>14.10097032951198</v>
+        <v>10.08345632092437</v>
       </c>
       <c r="C29" t="n">
-        <v>14.07432722745795</v>
+        <v>10.06444372019871</v>
       </c>
       <c r="D29" t="n">
-        <v>14.49289826531201</v>
+        <v>10.36367041186754</v>
       </c>
       <c r="E29" t="n">
-        <v>14.08707457748084</v>
+        <v>10.07346507565423</v>
       </c>
       <c r="F29" t="n">
-        <v>14.78429408917311</v>
+        <v>10.5719482896909</v>
       </c>
       <c r="G29" t="n">
-        <v>13.94338307914301</v>
+        <v>9.970817985370724</v>
       </c>
       <c r="H29" t="n">
-        <v>15.4660816747193</v>
+        <v>11.05938379374346</v>
       </c>
       <c r="I29" t="n">
-        <v>13.29298397873921</v>
+        <v>9.506008643060786</v>
       </c>
       <c r="J29" t="n">
-        <v>15.9724839720497</v>
+        <v>11.42155043725029</v>
       </c>
       <c r="K29" t="n">
-        <v>12.55297881575539</v>
+        <v>8.977046672967395</v>
       </c>
       <c r="L29" t="n">
-        <v>14.78368523432687</v>
+        <v>10.57153549053307</v>
       </c>
       <c r="M29" t="n">
-        <v>14.10038428478966</v>
+        <v>10.08304477647522</v>
       </c>
       <c r="N29" t="n">
-        <v>15.32117597593883</v>
+        <v>10.95584397822955</v>
       </c>
       <c r="O29" t="n">
-        <v>13.38287253593088</v>
+        <v>9.570074068590532</v>
       </c>
       <c r="P29" t="n">
-        <v>15.95487455638147</v>
+        <v>11.40875240864858</v>
       </c>
       <c r="Q29" t="n">
-        <v>12.72188251952733</v>
+        <v>9.097497452157173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13.15842881234484</v>
+        <v>9.409293815446782</v>
       </c>
       <c r="B30" t="n">
-        <v>13.21269497446911</v>
+        <v>9.448131440772574</v>
       </c>
       <c r="C30" t="n">
-        <v>13.20594317778803</v>
+        <v>9.443286383179878</v>
       </c>
       <c r="D30" t="n">
-        <v>13.65750291870889</v>
+        <v>9.766290431811131</v>
       </c>
       <c r="E30" t="n">
-        <v>13.38033885755056</v>
+        <v>9.568013209573051</v>
       </c>
       <c r="F30" t="n">
-        <v>14.00164101295374</v>
+        <v>10.01233064961601</v>
       </c>
       <c r="G30" t="n">
-        <v>13.30371263279495</v>
+        <v>9.513295991111644</v>
       </c>
       <c r="H30" t="n">
-        <v>14.55914939293268</v>
+        <v>10.4109001562426</v>
       </c>
       <c r="I30" t="n">
-        <v>12.6842940672403</v>
+        <v>9.070556347241883</v>
       </c>
       <c r="J30" t="n">
-        <v>14.5577220055626</v>
+        <v>10.40996351620817</v>
       </c>
       <c r="K30" t="n">
-        <v>12.17542476727642</v>
+        <v>8.7068301008378</v>
       </c>
       <c r="L30" t="n">
-        <v>13.98915247010613</v>
+        <v>10.00335697309058</v>
       </c>
       <c r="M30" t="n">
-        <v>13.44578724427164</v>
+        <v>9.614848348066227</v>
       </c>
       <c r="N30" t="n">
-        <v>14.19656580424659</v>
+        <v>10.15152050303781</v>
       </c>
       <c r="O30" t="n">
-        <v>12.50238157433282</v>
+        <v>8.940527121939805</v>
       </c>
       <c r="P30" t="n">
-        <v>14.81031868594385</v>
+        <v>10.59018297103097</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.43906856613587</v>
+        <v>8.895253468406906</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12.8040542363335</v>
+        <v>9.156065998931616</v>
       </c>
       <c r="B31" t="n">
-        <v>12.82522817252086</v>
+        <v>9.171256756998373</v>
       </c>
       <c r="C31" t="n">
-        <v>12.80971290169122</v>
+        <v>9.160127490949629</v>
       </c>
       <c r="D31" t="n">
-        <v>13.33078474064121</v>
+        <v>9.532803574414105</v>
       </c>
       <c r="E31" t="n">
-        <v>12.95837876166908</v>
+        <v>9.266506712220957</v>
       </c>
       <c r="F31" t="n">
-        <v>13.79651132314291</v>
+        <v>9.865761227054907</v>
       </c>
       <c r="G31" t="n">
-        <v>12.93951478918511</v>
+        <v>9.253028631511192</v>
       </c>
       <c r="H31" t="n">
-        <v>14.32750995256152</v>
+        <v>10.24540721727257</v>
       </c>
       <c r="I31" t="n">
-        <v>12.64411754320051</v>
+        <v>9.041827282448413</v>
       </c>
       <c r="J31" t="n">
-        <v>14.39576310721263</v>
+        <v>10.29434399281554</v>
       </c>
       <c r="K31" t="n">
-        <v>12.1986138901811</v>
+        <v>8.723438679720237</v>
       </c>
       <c r="L31" t="n">
-        <v>13.87153908459902</v>
+        <v>9.919410688424152</v>
       </c>
       <c r="M31" t="n">
-        <v>13.21248178754168</v>
+        <v>9.448175982930943</v>
       </c>
       <c r="N31" t="n">
-        <v>13.97441098886493</v>
+        <v>9.99310161164194</v>
       </c>
       <c r="O31" t="n">
-        <v>12.44960157951335</v>
+        <v>8.902587240679161</v>
       </c>
       <c r="P31" t="n">
-        <v>14.3884893096187</v>
+        <v>10.28918023921648</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.31991023338924</v>
+        <v>8.809732524338996</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.89228204104112</v>
+        <v>9.219208586222482</v>
       </c>
       <c r="B32" t="n">
-        <v>12.9263296602454</v>
+        <v>9.243581929810968</v>
       </c>
       <c r="C32" t="n">
-        <v>12.89785648440281</v>
+        <v>9.22319291365628</v>
       </c>
       <c r="D32" t="n">
-        <v>13.37880180612316</v>
+        <v>9.567129894657796</v>
       </c>
       <c r="E32" t="n">
-        <v>12.97556180348245</v>
+        <v>9.278775881111333</v>
       </c>
       <c r="F32" t="n">
-        <v>13.80056626132638</v>
+        <v>9.868638901427262</v>
       </c>
       <c r="G32" t="n">
-        <v>12.95014606155794</v>
+        <v>9.260546218606013</v>
       </c>
       <c r="H32" t="n">
-        <v>14.41998219494365</v>
+        <v>10.31139799328166</v>
       </c>
       <c r="I32" t="n">
-        <v>12.86730232340852</v>
+        <v>9.201138899074683</v>
       </c>
       <c r="J32" t="n">
-        <v>14.31536531619767</v>
+        <v>10.23680179774661</v>
       </c>
       <c r="K32" t="n">
-        <v>12.72042179428383</v>
+        <v>9.096053282459078</v>
       </c>
       <c r="L32" t="n">
-        <v>13.88373635971039</v>
+        <v>9.928129031731896</v>
       </c>
       <c r="M32" t="n">
-        <v>13.22364032470211</v>
+        <v>9.456179769641759</v>
       </c>
       <c r="N32" t="n">
-        <v>14.02880611592061</v>
+        <v>10.03163873423733</v>
       </c>
       <c r="O32" t="n">
-        <v>12.64191987549182</v>
+        <v>9.04029591049661</v>
       </c>
       <c r="P32" t="n">
-        <v>14.43386390997546</v>
+        <v>10.32118095690985</v>
       </c>
       <c r="Q32" t="n">
-        <v>12.40901447324296</v>
+        <v>8.873805478120861</v>
       </c>
     </row>
   </sheetData>
@@ -5636,1645 +5636,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.191093129130086</v>
+        <v>4.427311745861265</v>
       </c>
       <c r="B2" t="n">
-        <v>6.136177755786479</v>
+        <v>4.388051597385313</v>
       </c>
       <c r="C2" t="n">
-        <v>6.133710314496777</v>
+        <v>4.386285281231974</v>
       </c>
       <c r="D2" t="n">
-        <v>6.149103200238454</v>
+        <v>4.397269942104605</v>
       </c>
       <c r="E2" t="n">
-        <v>6.145907150951917</v>
+        <v>4.394979785074676</v>
       </c>
       <c r="F2" t="n">
-        <v>6.368897606450352</v>
+        <v>4.554313986457302</v>
       </c>
       <c r="G2" t="n">
-        <v>6.384851533509278</v>
+        <v>4.565720543125749</v>
       </c>
       <c r="H2" t="n">
-        <v>6.712550985561849</v>
+        <v>4.799941091427171</v>
       </c>
       <c r="I2" t="n">
-        <v>6.761747158988099</v>
+        <v>4.835146021428542</v>
       </c>
       <c r="J2" t="n">
-        <v>6.980424307784021</v>
+        <v>4.991403677112012</v>
       </c>
       <c r="K2" t="n">
-        <v>7.056036359337533</v>
+        <v>5.045541220160283</v>
       </c>
       <c r="L2" t="n">
-        <v>6.978025735522316</v>
+        <v>4.989758126669742</v>
       </c>
       <c r="M2" t="n">
-        <v>6.987101532906126</v>
+        <v>4.996246852641679</v>
       </c>
       <c r="N2" t="n">
-        <v>7.413824558125131</v>
+        <v>5.3013926325388</v>
       </c>
       <c r="O2" t="n">
-        <v>7.424876940478078</v>
+        <v>5.309293533137327</v>
       </c>
       <c r="P2" t="n">
-        <v>7.913925120065693</v>
+        <v>5.659024131498489</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.921505099707658</v>
+        <v>5.664434435354429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.193371070928738</v>
+        <v>4.428856605931447</v>
       </c>
       <c r="B3" t="n">
-        <v>6.138062661603697</v>
+        <v>4.389307874457613</v>
       </c>
       <c r="C3" t="n">
-        <v>6.134772739884093</v>
+        <v>4.386950590512959</v>
       </c>
       <c r="D3" t="n">
-        <v>6.150969243837812</v>
+        <v>4.398547549224574</v>
       </c>
       <c r="E3" t="n">
-        <v>6.145438666099046</v>
+        <v>4.3945795330037</v>
       </c>
       <c r="F3" t="n">
-        <v>6.376362219504016</v>
+        <v>4.559770087180296</v>
       </c>
       <c r="G3" t="n">
-        <v>6.39214068407123</v>
+        <v>4.571019177908595</v>
       </c>
       <c r="H3" t="n">
-        <v>6.726142748826101</v>
+        <v>4.809921985350648</v>
       </c>
       <c r="I3" t="n">
-        <v>6.780650171876477</v>
+        <v>4.848819209339048</v>
       </c>
       <c r="J3" t="n">
-        <v>6.984970979600511</v>
+        <v>4.994886121071232</v>
       </c>
       <c r="K3" t="n">
-        <v>7.074045390830637</v>
+        <v>5.058455622992662</v>
       </c>
       <c r="L3" t="n">
-        <v>7.001232843332392</v>
+        <v>5.006632703793706</v>
       </c>
       <c r="M3" t="n">
-        <v>7.012618165763364</v>
+        <v>5.014766352853568</v>
       </c>
       <c r="N3" t="n">
-        <v>7.41776281375161</v>
+        <v>5.304343707369312</v>
       </c>
       <c r="O3" t="n">
-        <v>7.432972779845676</v>
+        <v>5.315215130782992</v>
       </c>
       <c r="P3" t="n">
-        <v>7.939758462720471</v>
+        <v>5.677610131270759</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.95433325459454</v>
+        <v>5.68802985955732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.197220279340673</v>
+        <v>4.431531017496599</v>
       </c>
       <c r="B4" t="n">
-        <v>6.142121109036998</v>
+        <v>4.392122813395646</v>
       </c>
       <c r="C4" t="n">
-        <v>6.138961029561263</v>
+        <v>4.389859318925304</v>
       </c>
       <c r="D4" t="n">
-        <v>6.152086501253789</v>
+        <v>4.399249558734639</v>
       </c>
       <c r="E4" t="n">
-        <v>6.146517760423075</v>
+        <v>4.395256134662865</v>
       </c>
       <c r="F4" t="n">
-        <v>6.373294696492659</v>
+        <v>4.557508474772984</v>
       </c>
       <c r="G4" t="n">
-        <v>6.388070392919738</v>
+        <v>4.568050537156473</v>
       </c>
       <c r="H4" t="n">
-        <v>6.724336801130154</v>
+        <v>4.808587288985446</v>
       </c>
       <c r="I4" t="n">
-        <v>6.777153204416654</v>
+        <v>4.846317320218282</v>
       </c>
       <c r="J4" t="n">
-        <v>6.986429511562869</v>
+        <v>4.996068684008205</v>
       </c>
       <c r="K4" t="n">
-        <v>7.0710261200045</v>
+        <v>5.056515529686251</v>
       </c>
       <c r="L4" t="n">
-        <v>6.998400878716159</v>
+        <v>5.004561807106732</v>
       </c>
       <c r="M4" t="n">
-        <v>7.008849670097616</v>
+        <v>5.012029833208437</v>
       </c>
       <c r="N4" t="n">
-        <v>7.414820307765597</v>
+        <v>5.302255872115071</v>
       </c>
       <c r="O4" t="n">
-        <v>7.429045929281159</v>
+        <v>5.31242591337303</v>
       </c>
       <c r="P4" t="n">
-        <v>7.935302592743442</v>
+        <v>5.674407487348615</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.947958702270638</v>
+        <v>5.68345707374958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.195275277620044</v>
+        <v>4.430086534121332</v>
       </c>
       <c r="B5" t="n">
-        <v>6.144070935976149</v>
+        <v>4.393469743170543</v>
       </c>
       <c r="C5" t="n">
-        <v>6.140610376983357</v>
+        <v>4.390990438806132</v>
       </c>
       <c r="D5" t="n">
-        <v>6.146724367507066</v>
+        <v>4.395381291854337</v>
       </c>
       <c r="E5" t="n">
-        <v>6.142177257034346</v>
+        <v>4.39212155868696</v>
       </c>
       <c r="F5" t="n">
-        <v>6.35467198493479</v>
+        <v>4.544112263805011</v>
       </c>
       <c r="G5" t="n">
-        <v>6.38836780184319</v>
+        <v>4.568193260269555</v>
       </c>
       <c r="H5" t="n">
-        <v>6.697442349056747</v>
+        <v>4.789230270725357</v>
       </c>
       <c r="I5" t="n">
-        <v>6.785674101670425</v>
+        <v>4.852286910471203</v>
       </c>
       <c r="J5" t="n">
-        <v>6.979055700348666</v>
+        <v>4.990648342482774</v>
       </c>
       <c r="K5" t="n">
-        <v>7.080180436853352</v>
+        <v>5.062914230309935</v>
       </c>
       <c r="L5" t="n">
-        <v>7.009092685648637</v>
+        <v>5.012078766847209</v>
       </c>
       <c r="M5" t="n">
-        <v>7.031192186479782</v>
+        <v>5.027877744949719</v>
       </c>
       <c r="N5" t="n">
-        <v>7.382114976622913</v>
+        <v>5.278837361836969</v>
       </c>
       <c r="O5" t="n">
-        <v>7.408987934541085</v>
+        <v>5.298046324472057</v>
       </c>
       <c r="P5" t="n">
-        <v>7.916112260024885</v>
+        <v>5.660791388683343</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.949212381773921</v>
+        <v>5.684442647422781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.193146040283118</v>
+        <v>4.42878508753632</v>
       </c>
       <c r="B6" t="n">
-        <v>6.141549978626475</v>
+        <v>4.391890064934311</v>
       </c>
       <c r="C6" t="n">
-        <v>6.138373230214027</v>
+        <v>4.389620296920537</v>
       </c>
       <c r="D6" t="n">
-        <v>6.146406780397068</v>
+        <v>4.395372508893532</v>
       </c>
       <c r="E6" t="n">
-        <v>6.142485193707301</v>
+        <v>4.392570744396706</v>
       </c>
       <c r="F6" t="n">
-        <v>6.360971965699715</v>
+        <v>4.548830595820377</v>
       </c>
       <c r="G6" t="n">
-        <v>6.391952500548869</v>
+        <v>4.570986555482747</v>
       </c>
       <c r="H6" t="n">
-        <v>6.705197352534194</v>
+        <v>4.7949432730519</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783559778645293</v>
+        <v>4.85096789796458</v>
       </c>
       <c r="J6" t="n">
-        <v>6.982067952675134</v>
+        <v>4.992838436494959</v>
       </c>
       <c r="K6" t="n">
-        <v>7.073396179611303</v>
+        <v>5.058074505229155</v>
       </c>
       <c r="L6" t="n">
-        <v>7.013469597504397</v>
+        <v>5.015366103605688</v>
       </c>
       <c r="M6" t="n">
-        <v>7.034461052700379</v>
+        <v>5.030376810975941</v>
       </c>
       <c r="N6" t="n">
-        <v>7.370672190225906</v>
+        <v>5.270694929816301</v>
       </c>
       <c r="O6" t="n">
-        <v>7.396200228145105</v>
+        <v>5.288948431786665</v>
       </c>
       <c r="P6" t="n">
-        <v>7.909549962834851</v>
+        <v>5.656007811816282</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.940264672009061</v>
+        <v>5.677972742081141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.191197090656425</v>
+        <v>4.427318019404697</v>
       </c>
       <c r="B7" t="n">
-        <v>6.14022435950159</v>
+        <v>4.390864340583144</v>
       </c>
       <c r="C7" t="n">
-        <v>6.136635712889848</v>
+        <v>4.388298147642199</v>
       </c>
       <c r="D7" t="n">
-        <v>6.147615278308734</v>
+        <v>4.396135058097717</v>
       </c>
       <c r="E7" t="n">
-        <v>6.142799710223695</v>
+        <v>4.392690569076262</v>
       </c>
       <c r="F7" t="n">
-        <v>6.367470219080274</v>
+        <v>4.553366367721866</v>
       </c>
       <c r="G7" t="n">
-        <v>6.393545699973615</v>
+        <v>4.571998478038363</v>
       </c>
       <c r="H7" t="n">
-        <v>6.713959510714068</v>
+        <v>4.801155963112819</v>
       </c>
       <c r="I7" t="n">
-        <v>6.780948458112388</v>
+        <v>4.849032509815743</v>
       </c>
       <c r="J7" t="n">
-        <v>6.988887302415526</v>
+        <v>4.997633305740198</v>
       </c>
       <c r="K7" t="n">
-        <v>7.073884403994492</v>
+        <v>5.058420177472271</v>
       </c>
       <c r="L7" t="n">
-        <v>7.016367360555023</v>
+        <v>5.017375519567025</v>
       </c>
       <c r="M7" t="n">
-        <v>7.035122546294134</v>
+        <v>5.030781454527318</v>
       </c>
       <c r="N7" t="n">
-        <v>7.363675623368884</v>
+        <v>5.265711226913752</v>
       </c>
       <c r="O7" t="n">
-        <v>7.386126926495911</v>
+        <v>5.28175706895032</v>
       </c>
       <c r="P7" t="n">
-        <v>7.904958986739203</v>
+        <v>5.65273553156204</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.930944981761771</v>
+        <v>5.671308356893103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.188901163952371</v>
+        <v>4.425446307721697</v>
       </c>
       <c r="B8" t="n">
-        <v>6.135114453086703</v>
+        <v>4.386973175269316</v>
       </c>
       <c r="C8" t="n">
-        <v>6.131698637029297</v>
+        <v>4.384534021582872</v>
       </c>
       <c r="D8" t="n">
-        <v>6.149191370140539</v>
+        <v>4.397044094541045</v>
       </c>
       <c r="E8" t="n">
-        <v>6.143012897151126</v>
+        <v>4.392630970413656</v>
       </c>
       <c r="F8" t="n">
-        <v>6.378546727525832</v>
+        <v>4.561165950593963</v>
       </c>
       <c r="G8" t="n">
-        <v>6.391502439257627</v>
+        <v>4.570420054510818</v>
       </c>
       <c r="H8" t="n">
-        <v>6.723916129806274</v>
+        <v>4.808229383332638</v>
       </c>
       <c r="I8" t="n">
-        <v>6.772934647459665</v>
+        <v>4.843250184834273</v>
       </c>
       <c r="J8" t="n">
-        <v>6.979733424222904</v>
+        <v>4.991032597017997</v>
       </c>
       <c r="K8" t="n">
-        <v>7.070172494982321</v>
+        <v>5.055679580023908</v>
       </c>
       <c r="L8" t="n">
-        <v>7.001660094499711</v>
+        <v>5.006824987899903</v>
       </c>
       <c r="M8" t="n">
-        <v>7.011588200937013</v>
+        <v>5.013924129647794</v>
       </c>
       <c r="N8" t="n">
-        <v>7.395473813429416</v>
+        <v>5.28839259583857</v>
       </c>
       <c r="O8" t="n">
-        <v>7.408608058246529</v>
+        <v>5.297779698876189</v>
       </c>
       <c r="P8" t="n">
-        <v>7.913287313908319</v>
+        <v>5.658642072703468</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.925081902601209</v>
+        <v>5.667071205658987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.188930115263504</v>
+        <v>4.425484262659462</v>
       </c>
       <c r="B9" t="n">
-        <v>6.135139456491772</v>
+        <v>4.387016149041826</v>
       </c>
       <c r="C9" t="n">
-        <v>6.131386313794049</v>
+        <v>4.384328563035466</v>
       </c>
       <c r="D9" t="n">
-        <v>6.150574891887689</v>
+        <v>4.398075151404129</v>
       </c>
       <c r="E9" t="n">
-        <v>6.143731416054687</v>
+        <v>4.393176768692258</v>
       </c>
       <c r="F9" t="n">
-        <v>6.37952317629221</v>
+        <v>4.561867332749685</v>
       </c>
       <c r="G9" t="n">
-        <v>6.390958944189548</v>
+        <v>4.570030153786507</v>
       </c>
       <c r="H9" t="n">
-        <v>6.722548399683378</v>
+        <v>4.807206795753188</v>
       </c>
       <c r="I9" t="n">
-        <v>6.766432446173043</v>
+        <v>4.838553182866576</v>
       </c>
       <c r="J9" t="n">
-        <v>6.982494326529994</v>
+        <v>4.992969239875521</v>
       </c>
       <c r="K9" t="n">
-        <v>7.062292035823299</v>
+        <v>5.04999292657978</v>
       </c>
       <c r="L9" t="n">
-        <v>7.000434927651331</v>
+        <v>5.005902777015368</v>
       </c>
       <c r="M9" t="n">
-        <v>7.00945062913173</v>
+        <v>5.012344765088734</v>
       </c>
       <c r="N9" t="n">
-        <v>7.39587386791052</v>
+        <v>5.288619698110817</v>
       </c>
       <c r="O9" t="n">
-        <v>7.407856201469542</v>
+        <v>5.297174929289324</v>
       </c>
       <c r="P9" t="n">
-        <v>7.915397250371158</v>
+        <v>5.66013643074902</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.925639873324855</v>
+        <v>5.667440717367144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.186640329746661</v>
+        <v>4.424100632655487</v>
       </c>
       <c r="B10" t="n">
-        <v>6.13689627469004</v>
+        <v>4.388523054174243</v>
       </c>
       <c r="C10" t="n">
-        <v>6.130595855268886</v>
+        <v>4.384029628690921</v>
       </c>
       <c r="D10" t="n">
-        <v>6.149464214315151</v>
+        <v>4.397491711864933</v>
       </c>
       <c r="E10" t="n">
-        <v>6.138164868505119</v>
+        <v>4.389440246224033</v>
       </c>
       <c r="F10" t="n">
-        <v>6.371787912345081</v>
+        <v>4.556474594815356</v>
       </c>
       <c r="G10" t="n">
-        <v>6.395826273709643</v>
+        <v>4.573681356064054</v>
       </c>
       <c r="H10" t="n">
-        <v>6.706169853394508</v>
+        <v>4.795588193316731</v>
       </c>
       <c r="I10" t="n">
-        <v>6.778667884376359</v>
+        <v>4.847440284492648</v>
       </c>
       <c r="J10" t="n">
-        <v>6.982919384416167</v>
+        <v>4.993369805623667</v>
       </c>
       <c r="K10" t="n">
-        <v>7.075485060575136</v>
+        <v>5.059617169559136</v>
       </c>
       <c r="L10" t="n">
-        <v>7.016418683333849</v>
+        <v>5.017439509710034</v>
       </c>
       <c r="M10" t="n">
-        <v>7.034846631525916</v>
+        <v>5.030621792846969</v>
       </c>
       <c r="N10" t="n">
-        <v>7.369827338328312</v>
+        <v>5.270066948118737</v>
       </c>
       <c r="O10" t="n">
-        <v>7.3924488400723</v>
+        <v>5.286238261023949</v>
       </c>
       <c r="P10" t="n">
-        <v>7.903660564300533</v>
+        <v>5.651796382110238</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.931202034312129</v>
+        <v>5.671475233148399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.197275988681792</v>
+        <v>4.431602222214554</v>
       </c>
       <c r="B11" t="n">
-        <v>6.147323133260034</v>
+        <v>4.395884743714772</v>
       </c>
       <c r="C11" t="n">
-        <v>6.142125056943062</v>
+        <v>4.392160454656239</v>
       </c>
       <c r="D11" t="n">
-        <v>6.143178709205793</v>
+        <v>4.392926454309313</v>
       </c>
       <c r="E11" t="n">
-        <v>6.145089495740538</v>
+        <v>4.394274638792895</v>
       </c>
       <c r="F11" t="n">
-        <v>6.367318444024943</v>
+        <v>4.55320545133283</v>
       </c>
       <c r="G11" t="n">
-        <v>6.392058655356355</v>
+        <v>4.570883042016116</v>
       </c>
       <c r="H11" t="n">
-        <v>6.716844991390275</v>
+        <v>4.803206470783638</v>
       </c>
       <c r="I11" t="n">
-        <v>6.762567007480624</v>
+        <v>4.835811330709529</v>
       </c>
       <c r="J11" t="n">
-        <v>6.998654422016682</v>
+        <v>5.004670966762453</v>
       </c>
       <c r="K11" t="n">
-        <v>7.059671942165808</v>
+        <v>5.048273975679354</v>
       </c>
       <c r="L11" t="n">
-        <v>7.008749217821111</v>
+        <v>5.0118899331899</v>
       </c>
       <c r="M11" t="n">
-        <v>7.030960575990721</v>
+        <v>5.027765762199454</v>
       </c>
       <c r="N11" t="n">
-        <v>7.325763881440872</v>
+        <v>5.238536746182784</v>
       </c>
       <c r="O11" t="n">
-        <v>7.378495185418892</v>
+        <v>5.27629783145561</v>
       </c>
       <c r="P11" t="n">
-        <v>7.902684115534155</v>
+        <v>5.651137660049856</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.909853512945513</v>
+        <v>5.656248088529735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.200353600786423</v>
+        <v>4.43386257991318</v>
       </c>
       <c r="B12" t="n">
-        <v>6.14909925233239</v>
+        <v>4.397194659583418</v>
       </c>
       <c r="C12" t="n">
-        <v>6.144848673470664</v>
+        <v>4.394159832948086</v>
       </c>
       <c r="D12" t="n">
-        <v>6.143081327522893</v>
+        <v>4.392853681205499</v>
       </c>
       <c r="E12" t="n">
-        <v>6.144585479733095</v>
+        <v>4.393940572605129</v>
       </c>
       <c r="F12" t="n">
-        <v>6.369761320565805</v>
+        <v>4.554911227792048</v>
       </c>
       <c r="G12" t="n">
-        <v>6.389136327556889</v>
+        <v>4.568790187927131</v>
       </c>
       <c r="H12" t="n">
-        <v>6.719372089927159</v>
+        <v>4.804986902409699</v>
       </c>
       <c r="I12" t="n">
-        <v>6.759991656758519</v>
+        <v>4.833990434728329</v>
       </c>
       <c r="J12" t="n">
-        <v>6.994490697088353</v>
+        <v>5.001734948436178</v>
       </c>
       <c r="K12" t="n">
-        <v>7.052364368042227</v>
+        <v>5.043024901889622</v>
       </c>
       <c r="L12" t="n">
-        <v>7.010223541407722</v>
+        <v>5.012905619871574</v>
       </c>
       <c r="M12" t="n">
-        <v>7.028857219371322</v>
+        <v>5.026246937334515</v>
       </c>
       <c r="N12" t="n">
-        <v>7.326090241675456</v>
+        <v>5.238796470880878</v>
       </c>
       <c r="O12" t="n">
-        <v>7.363824766486839</v>
+        <v>5.265817249797757</v>
       </c>
       <c r="P12" t="n">
-        <v>7.899146791701238</v>
+        <v>5.648584327872945</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.902870983087828</v>
+        <v>5.651274423296679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.189806111753377</v>
+        <v>4.426338091920586</v>
       </c>
       <c r="B13" t="n">
-        <v>6.139528650721951</v>
+        <v>4.390387237605125</v>
       </c>
       <c r="C13" t="n">
-        <v>6.134089313478875</v>
+        <v>4.386491367133721</v>
       </c>
       <c r="D13" t="n">
-        <v>6.148394331771937</v>
+        <v>4.396737004590038</v>
       </c>
       <c r="E13" t="n">
-        <v>6.138947869874384</v>
+        <v>4.389969733289711</v>
       </c>
       <c r="F13" t="n">
-        <v>6.362241875483481</v>
+        <v>4.549614475072232</v>
       </c>
       <c r="G13" t="n">
-        <v>6.38921484702193</v>
+        <v>4.568895583456792</v>
       </c>
       <c r="H13" t="n">
-        <v>6.697680978045475</v>
+        <v>4.789457059320431</v>
       </c>
       <c r="I13" t="n">
-        <v>6.773767655639069</v>
+        <v>4.843874088728607</v>
       </c>
       <c r="J13" t="n">
-        <v>6.974834511454302</v>
+        <v>4.987573365169475</v>
       </c>
       <c r="K13" t="n">
-        <v>7.064702890459424</v>
+        <v>5.051853659561774</v>
       </c>
       <c r="L13" t="n">
-        <v>7.005652743498621</v>
+        <v>5.009650905538943</v>
       </c>
       <c r="M13" t="n">
-        <v>7.02504924464494</v>
+        <v>5.023518886973019</v>
       </c>
       <c r="N13" t="n">
-        <v>7.379616390740932</v>
+        <v>5.277055048147878</v>
       </c>
       <c r="O13" t="n">
-        <v>7.403924087030274</v>
+        <v>5.294433390809447</v>
       </c>
       <c r="P13" t="n">
-        <v>7.908634925940572</v>
+        <v>5.65540178752073</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.939273308930887</v>
+        <v>5.677304609705611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.190046056710793</v>
+        <v>4.426252144375565</v>
       </c>
       <c r="B14" t="n">
-        <v>6.135347379544451</v>
+        <v>4.387129700177949</v>
       </c>
       <c r="C14" t="n">
-        <v>6.130333538843777</v>
+        <v>4.383546879523813</v>
       </c>
       <c r="D14" t="n">
-        <v>6.155009267709485</v>
+        <v>4.401189338363879</v>
       </c>
       <c r="E14" t="n">
-        <v>6.145361901258921</v>
+        <v>4.394296596194907</v>
       </c>
       <c r="F14" t="n">
-        <v>6.387454080917599</v>
+        <v>4.567466470262934</v>
       </c>
       <c r="G14" t="n">
-        <v>6.395209523051276</v>
+        <v>4.57300663646792</v>
       </c>
       <c r="H14" t="n">
-        <v>6.738994499031556</v>
+        <v>4.818924520175872</v>
       </c>
       <c r="I14" t="n">
-        <v>6.775712657359698</v>
+        <v>4.845147304368174</v>
       </c>
       <c r="J14" t="n">
-        <v>7.00034412581187</v>
+        <v>5.005861057951543</v>
       </c>
       <c r="K14" t="n">
-        <v>7.067671715819194</v>
+        <v>5.053937730689955</v>
       </c>
       <c r="L14" t="n">
-        <v>6.995829037243888</v>
+        <v>5.002611362453658</v>
       </c>
       <c r="M14" t="n">
-        <v>7.003310319234264</v>
+        <v>5.007956421457902</v>
       </c>
       <c r="N14" t="n">
-        <v>7.404847019736679</v>
+        <v>5.295078311074279</v>
       </c>
       <c r="O14" t="n">
-        <v>7.414974714758304</v>
+        <v>5.302312334005962</v>
       </c>
       <c r="P14" t="n">
-        <v>7.927350632619047</v>
+        <v>5.668778864181236</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.936086910081395</v>
+        <v>5.675016648415883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.189903932092506</v>
+        <v>4.4262141894378</v>
       </c>
       <c r="B15" t="n">
-        <v>6.134282760875988</v>
+        <v>4.386434905242831</v>
       </c>
       <c r="C15" t="n">
-        <v>6.129838734617149</v>
+        <v>4.383257982848759</v>
       </c>
       <c r="D15" t="n">
-        <v>6.151871121045213</v>
+        <v>4.399011791438558</v>
       </c>
       <c r="E15" t="n">
-        <v>6.143511649283817</v>
+        <v>4.39303686867372</v>
       </c>
       <c r="F15" t="n">
-        <v>6.383769807247873</v>
+        <v>4.564832209375748</v>
       </c>
       <c r="G15" t="n">
-        <v>6.393856707240174</v>
+        <v>4.572041138133702</v>
       </c>
       <c r="H15" t="n">
-        <v>6.735902849927589</v>
+        <v>4.816669808666336</v>
       </c>
       <c r="I15" t="n">
-        <v>6.778723155061249</v>
+        <v>4.847258038055942</v>
       </c>
       <c r="J15" t="n">
-        <v>6.996764690980942</v>
+        <v>5.00328765043565</v>
       </c>
       <c r="K15" t="n">
-        <v>7.072940854445309</v>
+        <v>5.057669234323434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.999104483307924</v>
+        <v>5.004865446608852</v>
       </c>
       <c r="M15" t="n">
-        <v>7.008443913085532</v>
+        <v>5.011543633592441</v>
       </c>
       <c r="N15" t="n">
-        <v>7.404478548504083</v>
+        <v>5.294812940187096</v>
       </c>
       <c r="O15" t="n">
-        <v>7.41758559663498</v>
+        <v>5.304186241429163</v>
       </c>
       <c r="P15" t="n">
-        <v>7.928384106695232</v>
+        <v>5.669569330653694</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.941426233704195</v>
+        <v>5.678883033233156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.187552296047334</v>
+        <v>4.424552014105435</v>
       </c>
       <c r="B16" t="n">
-        <v>6.132801418789708</v>
+        <v>4.385396947481972</v>
       </c>
       <c r="C16" t="n">
-        <v>6.127914788395525</v>
+        <v>4.381903211144573</v>
       </c>
       <c r="D16" t="n">
-        <v>6.15416441581189</v>
+        <v>4.400678358251325</v>
       </c>
       <c r="E16" t="n">
-        <v>6.14486885165721</v>
+        <v>4.394032793693583</v>
       </c>
       <c r="F16" t="n">
-        <v>6.386651340018016</v>
+        <v>4.566915025795242</v>
       </c>
       <c r="G16" t="n">
-        <v>6.396552688425332</v>
+        <v>4.573995346912836</v>
       </c>
       <c r="H16" t="n">
-        <v>6.730609146552633</v>
+        <v>4.81287870637025</v>
       </c>
       <c r="I16" t="n">
-        <v>6.77516872363539</v>
+        <v>4.844716311934381</v>
       </c>
       <c r="J16" t="n">
-        <v>6.984243248916135</v>
+        <v>4.994297035342948</v>
       </c>
       <c r="K16" t="n">
-        <v>7.066978200320702</v>
+        <v>5.053343939804096</v>
       </c>
       <c r="L16" t="n">
-        <v>6.990747204827675</v>
+        <v>4.998888641780984</v>
       </c>
       <c r="M16" t="n">
-        <v>6.998945689752925</v>
+        <v>5.004753150181415</v>
       </c>
       <c r="N16" t="n">
-        <v>7.401710627697325</v>
+        <v>5.292864377597051</v>
       </c>
       <c r="O16" t="n">
-        <v>7.413173592280879</v>
+        <v>5.301065153571638</v>
       </c>
       <c r="P16" t="n">
-        <v>7.919702222605316</v>
+        <v>5.663374206514384</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.929828163002023</v>
+        <v>5.670617639761216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.187641343261879</v>
+        <v>4.424927799357024</v>
       </c>
       <c r="B17" t="n">
-        <v>6.132990479624528</v>
+        <v>4.385854916152524</v>
       </c>
       <c r="C17" t="n">
-        <v>6.128048139889226</v>
+        <v>4.382328243712106</v>
       </c>
       <c r="D17" t="n">
-        <v>6.152928721214008</v>
+        <v>4.40010087857839</v>
       </c>
       <c r="E17" t="n">
-        <v>6.143510771971358</v>
+        <v>4.393383795625521</v>
       </c>
       <c r="F17" t="n">
-        <v>6.382827573667379</v>
+        <v>4.564465834439307</v>
       </c>
       <c r="G17" t="n">
-        <v>6.393848811428048</v>
+        <v>4.572362970911775</v>
       </c>
       <c r="H17" t="n">
-        <v>6.725298774240966</v>
+        <v>4.809342309937512</v>
       </c>
       <c r="I17" t="n">
-        <v>6.774140952090186</v>
+        <v>4.844282182728872</v>
       </c>
       <c r="J17" t="n">
-        <v>6.978966214477893</v>
+        <v>4.990761893618897</v>
       </c>
       <c r="K17" t="n">
-        <v>7.065514843139822</v>
+        <v>5.052619345537676</v>
       </c>
       <c r="L17" t="n">
-        <v>6.992601404708843</v>
+        <v>5.000463928536812</v>
       </c>
       <c r="M17" t="n">
-        <v>7.001860121740263</v>
+        <v>5.007095691299003</v>
       </c>
       <c r="N17" t="n">
-        <v>7.406200712860239</v>
+        <v>5.296107799551504</v>
       </c>
       <c r="O17" t="n">
-        <v>7.419272668492793</v>
+        <v>5.305461652808932</v>
       </c>
       <c r="P17" t="n">
-        <v>7.923787866724832</v>
+        <v>5.666145858002736</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.936183414451836</v>
+        <v>5.675018530478913</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.186657437339603</v>
+        <v>4.424273782454216</v>
       </c>
       <c r="B18" t="n">
-        <v>6.132357498685677</v>
+        <v>4.385446822152258</v>
       </c>
       <c r="C18" t="n">
-        <v>6.127345412609919</v>
+        <v>4.381868079301353</v>
       </c>
       <c r="D18" t="n">
-        <v>6.154809240468932</v>
+        <v>4.401489841094282</v>
       </c>
       <c r="E18" t="n">
-        <v>6.145215828734571</v>
+        <v>4.394641013729336</v>
       </c>
       <c r="F18" t="n">
-        <v>6.386637303018679</v>
+        <v>4.567263521132902</v>
       </c>
       <c r="G18" t="n">
-        <v>6.396979062280193</v>
+        <v>4.574651559555845</v>
       </c>
       <c r="H18" t="n">
-        <v>6.725688300972567</v>
+        <v>4.809726250795563</v>
       </c>
       <c r="I18" t="n">
-        <v>6.775638524456949</v>
+        <v>4.845392913593545</v>
       </c>
       <c r="J18" t="n">
-        <v>6.964924828578629</v>
+        <v>4.98055703419489</v>
       </c>
       <c r="K18" t="n">
-        <v>7.06505293813039</v>
+        <v>5.052086721700281</v>
       </c>
       <c r="L18" t="n">
-        <v>6.991576265101015</v>
+        <v>4.999830300650158</v>
       </c>
       <c r="M18" t="n">
-        <v>7.000103303541995</v>
+        <v>5.005929125897783</v>
       </c>
       <c r="N18" t="n">
-        <v>7.406338450916232</v>
+        <v>5.296279694641547</v>
       </c>
       <c r="O18" t="n">
-        <v>7.417925993868902</v>
+        <v>5.304558262554694</v>
       </c>
       <c r="P18" t="n">
-        <v>7.921836723816994</v>
+        <v>5.664846607157925</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.932167078016546</v>
+        <v>5.672218648045117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.189157339190271</v>
+        <v>4.426025983134833</v>
       </c>
       <c r="B19" t="n">
-        <v>6.134439361149841</v>
+        <v>4.386903852614389</v>
       </c>
       <c r="C19" t="n">
-        <v>6.130107192229468</v>
+        <v>4.38380723157625</v>
       </c>
       <c r="D19" t="n">
-        <v>6.153718741082941</v>
+        <v>4.400680240314355</v>
       </c>
       <c r="E19" t="n">
-        <v>6.145537363750633</v>
+        <v>4.394836120930078</v>
       </c>
       <c r="F19" t="n">
-        <v>6.384164159197996</v>
+        <v>4.565434155868068</v>
       </c>
       <c r="G19" t="n">
-        <v>6.394857720755392</v>
+        <v>4.573074390736988</v>
       </c>
       <c r="H19" t="n">
-        <v>6.722042190394788</v>
+        <v>4.807046820395666</v>
       </c>
       <c r="I19" t="n">
-        <v>6.770960255771675</v>
+        <v>4.842001749691264</v>
       </c>
       <c r="J19" t="n">
-        <v>6.961609903453957</v>
+        <v>4.978299499590809</v>
       </c>
       <c r="K19" t="n">
-        <v>7.058723128741875</v>
+        <v>5.047703083227023</v>
       </c>
       <c r="L19" t="n">
-        <v>6.989827342714874</v>
+        <v>4.998509092403335</v>
       </c>
       <c r="M19" t="n">
-        <v>6.998404826622222</v>
+        <v>5.004635207564889</v>
       </c>
       <c r="N19" t="n">
-        <v>7.403748624538561</v>
+        <v>5.294335523531904</v>
       </c>
       <c r="O19" t="n">
-        <v>7.415878346590621</v>
+        <v>5.302996150240073</v>
       </c>
       <c r="P19" t="n">
-        <v>7.917770380571564</v>
+        <v>5.661867301381967</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.928051605273438</v>
+        <v>5.669199818945536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.186856148611467</v>
+        <v>4.424174033113644</v>
       </c>
       <c r="B20" t="n">
-        <v>6.132230288379185</v>
+        <v>4.385115892736209</v>
       </c>
       <c r="C20" t="n">
-        <v>6.128048139889226</v>
+        <v>4.382123098841872</v>
       </c>
       <c r="D20" t="n">
-        <v>6.153213409106811</v>
+        <v>4.400108093153337</v>
       </c>
       <c r="E20" t="n">
-        <v>6.145323738166974</v>
+        <v>4.394458139938287</v>
       </c>
       <c r="F20" t="n">
-        <v>6.384111959106711</v>
+        <v>4.565199839020876</v>
       </c>
       <c r="G20" t="n">
-        <v>6.395390688073968</v>
+        <v>4.57324816789006</v>
       </c>
       <c r="H20" t="n">
-        <v>6.722430401157702</v>
+        <v>4.807171663909967</v>
       </c>
       <c r="I20" t="n">
-        <v>6.769730263704772</v>
+        <v>4.840955322646771</v>
       </c>
       <c r="J20" t="n">
-        <v>6.965008173262192</v>
+        <v>4.980692856410197</v>
       </c>
       <c r="K20" t="n">
-        <v>7.056553535031854</v>
+        <v>5.046053768658695</v>
       </c>
       <c r="L20" t="n">
-        <v>6.987374377080738</v>
+        <v>4.996560216136118</v>
       </c>
       <c r="M20" t="n">
-        <v>6.996702840452614</v>
+        <v>5.003224915001328</v>
       </c>
       <c r="N20" t="n">
-        <v>7.405182153095849</v>
+        <v>5.295268399440275</v>
       </c>
       <c r="O20" t="n">
-        <v>7.417971614116747</v>
+        <v>5.304408952221007</v>
       </c>
       <c r="P20" t="n">
-        <v>7.924673952307979</v>
+        <v>5.666691028926995</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.936362386193383</v>
+        <v>5.675038605817896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.187504921174572</v>
+        <v>4.424830873110997</v>
       </c>
       <c r="B21" t="n">
-        <v>6.133416853479388</v>
+        <v>4.386167652292619</v>
       </c>
       <c r="C21" t="n">
-        <v>6.128931154878767</v>
+        <v>4.382960930567244</v>
       </c>
       <c r="D21" t="n">
-        <v>6.152405404332476</v>
+        <v>4.39974265924841</v>
       </c>
       <c r="E21" t="n">
-        <v>6.143822656550377</v>
+        <v>4.393606506417364</v>
       </c>
       <c r="F21" t="n">
-        <v>6.3811874380261</v>
+        <v>4.563294250203342</v>
       </c>
       <c r="G21" t="n">
-        <v>6.391602452877903</v>
+        <v>4.570728712847684</v>
       </c>
       <c r="H21" t="n">
-        <v>6.721693458692511</v>
+        <v>4.806705225955782</v>
       </c>
       <c r="I21" t="n">
-        <v>6.770186904839453</v>
+        <v>4.841337381441792</v>
       </c>
       <c r="J21" t="n">
-        <v>6.961097114321928</v>
+        <v>4.977773149296846</v>
       </c>
       <c r="K21" t="n">
-        <v>7.060378617351179</v>
+        <v>5.048698067215372</v>
       </c>
       <c r="L21" t="n">
-        <v>6.992293468035888</v>
+        <v>5.000267880304555</v>
       </c>
       <c r="M21" t="n">
-        <v>7.001138970899326</v>
+        <v>5.006585652217964</v>
       </c>
       <c r="N21" t="n">
-        <v>7.410536391030445</v>
+        <v>5.299263391897907</v>
       </c>
       <c r="O21" t="n">
-        <v>7.422483632091125</v>
+        <v>5.307791646839656</v>
       </c>
       <c r="P21" t="n">
-        <v>7.926792661895403</v>
+        <v>5.668423154268629</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.936758054112194</v>
+        <v>5.675528569559952</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.18735972596268</v>
+        <v>4.424594046846431</v>
       </c>
       <c r="B22" t="n">
-        <v>6.134795988664246</v>
+        <v>4.387009875498394</v>
       </c>
       <c r="C22" t="n">
-        <v>6.133524762911791</v>
+        <v>4.386100211700724</v>
       </c>
       <c r="D22" t="n">
-        <v>6.142527743361542</v>
+        <v>4.392529025332882</v>
       </c>
       <c r="E22" t="n">
-        <v>6.14364368480883</v>
+        <v>4.393324196962915</v>
       </c>
       <c r="F22" t="n">
-        <v>6.362482697753356</v>
+        <v>4.549784488099245</v>
       </c>
       <c r="G22" t="n">
-        <v>6.394301504656664</v>
+        <v>4.572532356584444</v>
       </c>
       <c r="H22" t="n">
-        <v>6.713115536128933</v>
+        <v>4.80050163253284</v>
       </c>
       <c r="I22" t="n">
-        <v>6.775220046414216</v>
+        <v>4.844897617339572</v>
       </c>
       <c r="J22" t="n">
-        <v>7.01858783838764</v>
+        <v>5.01896774489012</v>
       </c>
       <c r="K22" t="n">
-        <v>7.056446941568139</v>
+        <v>5.045992915287402</v>
       </c>
       <c r="L22" t="n">
-        <v>7.007499486223892</v>
+        <v>5.010994071187779</v>
       </c>
       <c r="M22" t="n">
-        <v>7.028027281785524</v>
+        <v>5.025673849141983</v>
       </c>
       <c r="N22" t="n">
-        <v>7.375391253940504</v>
+        <v>5.27401928048103</v>
       </c>
       <c r="O22" t="n">
-        <v>7.400210423393186</v>
+        <v>5.291765252787727</v>
       </c>
       <c r="P22" t="n">
-        <v>7.889908691512594</v>
+        <v>5.641926843582683</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.921334901090697</v>
+        <v>5.66438989319606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.199663155881535</v>
+        <v>4.433300470421655</v>
       </c>
       <c r="B23" t="n">
-        <v>6.147911371263499</v>
+        <v>4.396289700943321</v>
       </c>
       <c r="C23" t="n">
-        <v>6.148164914564023</v>
+        <v>4.396474770474572</v>
       </c>
       <c r="D23" t="n">
-        <v>6.142075050132924</v>
+        <v>4.392113403080498</v>
       </c>
       <c r="E23" t="n">
-        <v>6.145350057540731</v>
+        <v>4.394464727158891</v>
       </c>
       <c r="F23" t="n">
-        <v>6.361394391648512</v>
+        <v>4.548967672744371</v>
       </c>
       <c r="G23" t="n">
-        <v>6.3858196478073</v>
+        <v>4.566429453533589</v>
       </c>
       <c r="H23" t="n">
-        <v>6.696215866239679</v>
+        <v>4.788409377567252</v>
       </c>
       <c r="I23" t="n">
-        <v>6.74627048990663</v>
+        <v>4.824150381854905</v>
       </c>
       <c r="J23" t="n">
-        <v>6.994676687329568</v>
+        <v>5.001864810785225</v>
       </c>
       <c r="K23" t="n">
-        <v>7.044928267643466</v>
+        <v>5.037661022255081</v>
       </c>
       <c r="L23" t="n">
-        <v>6.96123616834661</v>
+        <v>4.977876035409134</v>
       </c>
       <c r="M23" t="n">
-        <v>6.978128381079967</v>
+        <v>4.989955115933514</v>
       </c>
       <c r="N23" t="n">
-        <v>7.366826052407576</v>
+        <v>5.267864307019687</v>
       </c>
       <c r="O23" t="n">
-        <v>7.384454768949894</v>
+        <v>5.280470365192373</v>
       </c>
       <c r="P23" t="n">
-        <v>7.908092746841182</v>
+        <v>5.654923116156852</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.92362468660754</v>
+        <v>5.666023523905808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.197125529595149</v>
+        <v>4.43147267354268</v>
       </c>
       <c r="B24" t="n">
-        <v>6.14530794654272</v>
+        <v>4.394416420874463</v>
       </c>
       <c r="C24" t="n">
-        <v>6.144912278623909</v>
+        <v>4.394143835412334</v>
       </c>
       <c r="D24" t="n">
-        <v>6.146364669399056</v>
+        <v>4.395162972542896</v>
       </c>
       <c r="E24" t="n">
-        <v>6.146388795491667</v>
+        <v>4.395203750575205</v>
       </c>
       <c r="F24" t="n">
-        <v>6.373977245585419</v>
+        <v>4.557931938954658</v>
       </c>
       <c r="G24" t="n">
-        <v>6.387417672450568</v>
+        <v>4.567551790453612</v>
       </c>
       <c r="H24" t="n">
-        <v>6.715988734430719</v>
+        <v>4.802483444903075</v>
       </c>
       <c r="I24" t="n">
-        <v>6.737945671987347</v>
+        <v>4.818164794066232</v>
       </c>
       <c r="J24" t="n">
-        <v>7.000407292308886</v>
+        <v>5.005886779479616</v>
       </c>
       <c r="K24" t="n">
-        <v>7.032212062212858</v>
+        <v>5.028593242578163</v>
       </c>
       <c r="L24" t="n">
-        <v>6.956079325715191</v>
+        <v>4.97418656451665</v>
       </c>
       <c r="M24" t="n">
-        <v>6.965976287560213</v>
+        <v>4.981269395051617</v>
       </c>
       <c r="N24" t="n">
-        <v>7.335192797089253</v>
+        <v>5.245361734082687</v>
       </c>
       <c r="O24" t="n">
-        <v>7.346187715476165</v>
+        <v>5.253229384901024</v>
       </c>
       <c r="P24" t="n">
-        <v>7.88567478158758</v>
+        <v>5.638916797443907</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.892211636716316</v>
+        <v>5.643594351426964</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.192705190772691</v>
+        <v>4.428301397337696</v>
       </c>
       <c r="B25" t="n">
-        <v>6.140210322502253</v>
+        <v>4.390750162092679</v>
       </c>
       <c r="C25" t="n">
-        <v>6.140668279605622</v>
+        <v>4.391081405185899</v>
       </c>
       <c r="D25" t="n">
-        <v>6.141508744940923</v>
+        <v>4.391660453244692</v>
       </c>
       <c r="E25" t="n">
-        <v>6.143750278272545</v>
+        <v>4.393272126552428</v>
       </c>
       <c r="F25" t="n">
-        <v>6.37352499101303</v>
+        <v>4.557608224113556</v>
       </c>
       <c r="G25" t="n">
-        <v>6.378250195914839</v>
+        <v>4.561000015370182</v>
       </c>
       <c r="H25" t="n">
-        <v>6.725359308800607</v>
+        <v>4.809220603194928</v>
       </c>
       <c r="I25" t="n">
-        <v>6.729178249932721</v>
+        <v>4.811940811627134</v>
       </c>
       <c r="J25" t="n">
-        <v>7.010279689405071</v>
+        <v>5.012990940062252</v>
       </c>
       <c r="K25" t="n">
-        <v>7.041863376569484</v>
+        <v>5.035431404919273</v>
       </c>
       <c r="L25" t="n">
-        <v>6.966975546450515</v>
+        <v>4.981987402097434</v>
       </c>
       <c r="M25" t="n">
-        <v>6.967305415934933</v>
+        <v>4.982229874551089</v>
       </c>
       <c r="N25" t="n">
-        <v>7.411704971225248</v>
+        <v>5.299993632353416</v>
       </c>
       <c r="O25" t="n">
-        <v>7.4113566781792</v>
+        <v>5.299760256537738</v>
       </c>
       <c r="P25" t="n">
-        <v>7.942595691211457</v>
+        <v>5.67963774050805</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.937199342278849</v>
+        <v>5.67579895928188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.181009299731389</v>
+        <v>4.419878224248437</v>
       </c>
       <c r="B26" t="n">
-        <v>6.125697381156513</v>
+        <v>4.380323846585514</v>
       </c>
       <c r="C26" t="n">
-        <v>6.128446878401642</v>
+        <v>4.382291543483027</v>
       </c>
       <c r="D26" t="n">
-        <v>6.139000508621898</v>
+        <v>4.389838616231978</v>
       </c>
       <c r="E26" t="n">
-        <v>6.146596718544346</v>
+        <v>4.395275268970333</v>
       </c>
       <c r="F26" t="n">
-        <v>6.385244569490713</v>
+        <v>4.565972425894552</v>
       </c>
       <c r="G26" t="n">
-        <v>6.385035330469347</v>
+        <v>4.565820919820665</v>
       </c>
       <c r="H26" t="n">
-        <v>6.734986935720851</v>
+        <v>4.81612526509642</v>
       </c>
       <c r="I26" t="n">
-        <v>6.724218802604478</v>
+        <v>4.808389358690159</v>
       </c>
       <c r="J26" t="n">
-        <v>6.963702293667624</v>
+        <v>4.979793857636361</v>
       </c>
       <c r="K26" t="n">
-        <v>7.000095846386098</v>
+        <v>5.005716766452603</v>
       </c>
       <c r="L26" t="n">
-        <v>6.996798906166827</v>
+        <v>5.003339720846138</v>
       </c>
       <c r="M26" t="n">
-        <v>6.987509483199357</v>
+        <v>4.996705134989402</v>
       </c>
       <c r="N26" t="n">
-        <v>7.438349827904195</v>
+        <v>5.319085279726323</v>
       </c>
       <c r="O26" t="n">
-        <v>7.427249193366026</v>
+        <v>5.311156775536694</v>
       </c>
       <c r="P26" t="n">
-        <v>7.929648313948018</v>
+        <v>5.670363561252212</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.916815864616651</v>
+        <v>5.661187249273916</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.785200791599031</v>
+        <v>4.851984212000598</v>
       </c>
       <c r="B27" t="n">
-        <v>6.706609825592476</v>
+        <v>4.795776085942526</v>
       </c>
       <c r="C27" t="n">
-        <v>6.72018228798264</v>
+        <v>4.805476238797412</v>
       </c>
       <c r="D27" t="n">
-        <v>6.698681991560693</v>
+        <v>4.79011891815253</v>
       </c>
       <c r="E27" t="n">
-        <v>6.749628403341771</v>
+        <v>4.826542483965607</v>
       </c>
       <c r="F27" t="n">
-        <v>7.030284168085172</v>
+        <v>5.027410679641191</v>
       </c>
       <c r="G27" t="n">
-        <v>7.154782263110832</v>
+        <v>5.11635729210026</v>
       </c>
       <c r="H27" t="n">
-        <v>7.109081302519487</v>
+        <v>5.084011843195292</v>
       </c>
       <c r="I27" t="n">
-        <v>7.580598147247684</v>
+        <v>5.421061728216924</v>
       </c>
       <c r="J27" t="n">
-        <v>7.223523642145126</v>
+        <v>5.1654678447963</v>
       </c>
       <c r="K27" t="n">
-        <v>7.627594898340322</v>
+        <v>5.454481521434659</v>
       </c>
       <c r="L27" t="n">
-        <v>8.218016532514625</v>
+        <v>5.876837167984477</v>
       </c>
       <c r="M27" t="n">
-        <v>8.257748259137921</v>
+        <v>5.905221815243519</v>
       </c>
       <c r="N27" t="n">
-        <v>8.87393831484507</v>
+        <v>6.345522932781178</v>
       </c>
       <c r="O27" t="n">
-        <v>8.773168451229871</v>
+        <v>6.273412942508307</v>
       </c>
       <c r="P27" t="n">
-        <v>9.543828666140717</v>
+        <v>6.824308475149397</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.610249115065889</v>
+        <v>6.871871344680709</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.928268520778817</v>
+        <v>4.954160786526687</v>
       </c>
       <c r="B28" t="n">
-        <v>6.844286469714406</v>
+        <v>4.894136150321629</v>
       </c>
       <c r="C28" t="n">
-        <v>6.856833792496741</v>
+        <v>4.903104494335147</v>
       </c>
       <c r="D28" t="n">
-        <v>6.793451915271794</v>
+        <v>4.857882597535564</v>
       </c>
       <c r="E28" t="n">
-        <v>6.842596765919218</v>
+        <v>4.893019459590695</v>
       </c>
       <c r="F28" t="n">
-        <v>7.034344808799619</v>
+        <v>5.03022091342165</v>
       </c>
       <c r="G28" t="n">
-        <v>7.205433897905833</v>
+        <v>5.152515173348983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.090158988757022</v>
+        <v>5.070040034617413</v>
       </c>
       <c r="I28" t="n">
-        <v>7.563361589374343</v>
+        <v>5.408512131935128</v>
       </c>
       <c r="J28" t="n">
-        <v>7.215967349939542</v>
+        <v>5.160078557310858</v>
       </c>
       <c r="K28" t="n">
-        <v>7.50042845747195</v>
+        <v>5.363409746137928</v>
       </c>
       <c r="L28" t="n">
-        <v>8.236103206160312</v>
+        <v>5.889531055765214</v>
       </c>
       <c r="M28" t="n">
-        <v>8.305717949747104</v>
+        <v>5.939273981639221</v>
       </c>
       <c r="N28" t="n">
-        <v>8.927484203440864</v>
+        <v>6.384078248652521</v>
       </c>
       <c r="O28" t="n">
-        <v>8.915146558336124</v>
+        <v>6.375031799023272</v>
       </c>
       <c r="P28" t="n">
-        <v>9.626640821041638</v>
+        <v>6.884094716704031</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.749983056903144</v>
+        <v>6.972217926587622</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.858728787407232</v>
+        <v>4.904729655761262</v>
       </c>
       <c r="B29" t="n">
-        <v>6.781876216037316</v>
+        <v>4.849796941082958</v>
       </c>
       <c r="C29" t="n">
-        <v>6.789027628543273</v>
+        <v>4.854896390861831</v>
       </c>
       <c r="D29" t="n">
-        <v>6.755081777584184</v>
+        <v>4.830650713882191</v>
       </c>
       <c r="E29" t="n">
-        <v>6.788931562829061</v>
+        <v>4.854816403183071</v>
       </c>
       <c r="F29" t="n">
-        <v>7.00539130438597</v>
+        <v>5.009553038261401</v>
       </c>
       <c r="G29" t="n">
-        <v>7.168301648097252</v>
+        <v>5.125979966693758</v>
       </c>
       <c r="H29" t="n">
-        <v>7.085008287312812</v>
+        <v>5.066524027200829</v>
       </c>
       <c r="I29" t="n">
-        <v>7.519760914808793</v>
+        <v>5.377219697295256</v>
       </c>
       <c r="J29" t="n">
-        <v>7.202571666009779</v>
+        <v>5.150842332992784</v>
       </c>
       <c r="K29" t="n">
-        <v>7.432103363199243</v>
+        <v>5.314662431606614</v>
       </c>
       <c r="L29" t="n">
-        <v>8.343732775888997</v>
+        <v>5.966444698244129</v>
       </c>
       <c r="M29" t="n">
-        <v>8.411593771871125</v>
+        <v>6.014942953101185</v>
       </c>
       <c r="N29" t="n">
-        <v>9.022853331561162</v>
+        <v>6.452055228512251</v>
       </c>
       <c r="O29" t="n">
-        <v>9.103725748616204</v>
+        <v>6.50987534155523</v>
       </c>
       <c r="P29" t="n">
-        <v>9.799009909024891</v>
+        <v>7.007016017297414</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.939717667691149</v>
+        <v>7.107638635115344</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7.01764911405698</v>
+        <v>5.018530478912895</v>
       </c>
       <c r="B30" t="n">
-        <v>6.938363755239474</v>
+        <v>4.961840231042058</v>
       </c>
       <c r="C30" t="n">
-        <v>6.95636620688914</v>
+        <v>4.974701936109606</v>
       </c>
       <c r="D30" t="n">
-        <v>6.925382601446382</v>
+        <v>4.952576089455711</v>
       </c>
       <c r="E30" t="n">
-        <v>6.959464874492777</v>
+        <v>4.976934062862787</v>
       </c>
       <c r="F30" t="n">
-        <v>7.281344235695256</v>
+        <v>5.207072730130041</v>
       </c>
       <c r="G30" t="n">
-        <v>7.314584727437662</v>
+        <v>5.230799898745009</v>
       </c>
       <c r="H30" t="n">
-        <v>7.496799893143343</v>
+        <v>5.360857041315361</v>
       </c>
       <c r="I30" t="n">
-        <v>7.617548793377344</v>
+        <v>5.447420020947361</v>
       </c>
       <c r="J30" t="n">
-        <v>7.827051885794096</v>
+        <v>5.596195221379232</v>
       </c>
       <c r="K30" t="n">
-        <v>7.602325667596398</v>
+        <v>5.436273188977008</v>
       </c>
       <c r="L30" t="n">
-        <v>8.615847903848309</v>
+        <v>6.161210618223201</v>
       </c>
       <c r="M30" t="n">
-        <v>8.628053952084263</v>
+        <v>6.16992017857014</v>
       </c>
       <c r="N30" t="n">
-        <v>9.228058470243425</v>
+        <v>6.598828541234903</v>
       </c>
       <c r="O30" t="n">
-        <v>9.033403891187813</v>
+        <v>6.45972087123207</v>
       </c>
       <c r="P30" t="n">
-        <v>9.953947675769003</v>
+        <v>7.117779818073514</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.940577433900538</v>
+        <v>7.10836448409045</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.959206067317501</v>
+        <v>4.976224838777775</v>
       </c>
       <c r="B31" t="n">
-        <v>6.866210069397609</v>
+        <v>4.909707085120378</v>
       </c>
       <c r="C31" t="n">
-        <v>6.885444267739094</v>
+        <v>4.923462770127017</v>
       </c>
       <c r="D31" t="n">
-        <v>6.77691150483432</v>
+        <v>4.845893856036607</v>
       </c>
       <c r="E31" t="n">
-        <v>6.856741674688593</v>
+        <v>4.902988747458823</v>
       </c>
       <c r="F31" t="n">
-        <v>7.114737335939829</v>
+        <v>5.087594663849427</v>
       </c>
       <c r="G31" t="n">
-        <v>7.329301205273788</v>
+        <v>5.241054946516474</v>
       </c>
       <c r="H31" t="n">
-        <v>7.670842015985071</v>
+        <v>5.485090767194763</v>
       </c>
       <c r="I31" t="n">
-        <v>8.126756735950226</v>
+        <v>5.811385916710555</v>
       </c>
       <c r="J31" t="n">
-        <v>8.003689976200706</v>
+        <v>5.722886921575374</v>
       </c>
       <c r="K31" t="n">
-        <v>8.485523138129118</v>
+        <v>6.068234195140451</v>
       </c>
       <c r="L31" t="n">
-        <v>8.4482180577662</v>
+        <v>6.041337632383529</v>
       </c>
       <c r="M31" t="n">
-        <v>8.546448979126325</v>
+        <v>6.111605710304703</v>
       </c>
       <c r="N31" t="n">
-        <v>8.992632549301122</v>
+        <v>6.430511253011693</v>
       </c>
       <c r="O31" t="n">
-        <v>9.04299993485955</v>
+        <v>6.46667760354405</v>
       </c>
       <c r="P31" t="n">
-        <v>9.879545438095846</v>
+        <v>7.064592716855223</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.95663751576695</v>
+        <v>7.119875181579872</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.75420665840677</v>
+        <v>4.830120285784997</v>
       </c>
       <c r="B32" t="n">
-        <v>6.665215591860207</v>
+        <v>4.766493380941164</v>
       </c>
       <c r="C32" t="n">
-        <v>6.679829424138682</v>
+        <v>4.776948241070944</v>
       </c>
       <c r="D32" t="n">
-        <v>6.607989377500751</v>
+        <v>4.725497970351861</v>
       </c>
       <c r="E32" t="n">
-        <v>6.683758029328117</v>
+        <v>4.779698562511626</v>
       </c>
       <c r="F32" t="n">
-        <v>6.984543289776963</v>
+        <v>4.994729282485427</v>
       </c>
       <c r="G32" t="n">
-        <v>7.195694413647121</v>
+        <v>5.145705869307661</v>
       </c>
       <c r="H32" t="n">
-        <v>7.466687897628164</v>
+        <v>5.339579064056329</v>
       </c>
       <c r="I32" t="n">
-        <v>8.027308982210076</v>
+        <v>5.740278438678152</v>
       </c>
       <c r="J32" t="n">
-        <v>7.935351722241121</v>
+        <v>5.67454676001281</v>
       </c>
       <c r="K32" t="n">
-        <v>8.221281889485388</v>
+        <v>5.878837800985009</v>
       </c>
       <c r="L32" t="n">
-        <v>8.344340753422779</v>
+        <v>5.966867535071461</v>
       </c>
       <c r="M32" t="n">
-        <v>8.442376911417103</v>
+        <v>6.036976892343799</v>
       </c>
       <c r="N32" t="n">
-        <v>8.931261033574968</v>
+        <v>6.38652994942583</v>
       </c>
       <c r="O32" t="n">
-        <v>9.001796955243247</v>
+        <v>6.437003743109689</v>
       </c>
       <c r="P32" t="n">
-        <v>9.739650948078674</v>
+        <v>6.964451907172887</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.986693363284781</v>
+        <v>7.141237224320896</v>
       </c>
     </row>
   </sheetData>
